--- a/datos_robot.xlsx
+++ b/datos_robot.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,2906 +453,2991 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02</v>
+        <v>0.02000000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>0.06806784082777904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5022664070129395</v>
+        <v>0.519809365272522</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4977336525917053</v>
+        <v>0.4801906049251556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.451015513946005</v>
+        <v>0.4511114273115956</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03999999999999999</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="C3" t="n">
         <v>0.07853981633974502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5031305551528931</v>
+        <v>0.5188031792640686</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4968695044517517</v>
+        <v>0.4811968207359314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.451016668698016</v>
+        <v>0.4511018035324013</v>
       </c>
       <c r="B4" t="n">
-        <v>0.06</v>
+        <v>0.06000000000000003</v>
       </c>
       <c r="C4" t="n">
         <v>0.06806784082777907</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5038971900939941</v>
+        <v>0.5187483429908752</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4961028695106506</v>
+        <v>0.48125159740448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4510180027108591</v>
+        <v>0.4511012914374439</v>
       </c>
       <c r="B5" t="n">
-        <v>0.08</v>
+        <v>0.08000000000000004</v>
       </c>
       <c r="C5" t="n">
         <v>0.05759586531581309</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5042375326156616</v>
+        <v>0.5191080570220947</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4957624673843384</v>
+        <v>0.4808919429779053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4510186860250529</v>
+        <v>0.4511046668433247</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09999999999999998</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>0.04712388980384714</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5038482546806335</v>
+        <v>0.5191903114318848</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4961518049240112</v>
+        <v>0.4808097183704376</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4510179088624506</v>
+        <v>0.4511054482339839</v>
       </c>
       <c r="B7" t="n">
         <v>0.12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03665191429188113</v>
+        <v>0.03839724354387546</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5032488703727722</v>
+        <v>0.5190293192863464</v>
       </c>
       <c r="E7" t="n">
-        <v>0.496751070022583</v>
+        <v>0.4809706807136536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4510168511512117</v>
+        <v>0.4511039229490493</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02617993877991524</v>
+        <v>0.02792526803190944</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5027152895927429</v>
+        <v>0.5183677077293396</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4972846806049347</v>
+        <v>0.4816322326660156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4510160642913609</v>
+        <v>0.4510977916872248</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01745329251994367</v>
+        <v>0.01919862177193788</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5023362040519714</v>
+        <v>0.5173447728157043</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4976637661457062</v>
+        <v>0.482655256986618</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4510155901422645</v>
+        <v>0.4510887453185553</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.18</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008726646259972111</v>
+        <v>0.01221730476396065</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5019932985305786</v>
+        <v>0.5162454843521118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4980067014694214</v>
+        <v>0.4837544560432434</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4510152236645411</v>
+        <v>0.4510795958592884</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1899999999999999</v>
+        <v>0.2000000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00174532925199488</v>
+        <v>0.003490658503989087</v>
       </c>
       <c r="D11" t="n">
-        <v>0.50141841173172</v>
+        <v>0.5151913166046143</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4985815286636353</v>
+        <v>0.4848087131977081</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4510147357887965</v>
+        <v>0.4510713905983778</v>
       </c>
       <c r="B12" t="n">
-        <v>0.21</v>
+        <v>0.2200000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.00698131700797669</v>
+        <v>-0.003490658503988137</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5007423162460327</v>
+        <v>0.5140887498855591</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4992575943470001</v>
+        <v>0.4859112799167633</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4510143729423471</v>
+        <v>0.4510633948102508</v>
       </c>
       <c r="B13" t="n">
-        <v>0.23</v>
+        <v>0.2400000000000002</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.01396263401595392</v>
+        <v>-0.0122173047639597</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4999415874481201</v>
+        <v>0.5129204988479614</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5000584721565247</v>
+        <v>0.4870794713497162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4510142429961578</v>
+        <v>0.4510555780243711</v>
       </c>
       <c r="B14" t="n">
-        <v>0.25</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.02094395102393115</v>
+        <v>-0.0174532925199426</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4987375140190125</v>
+        <v>0.5117214918136597</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5012624859809875</v>
+        <v>0.4882785081863403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.451014634529692</v>
+        <v>0.4510482618845866</v>
       </c>
       <c r="B15" t="n">
-        <v>0.27</v>
+        <v>0.2900000000000003</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02617993877991405</v>
+        <v>-0.02443460952791983</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4974570274353027</v>
+        <v>0.5107182264328003</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5025429129600525</v>
+        <v>0.4892818033695221</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4510158387516958</v>
+        <v>0.4510426877043029</v>
       </c>
       <c r="B16" t="n">
-        <v>0.29</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03316125578789128</v>
+        <v>-0.03141592653589706</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4962521195411682</v>
+        <v>0.5096803903579712</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5037478804588318</v>
+        <v>0.4903196692466736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4510177178668286</v>
+        <v>0.4510374461850166</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3100000000000001</v>
+        <v>0.3500000000000003</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.04014257279586851</v>
+        <v>-0.03665191429187996</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4953461885452271</v>
+        <v>0.5085228681564331</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5046538114547729</v>
+        <v>0.4914771914482117</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4510196024890273</v>
+        <v>0.4510322284735352</v>
       </c>
       <c r="B18" t="n">
-        <v>0.3300000000000001</v>
+        <v>0.3800000000000003</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04537856055185141</v>
+        <v>-0.04363323129985719</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4949513077735901</v>
+        <v>0.5068861246109009</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5050487518310547</v>
+        <v>0.4931138753890991</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4510205534988189</v>
+        <v>0.4510259811765224</v>
       </c>
       <c r="B19" t="n">
-        <v>0.3500000000000001</v>
+        <v>0.4100000000000004</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.05061454830783431</v>
+        <v>-0.04886921905584009</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4946540594100952</v>
+        <v>0.5047681927680969</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5053459405899048</v>
+        <v>0.4952318370342255</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4510213162226233</v>
+        <v>0.4510198704335453</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3700000000000001</v>
+        <v>0.4400000000000004</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05585053606381721</v>
+        <v>-0.05410520681182299</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4941375553607941</v>
+        <v>0.5024102330207825</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5058624148368835</v>
+        <v>0.4975897371768951</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4510227485143994</v>
+        <v>0.4510156771438171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3900000000000001</v>
+        <v>0.4700000000000004</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06108652381980012</v>
+        <v>-0.05934119456780589</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4933089017868042</v>
+        <v>0.500132143497467</v>
       </c>
       <c r="E21" t="n">
-        <v>0.506691038608551</v>
+        <v>0.4998679161071777</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4510253231456113</v>
+        <v>0.4510142464721006</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4100000000000001</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.06632251157578301</v>
+        <v>-0.06457718232378878</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4927842319011688</v>
+        <v>0.4976457357406616</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5072157382965088</v>
+        <v>0.5023542642593384</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4510271310679438</v>
+        <v>0.4510156122317296</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4300000000000002</v>
+        <v>0.5300000000000005</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06981317007977156</v>
+        <v>-0.06981317007977167</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4921990036964417</v>
+        <v>0.495439887046814</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5078009963035583</v>
+        <v>0.504560112953186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4510293083990585</v>
+        <v>0.4510193887214579</v>
       </c>
       <c r="B24" t="n">
-        <v>0.4500000000000002</v>
+        <v>0.5600000000000005</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.07504915783575444</v>
+        <v>-0.07330382858376022</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4916262924671173</v>
+        <v>0.4929331243038177</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5083736777305603</v>
+        <v>0.5070668458938599</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4510316010506951</v>
+        <v>0.4510266044892411</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4700000000000002</v>
+        <v>0.5900000000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.078539816339743</v>
+        <v>-0.1413716694115391</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4910524785518646</v>
+        <v>0.4902548491954803</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5089475512504578</v>
+        <v>0.509745180606842</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4510340646467459</v>
+        <v>0.4510377567933771</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4900000000000002</v>
+        <v>0.6200000000000006</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.08377580409572588</v>
+        <v>-0.2111848394913122</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4904665052890778</v>
+        <v>0.4891857802867889</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5095335245132446</v>
+        <v>0.5108142495155334</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4510367463381861</v>
+        <v>0.4510431997307582</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5100000000000002</v>
+        <v>0.6500000000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.08726646259971443</v>
+        <v>-0.2234021442552724</v>
       </c>
       <c r="D27" t="n">
-        <v>0.490016758441925</v>
+        <v>0.4879394471645355</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5099833011627197</v>
+        <v>0.5120605826377869</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4510389211778815</v>
+        <v>0.451050260050681</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5300000000000002</v>
+        <v>0.6800000000000006</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.09075712110370299</v>
+        <v>-0.2234021442552723</v>
       </c>
       <c r="D28" t="n">
-        <v>0.489336371421814</v>
+        <v>0.4856300055980682</v>
       </c>
       <c r="E28" t="n">
-        <v>0.510663628578186</v>
+        <v>0.5143699645996094</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4510423975552532</v>
+        <v>0.4510653748817941</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5500000000000003</v>
+        <v>0.7100000000000006</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.09424777960769154</v>
+        <v>-0.2251474735072665</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4889302551746368</v>
+        <v>0.4830248355865479</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5110697150230408</v>
+        <v>0.5169751048088074</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4510445821013294</v>
+        <v>0.4510855996857058</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5700000000000003</v>
+        <v>0.7400000000000007</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.09773843811168009</v>
+        <v>-0.2146754979953004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4888513088226318</v>
+        <v>0.4804477393627167</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5111487507820129</v>
+        <v>0.5195522904396057</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4510450201251203</v>
+        <v>0.4511089224479575</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5900000000000003</v>
+        <v>0.7700000000000007</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1012290966156686</v>
+        <v>-0.1989675347273513</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4887574315071106</v>
+        <v>0.4774686098098755</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5112425684928894</v>
+        <v>0.5225313901901245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4510455382552696</v>
+        <v>0.4511399832817372</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6100000000000003</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.1047197551196572</v>
+        <v>-0.2007128639793456</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4885236918926239</v>
+        <v>0.4745425283908844</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5114762783050537</v>
+        <v>0.5254573822021484</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.451046852115056</v>
+        <v>0.4511747760075372</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6300000000000003</v>
+        <v>0.8300000000000007</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1082104136236458</v>
+        <v>-0.1623156204354702</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4881604909896851</v>
+        <v>0.472347617149353</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5118395686149597</v>
+        <v>0.527652382850647</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.451048952936871</v>
+        <v>0.4512036723097846</v>
       </c>
       <c r="B34" t="n">
-        <v>0.6500000000000004</v>
+        <v>0.8600000000000008</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.10995574287564</v>
+        <v>-0.1588249619314814</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4879426658153534</v>
+        <v>0.469056099653244</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5120573043823242</v>
+        <v>0.5309438705444336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4510502383860118</v>
+        <v>0.4512514847847728</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6700000000000004</v>
+        <v>0.8900000000000008</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1134464013796285</v>
+        <v>-0.1117010721276343</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4879573583602905</v>
+        <v>0.4664624333381653</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5120427012443542</v>
+        <v>0.5335375666618347</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4510501543549865</v>
+        <v>0.4512929575234367</v>
       </c>
       <c r="B36" t="n">
-        <v>0.6900000000000004</v>
+        <v>0.9200000000000008</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1169370598836171</v>
+        <v>-0.0628318530717929</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4879295229911804</v>
+        <v>0.4627941846847534</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5120705366134644</v>
+        <v>0.5372058749198914</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4510503205787561</v>
+        <v>0.451357329383453</v>
       </c>
       <c r="B37" t="n">
-        <v>0.7100000000000004</v>
+        <v>0.9500000000000008</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.1186823891356113</v>
+        <v>-0.06806784082777578</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4880340993404388</v>
+        <v>0.4601102769374847</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5119659304618835</v>
+        <v>0.5398897528648376</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4510496968516983</v>
+        <v>0.4514086702678075</v>
       </c>
       <c r="B38" t="n">
-        <v>0.7300000000000004</v>
+        <v>0.9800000000000009</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1221730476395999</v>
+        <v>-0.07330382858375867</v>
       </c>
       <c r="D38" t="n">
-        <v>0.488087385892868</v>
+        <v>0.4583290815353394</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5119126439094543</v>
+        <v>0.5416709780693054</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.4510493817393492</v>
+        <v>0.4514447279408649</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7500000000000004</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1239183768915941</v>
+        <v>-0.08028514559173588</v>
       </c>
       <c r="D39" t="n">
-        <v>0.488248348236084</v>
+        <v>0.4564833641052246</v>
       </c>
       <c r="E39" t="n">
-        <v>0.511751651763916</v>
+        <v>0.5435166954994202</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.4510484372075699</v>
+        <v>0.4514837602557907</v>
       </c>
       <c r="B40" t="n">
-        <v>0.7700000000000005</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1256637061435883</v>
+        <v>-0.08377580409572444</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4886647164821625</v>
+        <v>0.454558789730072</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5113353133201599</v>
+        <v>0.5454411506652832</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4510460578681289</v>
+        <v>0.4515262657584902</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7900000000000005</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.1291543646475768</v>
+        <v>-0.08901179185170732</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4891549050807953</v>
+        <v>0.4526045620441437</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5108451247215271</v>
+        <v>0.5473954677581787</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4510433653380322</v>
+        <v>0.4515713300313535</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8100000000000005</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1308996938995711</v>
+        <v>-0.09424777960769021</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4895794689655304</v>
+        <v>0.4508872628211975</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5104205012321472</v>
+        <v>0.5491127967834473</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.4510411270673847</v>
+        <v>0.451612504691085</v>
       </c>
       <c r="B43" t="n">
-        <v>0.8300000000000005</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.1326450231515653</v>
+        <v>-0.09773843811167876</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4899431467056274</v>
+        <v>0.4492716491222382</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5100568532943726</v>
+        <v>0.5507283806800842</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4510392840768698</v>
+        <v>0.4516525855981762</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8500000000000005</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1343903524035595</v>
+        <v>-0.1029744258676616</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4905492663383484</v>
+        <v>0.4476834535598755</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5094506740570068</v>
+        <v>0.5523165464401245</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4510363536651701</v>
+        <v>0.4516932601670642</v>
       </c>
       <c r="B45" t="n">
-        <v>0.8700000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1378810109075481</v>
+        <v>-0.1064650843716502</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4911142289638519</v>
+        <v>0.4462210834026337</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5088857412338257</v>
+        <v>0.5537788867950439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.4510337895601589</v>
+        <v>0.4517318297924463</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8900000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1396263401595423</v>
+        <v>-0.1099557428756388</v>
       </c>
       <c r="D46" t="n">
-        <v>0.491652250289917</v>
+        <v>0.444700688123703</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5083478093147278</v>
+        <v>0.5552993416786194</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.451031497148254</v>
+        <v>0.4517730713834827</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9100000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.2094395102393155</v>
+        <v>-0.1151917306316216</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4919694066047668</v>
+        <v>0.4431690573692322</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5080305933952332</v>
+        <v>0.5568309426307678</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4510302084792495</v>
+        <v>0.4518157859741116</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9300000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.2792526803190886</v>
+        <v>-0.1186823891356102</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4939448237419128</v>
+        <v>0.4415488243103027</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5060551762580872</v>
+        <v>0.5584511756896973</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.4510233184324022</v>
+        <v>0.4518622553422392</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9500000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.3176499238629638</v>
+        <v>-0.1221730476395987</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4960688352584839</v>
+        <v>0.4399940669536591</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5039311647415161</v>
+        <v>0.5600059628486633</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4510180663589394</v>
+        <v>0.4519080887612743</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9700000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.3176499238629637</v>
+        <v>-0.1256637061435873</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4976702332496643</v>
+        <v>0.4385677576065063</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5023297667503357</v>
+        <v>0.5614323019981384</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4510155838200812</v>
+        <v>0.4519512049996731</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.3176499238629636</v>
+        <v>-0.1797689129554115</v>
       </c>
       <c r="D51" t="n">
-        <v>0.498701423406601</v>
+        <v>0.4371936619281769</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5012984871864319</v>
+        <v>0.5628063082695007</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.4510146539903883</v>
+        <v>0.4519937050784041</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.3089232776029918</v>
+        <v>-0.2338741197672357</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5002308487892151</v>
+        <v>0.4371885061264038</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4997691214084625</v>
+        <v>0.5628114342689514</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4510142519506627</v>
+        <v>0.4519938647834759</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.3036872898470087</v>
+        <v>-0.2652900463031335</v>
       </c>
       <c r="D53" t="n">
-        <v>0.5020255446434021</v>
+        <v>0.4371769726276398</v>
       </c>
       <c r="E53" t="n">
-        <v>0.4979745149612427</v>
+        <v>0.5628229975700378</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4510152579861092</v>
+        <v>0.4519942271712622</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.3036872898470086</v>
+        <v>-0.2914699850830484</v>
       </c>
       <c r="D54" t="n">
-        <v>0.5038772821426392</v>
+        <v>0.4365922510623932</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4961227476596832</v>
+        <v>0.5634077787399292</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4510179632848451</v>
+        <v>0.4520126107911369</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.3001966313430198</v>
+        <v>-0.3263765701229349</v>
       </c>
       <c r="D55" t="n">
-        <v>0.5058854222297668</v>
+        <v>0.4358733594417572</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4941146075725555</v>
+        <v>0.5641266703605652</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.4510228176179917</v>
+        <v>0.452035444964708</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.2949606435870367</v>
+        <v>-0.3752457891787761</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5078452825546265</v>
+        <v>0.4353049993515015</v>
       </c>
       <c r="E56" t="n">
-        <v>0.4921547472476959</v>
+        <v>0.5646950006484985</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4510294810539263</v>
+        <v>0.4520536806122556</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.275762021815099</v>
+        <v>-0.4450589592585493</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5098645091056824</v>
+        <v>0.4348570704460144</v>
       </c>
       <c r="E57" t="n">
-        <v>0.4901354312896729</v>
+        <v>0.5651429891586304</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4510383330799621</v>
+        <v>0.4520681714463022</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.2513274122871782</v>
+        <v>-0.5148721293383225</v>
       </c>
       <c r="D58" t="n">
-        <v>0.5115950703620911</v>
+        <v>0.4347895383834839</v>
       </c>
       <c r="E58" t="n">
-        <v>0.4884049594402313</v>
+        <v>0.5652104616165161</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.451047532933084</v>
+        <v>0.4520703612896553</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.2234021442552688</v>
+        <v>-0.5323254218582657</v>
       </c>
       <c r="D59" t="n">
-        <v>0.5131939053535461</v>
+        <v>0.4346795380115509</v>
       </c>
       <c r="E59" t="n">
-        <v>0.4868060648441315</v>
+        <v>0.5653204321861267</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4510573462872309</v>
+        <v>0.4520739367426128</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.188495559215382</v>
+        <v>-0.5113814708343336</v>
       </c>
       <c r="D60" t="n">
-        <v>0.5146726965904236</v>
+        <v>0.4333335757255554</v>
       </c>
       <c r="E60" t="n">
-        <v>0.4853272438049316</v>
+        <v>0.5666663646697998</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.4510675514572293</v>
+        <v>0.4521181980750144</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.1483529864195123</v>
+        <v>-0.4869468613064128</v>
       </c>
       <c r="D61" t="n">
-        <v>0.5159702897071838</v>
+        <v>0.4307625889778137</v>
       </c>
       <c r="E61" t="n">
-        <v>0.4840296804904938</v>
+        <v>0.5692374706268311</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.4510774009235878</v>
+        <v>0.4522052956598958</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.09948376736367087</v>
+        <v>-0.4764748857944467</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5168336033821106</v>
+        <v>0.4277583956718445</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4831663966178894</v>
+        <v>0.5722415447235107</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4510844166949409</v>
+        <v>0.4523112893806949</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.0523598775598238</v>
+        <v>-0.4590215932745033</v>
       </c>
       <c r="D63" t="n">
-        <v>0.5173097252845764</v>
+        <v>0.425048440694809</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4826902747154236</v>
+        <v>0.5749515295028687</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4510884434631288</v>
+        <v>0.4524108307667776</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.05934119456780103</v>
+        <v>-0.4258603374866109</v>
       </c>
       <c r="D64" t="n">
-        <v>0.5176461935043335</v>
+        <v>0.4220928251743317</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4823537766933441</v>
+        <v>0.5779071450233459</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.45109135590365</v>
+        <v>0.4525236424240461</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.0628318530717896</v>
+        <v>-0.3752457891787752</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5192235708236694</v>
+        <v>0.4186736643314362</v>
       </c>
       <c r="E65" t="n">
-        <v>0.480776458978653</v>
+        <v>0.5813263654708862</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.4511057647406991</v>
+        <v>0.4526596916146923</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.06806784082777251</v>
+        <v>-0.3071779483509961</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5206844806671143</v>
+        <v>0.4149965047836304</v>
       </c>
       <c r="E66" t="n">
-        <v>0.479315459728241</v>
+        <v>0.5850034356117249</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.4511202056599987</v>
+        <v>0.4528126474097353</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.07330382858375539</v>
+        <v>-0.239110107523217</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5222036838531494</v>
+        <v>0.4110075831413269</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4777962863445282</v>
+        <v>0.5889923572540283</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.4511363499011654</v>
+        <v>0.452986390315866</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.07853981633973828</v>
+        <v>-0.171042266695438</v>
       </c>
       <c r="D68" t="n">
-        <v>0.523733377456665</v>
+        <v>0.4070411920547485</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4762666821479797</v>
+        <v>0.5929588079452515</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.4511537647267543</v>
+        <v>0.4531672418699859</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.08203047484372683</v>
+        <v>-0.1029744258676589</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5252716541290283</v>
+        <v>0.4031298458576202</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4747283458709717</v>
+        <v>0.5968700647354126</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4511724438315459</v>
+        <v>0.453353496377882</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.08552113334771538</v>
+        <v>-0.03490658503987987</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5267589688301086</v>
+        <v>0.3993642628192902</v>
       </c>
       <c r="E70" t="n">
-        <v>0.473241001367569</v>
+        <v>0.6006357669830322</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4511916222883459</v>
+        <v>0.4535402782908253</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.09075712110369827</v>
+        <v>0.03316125578789918</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5282295942306519</v>
+        <v>0.3956201076507568</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4717704653739929</v>
+        <v>0.6043798923492432</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4512116696133229</v>
+        <v>0.453733264848569</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.09424777960768682</v>
+        <v>0.0453785605518596</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5296946167945862</v>
+        <v>0.3919219970703125</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4703053534030914</v>
+        <v>0.6080779433250427</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4512327035982752</v>
+        <v>0.4539310228437218</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.09773843811167537</v>
+        <v>0.03316125578789926</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5310952663421631</v>
+        <v>0.3894970715045929</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4689047038555145</v>
+        <v>0.6105028986930847</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4512538135735778</v>
+        <v>0.4540645685077466</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.1012290966156639</v>
+        <v>0.02094395102393903</v>
       </c>
       <c r="D74" t="n">
-        <v>0.532478392124176</v>
+        <v>0.3876182436943054</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4675216674804688</v>
+        <v>0.6123818159103394</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.451275619402431</v>
+        <v>0.4541701553003456</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.1029744258676581</v>
+        <v>0.01047197551197314</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5338762998580933</v>
+        <v>0.3856703042984009</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4661236703395844</v>
+        <v>0.6143296957015991</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4512986199007735</v>
+        <v>0.454281567155527</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.1064650843716467</v>
+        <v>-0.001745329251987088</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5351338982582092</v>
+        <v>0.3836773335933685</v>
       </c>
       <c r="E76" t="n">
-        <v>0.464866042137146</v>
+        <v>0.6163226366043091</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4513201442987603</v>
+        <v>0.4543976159065521</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.1099557428756353</v>
+        <v>-0.01221730476395298</v>
       </c>
       <c r="D77" t="n">
-        <v>0.536445140838623</v>
+        <v>0.3817481100559235</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4635548293590546</v>
+        <v>0.6182519197463989</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4513434270631758</v>
+        <v>0.4545119464646212</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.1134464013796238</v>
+        <v>-0.02094395102392455</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5377464890480042</v>
+        <v>0.3798035681247711</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4622534811496735</v>
+        <v>0.6201964020729065</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4513673799227805</v>
+        <v>0.4546291603202294</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.115191730631618</v>
+        <v>-0.03141592653589044</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5390662550926208</v>
+        <v>0.3778581619262695</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4609337747097015</v>
+        <v>0.6221417784690857</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4513925352328104</v>
+        <v>0.4547484246782567</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.1186823891356066</v>
+        <v>-0.040142572795862</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5403816699981689</v>
+        <v>0.3759801685810089</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4596183001995087</v>
+        <v>0.6240198016166687</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4514184682133778</v>
+        <v>0.4548654583936277</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.1204277183876008</v>
+        <v>-0.04886921905583357</v>
       </c>
       <c r="D81" t="n">
-        <v>0.541752815246582</v>
+        <v>0.3740877509117126</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4582472145557404</v>
+        <v>0.6259123086929321</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4514464217642774</v>
+        <v>0.4549852853375841</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.122173047639595</v>
+        <v>-0.05759586531580513</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5430769920349121</v>
+        <v>0.3722213506698608</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4569230675697327</v>
+        <v>0.6277786493301392</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4514743073419262</v>
+        <v>0.4551053177585026</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.1256637061435836</v>
+        <v>-0.06632251157577668</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5444037318229675</v>
+        <v>0.3703803718090057</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4555962383747101</v>
+        <v>0.6296196579933167</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4515031215308606</v>
+        <v>0.455225537119257</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.1274090353955778</v>
+        <v>-0.07330382858375389</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5457961559295654</v>
+        <v>0.3685643970966339</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4542038440704346</v>
+        <v>0.6314355731010437</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4515343110268164</v>
+        <v>0.4553458884753466</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.129154364647572</v>
+        <v>-0.08028514559173111</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5472083687782288</v>
+        <v>0.3667244613170624</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4527916610240936</v>
+        <v>0.6332756280899048</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4515669333312636</v>
+        <v>0.4554696373767547</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.1308996938995662</v>
+        <v>-0.08726646259970833</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5486415028572083</v>
+        <v>0.3648793399333954</v>
       </c>
       <c r="E86" t="n">
-        <v>0.451358437538147</v>
+        <v>0.635120689868927</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.4516010552673953</v>
+        <v>0.4555955439554942</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.1326450231515605</v>
+        <v>-0.09599310885967988</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5501001477241516</v>
+        <v>0.3630548715591431</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4498998522758484</v>
+        <v>0.6369451284408569</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.4516368435303912</v>
+        <v>0.4557218402049132</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1343903524035547</v>
+        <v>-0.1012290966156628</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5514500737190247</v>
+        <v>0.3612886965274811</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4485499262809753</v>
+        <v>0.6387112736701965</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.4516709118895255</v>
+        <v>0.4558458071226074</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.1361356816555489</v>
+        <v>-0.10821041362364</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5528045296669006</v>
+        <v>0.3594651818275452</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4471954703330994</v>
+        <v>0.6405348181724548</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.4517060119358663</v>
+        <v>0.4559755677802604</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.1378810109075431</v>
+        <v>-0.1151917306316172</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5541568398475647</v>
+        <v>0.3576923012733459</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4458431601524353</v>
+        <v>0.6423076987266541</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4517419736535019</v>
+        <v>0.4561034464295006</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1396263401595373</v>
+        <v>-0.1204277183876001</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5554738640785217</v>
+        <v>0.3559337258338928</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4445261359214783</v>
+        <v>0.6440662741661072</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.451777878555599</v>
+        <v>0.4562319754490144</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.1396263401595372</v>
+        <v>-0.1274090353955773</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5568145513534546</v>
+        <v>0.3541483283042908</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4431854486465454</v>
+        <v>0.6458516716957092</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.4518153225985411</v>
+        <v>0.4563641827291385</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1413716694115315</v>
+        <v>-0.1326450231515602</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5581333637237549</v>
+        <v>0.3524125218391418</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4418666362762451</v>
+        <v>0.6475875377655029</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.4518530363056083</v>
+        <v>0.4564943853779146</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.1431169986635257</v>
+        <v>-0.1378810109075431</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5594871640205383</v>
+        <v>0.350653201341629</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4405127763748169</v>
+        <v>0.6493467688560486</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4518926582564587</v>
+        <v>0.4566280186930738</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.1448623279155199</v>
+        <v>-0.143116998663526</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5608798265457153</v>
+        <v>0.3489077389240265</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4391201436519623</v>
+        <v>0.6510922908782959</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.4519343812745654</v>
+        <v>0.4567622826174985</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.1466076571675141</v>
+        <v>-0.1483529864195088</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5623037219047546</v>
+        <v>0.3471989333629608</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4376963078975677</v>
+        <v>0.6528010964393616</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.4519780496314348</v>
+        <v>0.4568953406768092</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.146607657167514</v>
+        <v>-0.1535889741754917</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5637401938438416</v>
+        <v>0.345588892698288</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4362598061561584</v>
+        <v>0.6544110774993896</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4520231362985844</v>
+        <v>0.4570221721995815</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1483529864195082</v>
+        <v>-0.1570796326794803</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5651662349700928</v>
+        <v>0.3439871370792389</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4348337948322296</v>
+        <v>0.6560128331184387</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.4520689254461916</v>
+        <v>0.4571497720895438</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.1500983156715024</v>
+        <v>-0.1623156204354632</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5666412711143494</v>
+        <v>0.3423618376255035</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4333587288856506</v>
+        <v>0.6576380729675293</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.4521173657012513</v>
+        <v>0.4572806910710912</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.1500983156715023</v>
+        <v>-0.167551608191446</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5681304931640625</v>
+        <v>0.3407863080501556</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4318695366382599</v>
+        <v>0.6592137217521667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4521673872481765</v>
+        <v>0.4574090091763468</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1518436449234966</v>
+        <v>-0.1710422666954346</v>
       </c>
       <c r="D101" t="n">
-        <v>0.569600522518158</v>
+        <v>0.3392250835895538</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4303994476795197</v>
+        <v>0.6607749462127686</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.4522178613216782</v>
+        <v>0.4575375118770497</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.1518436449234964</v>
+        <v>-0.1762782544514175</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5711144804954529</v>
+        <v>0.337651789188385</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4288855493068695</v>
+        <v>0.662348210811615</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.4522709883233803</v>
+        <v>0.4576683767905856</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.1535889741754907</v>
+        <v>-0.179768912955406</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5726103186607361</v>
+        <v>0.3361273407936096</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4273897111415863</v>
+        <v>0.6638726592063904</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4523246177315487</v>
+        <v>0.4577964967106414</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1553343034274849</v>
+        <v>-0.1832595714593946</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5741508603096008</v>
+        <v>0.3345734477043152</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4258490800857544</v>
+        <v>0.6654265522956848</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4523810331914233</v>
+        <v>0.4579284273133554</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1553343034274848</v>
+        <v>-0.1884955592153775</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5757081508636475</v>
+        <v>0.3330279588699341</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4242918491363525</v>
+        <v>0.6669721007347107</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.4524392880069257</v>
+        <v>0.458060989871067</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.157079632679479</v>
+        <v>-0.191986217719366</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5772489905357361</v>
+        <v>0.3315535485744476</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4227510392665863</v>
+        <v>0.66844642162323</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.452498138565488</v>
+        <v>0.4581886945290106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1570796326794789</v>
+        <v>-0.1954768762233546</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5788360834121704</v>
+        <v>0.3300802409648895</v>
       </c>
       <c r="E107" t="n">
-        <v>0.421163946390152</v>
+        <v>0.6699197888374329</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4525600165537977</v>
+        <v>0.458317536416607</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1570796326794788</v>
+        <v>-0.1989675347273431</v>
       </c>
       <c r="D108" t="n">
-        <v>0.580402672290802</v>
+        <v>0.3286239504814148</v>
       </c>
       <c r="E108" t="n">
-        <v>0.419597327709198</v>
+        <v>0.67137610912323</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.452622351322913</v>
+        <v>0.4584460909944262</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.158824961931473</v>
+        <v>-0.2024581932313317</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5819535851478577</v>
+        <v>0.3271979689598083</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4180463850498199</v>
+        <v>0.6728020310401917</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.4526852935431038</v>
+        <v>0.4585731250488137</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1588249619314729</v>
+        <v>-0.2059488517353202</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5835517644882202</v>
+        <v>0.3257741034030914</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4164482653141022</v>
+        <v>0.6742258667945862</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.4527514384338208</v>
+        <v>0.4587011223737135</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.1605702911834671</v>
+        <v>-0.2094395102393088</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5851319432258606</v>
+        <v>0.3243524134159088</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4148680567741394</v>
+        <v>0.6756475567817688</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.4528181187417979</v>
+        <v>0.4588300751370844</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.160570291183467</v>
+        <v>-0.2129301687432973</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5867598056793213</v>
+        <v>0.3229321837425232</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4132401943206787</v>
+        <v>0.6770678758621216</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.4528881460680071</v>
+        <v>0.4589600510683929</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.1623156204354612</v>
+        <v>-0.2164208272472859</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5883705615997314</v>
+        <v>0.3215122520923615</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4116294384002686</v>
+        <v>0.6784877181053162</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.4529587720782078</v>
+        <v>0.4590911368326954</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.1047197551196482</v>
+        <v>-0.2199114857512744</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5900297164916992</v>
+        <v>0.3200919926166534</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4099703133106232</v>
+        <v>0.6799079775810242</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.4530329103156444</v>
+        <v>0.4592234133431865</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.08552113334771039</v>
+        <v>-0.223402144255263</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5905143022537231</v>
+        <v>0.3186618387699127</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4094856381416321</v>
+        <v>0.6813381314277649</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.4530548287601833</v>
+        <v>0.4593577801508912</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.08203047484372161</v>
+        <v>-0.2268928027592516</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5916123390197754</v>
+        <v>0.3172288537025452</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4083876609802246</v>
+        <v>0.6827712059020996</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4531049438373896</v>
+        <v>0.4594935990637959</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.08377580409571583</v>
+        <v>-0.2303834612632401</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5929633975028992</v>
+        <v>0.3157932460308075</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4070366024971008</v>
+        <v>0.6842067241668701</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.4531674558118724</v>
+        <v>0.4596308394249369</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.09250245035568738</v>
+        <v>-0.261799387799138</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5943975448608398</v>
+        <v>0.3143543899059296</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4056024551391602</v>
+        <v>0.685645580291748</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.4532348391624145</v>
+        <v>0.4597695919813081</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.1047197551196476</v>
+        <v>-0.2652900463031265</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5959640741348267</v>
+        <v>0.3134601414203644</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4040359556674957</v>
+        <v>0.6865398287773132</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4533096527905396</v>
+        <v>0.4598564306919442</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.1204277183875965</v>
+        <v>-0.2670353755551207</v>
       </c>
       <c r="D120" t="n">
-        <v>0.597614586353302</v>
+        <v>0.3119945228099823</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4023854732513428</v>
+        <v>0.6880055665969849</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4533898457388654</v>
+        <v>0.4599997669497063</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.139626340159534</v>
+        <v>-0.2670353755551206</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5993585586547852</v>
+        <v>0.3104913532733917</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4006414711475372</v>
+        <v>0.6895086765289307</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4534761068875724</v>
+        <v>0.4601480595379175</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.1640609496874545</v>
+        <v>-0.2670353755551205</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6011603474617004</v>
+        <v>0.3089406490325928</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3988396525382996</v>
+        <v>0.6910593509674072</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4535668792908926</v>
+        <v>0.4603024252675467</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.1919862177193637</v>
+        <v>-0.2740166925630977</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6031110882759094</v>
+        <v>0.3073770701885223</v>
       </c>
       <c r="E123" t="n">
-        <v>0.3968888521194458</v>
+        <v>0.6926229000091553</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4536670508754975</v>
+        <v>0.4604594969215667</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.2059488517353183</v>
+        <v>-0.280998009571075</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6051940321922302</v>
+        <v>0.3059446811676025</v>
       </c>
       <c r="E124" t="n">
-        <v>0.394805908203125</v>
+        <v>0.6940553188323975</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4537761910598649</v>
+        <v>0.4606046529948409</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.2059488517353182</v>
+        <v>-0.2862339973270578</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6070884466171265</v>
+        <v>0.3044950664043427</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3929115533828735</v>
+        <v>0.695504903793335</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4538774112510117</v>
+        <v>0.4607527788866276</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.2059488517353181</v>
+        <v>-0.2827433388230691</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6087632775306702</v>
+        <v>0.3029908835887909</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3912367224693298</v>
+        <v>0.6970091462135315</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4539684545675375</v>
+        <v>0.4609077984693709</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.205948851735318</v>
+        <v>-0.2757620218150916</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6104336977005005</v>
+        <v>0.3012897074222565</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3895662724971771</v>
+        <v>0.6987102627754211</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4540607149741568</v>
+        <v>0.4610847231996033</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.2059488517353179</v>
+        <v>-0.2652900463031255</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6121167540550232</v>
+        <v>0.2995277941226959</v>
       </c>
       <c r="E128" t="n">
-        <v>0.387883335351944</v>
+        <v>0.7004722356796265</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4541551484267885</v>
+        <v>0.4612697854263609</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.2059488517353177</v>
+        <v>-0.2530727415391651</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6138153672218323</v>
+        <v>0.29770427942276</v>
       </c>
       <c r="E129" t="n">
-        <v>0.3861846923828125</v>
+        <v>0.7022956609725952</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4542519564734369</v>
+        <v>0.4614632532117134</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.2059488517353176</v>
+        <v>-0.253072741539165</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6155290007591248</v>
+        <v>0.2958448529243469</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3844710290431976</v>
+        <v>0.7041551470756531</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4543511529869126</v>
+        <v>0.4616625903237301</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.2059488517353175</v>
+        <v>-0.2583087292951479</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6172575950622559</v>
+        <v>0.2942304015159607</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3827423751354218</v>
+        <v>0.7057695984840393</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4544527775097391</v>
+        <v>0.4618373435860514</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.2059488517353174</v>
+        <v>-0.2617993877991364</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6190004944801331</v>
+        <v>0.2927102744579315</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3809994757175446</v>
+        <v>0.7072896957397461</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4545568346416455</v>
+        <v>0.4620033188025021</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.2059488517353173</v>
+        <v>-0.265290046303125</v>
       </c>
       <c r="D133" t="n">
-        <v>0.620757520198822</v>
+        <v>0.2911522686481476</v>
       </c>
       <c r="E133" t="n">
-        <v>0.379242479801178</v>
+        <v>0.7088477611541748</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4546633555825552</v>
+        <v>0.4621748854169579</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.1553343034274816</v>
+        <v>-0.2687807048071135</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6225284337997437</v>
+        <v>0.2896040081977844</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3774715960025787</v>
+        <v>0.7103959918022156</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4547723677584245</v>
+        <v>0.4623468286693805</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.1169370598836061</v>
+        <v>-0.2722713633111021</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6231222152709961</v>
+        <v>0.2880667448043823</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3768778145313263</v>
+        <v>0.7119331955909729</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4548092903672599</v>
+        <v>0.4625189898754574</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.1047197551196457</v>
+        <v>-0.277507351067085</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6237704157829285</v>
+        <v>0.2865211069583893</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3762295544147491</v>
+        <v>0.7134788632392883</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.4548498097825289</v>
+        <v>0.4626935494111489</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.1029744258676513</v>
+        <v>-0.2809980095710735</v>
       </c>
       <c r="D137" t="n">
-        <v>0.62491774559021</v>
+        <v>0.2850050926208496</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3750822842121124</v>
+        <v>0.7149948477745056</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.4549220762752545</v>
+        <v>0.4628661785942128</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.1082104136236341</v>
+        <v>-0.2844886680750621</v>
       </c>
       <c r="D138" t="n">
-        <v>0.626276969909668</v>
+        <v>0.283458799123764</v>
       </c>
       <c r="E138" t="n">
-        <v>0.373723030090332</v>
+        <v>0.7165411710739136</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.4550085926603903</v>
+        <v>0.4630437142529616</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1186823891356</v>
+        <v>-0.289724655831045</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6277574300765991</v>
+        <v>0.2819012999534607</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3722426295280457</v>
+        <v>0.7180987000465393</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.4551039427327213</v>
+        <v>0.4632240254591702</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.1343903524035489</v>
+        <v>-0.2932153143350335</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6293511390686035</v>
+        <v>0.2803643047809601</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3706488609313965</v>
+        <v>0.7196357250213623</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.4552078900979997</v>
+        <v>0.4634034329743262</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.1518436449234921</v>
+        <v>-0.2984513020910164</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6310757398605347</v>
+        <v>0.2787829339504242</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3689242303371429</v>
+        <v>0.7212170362472534</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.4553219003164479</v>
+        <v>0.4635895421773625</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.1745329251994183</v>
+        <v>-0.3019419605950049</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6328677535057068</v>
+        <v>0.2772208154201508</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3671322464942932</v>
+        <v>0.7227791547775269</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.4554420503862872</v>
+        <v>0.4637749188685216</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.1989675347273389</v>
+        <v>-0.3071779483509878</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6348044872283936</v>
+        <v>0.2756137549877167</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3651955127716064</v>
+        <v>0.7243862748146057</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>0.4555738367482969</v>
+        <v>0.4639672247431057</v>
       </c>
       <c r="B144" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C144" t="n">
-        <v>-0.2286381320112424</v>
+        <v>-0.3124139361069707</v>
       </c>
       <c r="D144" t="n">
-        <v>0.6367487907409668</v>
+        <v>0.2740249037742615</v>
       </c>
       <c r="E144" t="n">
-        <v>0.3632512390613556</v>
+        <v>0.7259751558303833</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>0.4557081628159263</v>
+        <v>0.4641589411647147</v>
       </c>
       <c r="B145" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.2583087292951459</v>
+        <v>-0.3159045946109593</v>
       </c>
       <c r="D145" t="n">
-        <v>0.6387022733688354</v>
+        <v>0.2724218964576721</v>
       </c>
       <c r="E145" t="n">
-        <v>0.3612976968288422</v>
+        <v>0.7275781035423279</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>0.4558451711248306</v>
+        <v>0.4643539681988845</v>
       </c>
       <c r="B146" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C146" t="n">
-        <v>-0.2844886680750608</v>
+        <v>-0.3211405823669422</v>
       </c>
       <c r="D146" t="n">
-        <v>0.6406095027923584</v>
+        <v>0.2707731127738953</v>
       </c>
       <c r="E146" t="n">
-        <v>0.3593904674053192</v>
+        <v>0.7292269468307495</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>0.4559809205978695</v>
+        <v>0.4645562683478081</v>
       </c>
       <c r="B147" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C147" t="n">
-        <v>-0.286233997327055</v>
+        <v>-0.326376570122925</v>
       </c>
       <c r="D147" t="n">
-        <v>0.6424659490585327</v>
+        <v>0.2691413462162018</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3575340211391449</v>
+        <v>0.7308586835861206</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>0.4561149439218961</v>
+        <v>0.4647581704588339</v>
       </c>
       <c r="B148" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C148" t="n">
-        <v>-0.2879793265790492</v>
+        <v>-0.3316125578789079</v>
       </c>
       <c r="D148" t="n">
-        <v>0.6439452767372131</v>
+        <v>0.2674945890903473</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3560547828674316</v>
+        <v>0.7325053811073303</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0.4562230781159786</v>
+        <v>0.4649636435891255</v>
       </c>
       <c r="B149" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C149" t="n">
-        <v>-0.2897246558310435</v>
+        <v>-0.3368485456348908</v>
       </c>
       <c r="D149" t="n">
-        <v>0.6454842090606689</v>
+        <v>0.265832930803299</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3545158207416534</v>
+        <v>0.7341670989990234</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>0.4563368306108725</v>
+        <v>0.4651727433783068</v>
       </c>
       <c r="B150" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.293215314335032</v>
+        <v>-0.343829862642868</v>
       </c>
       <c r="D150" t="n">
-        <v>0.6467596888542175</v>
+        <v>0.2641561031341553</v>
       </c>
       <c r="E150" t="n">
-        <v>0.3532402813434601</v>
+        <v>0.7358438968658447</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>0.4564320861556266</v>
+        <v>0.4653855409048647</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C151" t="n">
-        <v>-0.2949606435870262</v>
+        <v>-0.3490658503988509</v>
       </c>
       <c r="D151" t="n">
-        <v>0.6479713916778564</v>
+        <v>0.2626185715198517</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3520285487174988</v>
+        <v>0.7373813986778259</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>0.4565233997625444</v>
+        <v>0.4655822533391031</v>
       </c>
       <c r="B152" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.3001966313430091</v>
+        <v>-0.3508111796508451</v>
       </c>
       <c r="D152" t="n">
-        <v>0.6493282318115234</v>
+        <v>0.2610793709754944</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3506717383861542</v>
+        <v>0.7389206886291504</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>0.4566266017856744</v>
+        <v>0.4657807216371085</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9300000000000008</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.3036872898469977</v>
+        <v>-0.3525565089028393</v>
       </c>
       <c r="D153" t="n">
-        <v>0.6507384181022644</v>
+        <v>0.2597372233867645</v>
       </c>
       <c r="E153" t="n">
-        <v>0.3492615222930908</v>
+        <v>0.7402628064155579</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>0.4567349286999112</v>
+        <v>0.4659550278124952</v>
       </c>
       <c r="B154" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9000000000000008</v>
       </c>
       <c r="C154" t="n">
-        <v>-0.3089232776029806</v>
+        <v>-0.3543018381548336</v>
       </c>
       <c r="D154" t="n">
-        <v>0.6520980000495911</v>
+        <v>0.2584307789802551</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3479020297527313</v>
+        <v>0.7415692210197449</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>0.4568403992165719</v>
+        <v>0.4661258246633754</v>
       </c>
       <c r="B155" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.8700000000000008</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.3159045946109578</v>
+        <v>-0.3560471674068278</v>
       </c>
       <c r="D155" t="n">
-        <v>0.65346360206604</v>
+        <v>0.2571581602096558</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3465363085269928</v>
+        <v>0.7428418397903442</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>0.4569473597566328</v>
+        <v>0.4662932750166098</v>
       </c>
       <c r="B156" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.8400000000000007</v>
       </c>
       <c r="C156" t="n">
-        <v>-0.3246312408709293</v>
+        <v>-0.3560471674068277</v>
       </c>
       <c r="D156" t="n">
-        <v>0.6547782421112061</v>
+        <v>0.2559252083301544</v>
       </c>
       <c r="E156" t="n">
-        <v>0.3452217280864716</v>
+        <v>0.7440747618675232</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0.4570512965010023</v>
+        <v>0.4664565168109813</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.8100000000000007</v>
       </c>
       <c r="C157" t="n">
-        <v>-0.3333578871309009</v>
+        <v>-0.4258603374866008</v>
       </c>
       <c r="D157" t="n">
-        <v>0.6560277342796326</v>
+        <v>0.2547030746936798</v>
       </c>
       <c r="E157" t="n">
-        <v>0.3439722657203674</v>
+        <v>0.7452968955039978</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>0.457150965549834</v>
+        <v>0.4666193163282601</v>
       </c>
       <c r="B158" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.8400000000000007</v>
       </c>
       <c r="C158" t="n">
-        <v>-0.3438298626428667</v>
+        <v>-0.495673507566374</v>
       </c>
       <c r="D158" t="n">
-        <v>0.6572456955909729</v>
+        <v>0.2546968758106232</v>
       </c>
       <c r="E158" t="n">
-        <v>0.3427543640136719</v>
+        <v>0.745303213596344</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>0.4572489487391462</v>
+        <v>0.4666201550620705</v>
       </c>
       <c r="B159" t="n">
-        <v>0.9800000000000006</v>
+        <v>0.8700000000000008</v>
       </c>
       <c r="C159" t="n">
-        <v>-0.356047167406827</v>
+        <v>-0.5654866776461472</v>
       </c>
       <c r="D159" t="n">
-        <v>0.6592408418655396</v>
+        <v>0.2541584372520447</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3407591283321381</v>
+        <v>0.7458416223526001</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0.4574112304221186</v>
+        <v>0.4666921924592571</v>
       </c>
       <c r="B160" t="n">
-        <v>0.9600000000000006</v>
+        <v>0.9000000000000008</v>
       </c>
       <c r="C160" t="n">
-        <v>-0.2879793265790479</v>
+        <v>-0.6352998477259204</v>
       </c>
       <c r="D160" t="n">
-        <v>0.661595344543457</v>
+        <v>0.2536475956439972</v>
       </c>
       <c r="E160" t="n">
-        <v>0.3384047150611877</v>
+        <v>0.7463523745536804</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>0.4576055806270497</v>
+        <v>0.4667607095161184</v>
       </c>
       <c r="B161" t="n">
-        <v>0.9800000000000006</v>
+        <v>0.9300000000000008</v>
       </c>
       <c r="C161" t="n">
-        <v>-0.2199114857512688</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D161" t="n">
-        <v>0.6627529859542847</v>
+        <v>0.2533236145973206</v>
       </c>
       <c r="E161" t="n">
-        <v>0.3372469842433929</v>
+        <v>0.7466764450073242</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>0.4577022694024465</v>
+        <v>0.4668042661432342</v>
       </c>
       <c r="B162" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.1867502299633764</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D162" t="n">
-        <v>0.6624776721000671</v>
+        <v>0.2530040144920349</v>
       </c>
       <c r="E162" t="n">
-        <v>0.3375222384929657</v>
+        <v>0.7469959855079651</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>0.4576792077548736</v>
+        <v>0.4668472889304102</v>
       </c>
       <c r="B163" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C163" t="n">
-        <v>-0.1919862177193593</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D163" t="n">
-        <v>0.6629077196121216</v>
+        <v>0.2517046630382538</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3370923101902008</v>
+        <v>0.7482953667640686</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0.4577152489216778</v>
+        <v>0.4670229226671832</v>
       </c>
       <c r="B164" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.2111848394912968</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D164" t="n">
-        <v>0.6643078923225403</v>
+        <v>0.2505280375480652</v>
       </c>
       <c r="E164" t="n">
-        <v>0.3356921374797821</v>
+        <v>0.7494719624519348</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.4578333129601605</v>
+        <v>0.4671829319867504</v>
       </c>
       <c r="B165" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C165" t="n">
-        <v>-0.2408554367752004</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D165" t="n">
-        <v>0.6658844351768494</v>
+        <v>0.2496202737092972</v>
       </c>
       <c r="E165" t="n">
-        <v>0.334115594625473</v>
+        <v>0.7503796815872192</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>0.4579675604669519</v>
+        <v>0.4673070084713574</v>
       </c>
       <c r="B166" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C166" t="n">
-        <v>-0.2827433388230642</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D166" t="n">
-        <v>0.6674536466598511</v>
+        <v>0.248803123831749</v>
       </c>
       <c r="E166" t="n">
-        <v>0.3325463831424713</v>
+        <v>0.7511968612670898</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>0.4581025667335083</v>
+        <v>0.4674191774597488</v>
       </c>
       <c r="B167" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C167" t="n">
-        <v>-0.3316125578789054</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D167" t="n">
-        <v>0.6692478060722351</v>
+        <v>0.2480593025684357</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3307522237300873</v>
+        <v>0.7519406676292419</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>0.4582586213577255</v>
+        <v>0.467521666472353</v>
       </c>
       <c r="B168" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C168" t="n">
-        <v>-0.3944444109507013</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D168" t="n">
-        <v>0.6712565422058105</v>
+        <v>0.2473628968000412</v>
       </c>
       <c r="E168" t="n">
-        <v>0.3287434577941895</v>
+        <v>0.7526370882987976</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>0.4584354920599341</v>
+        <v>0.4676179619409495</v>
       </c>
       <c r="B169" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C169" t="n">
-        <v>-0.4642575810304744</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6736782789230347</v>
+        <v>0.246525377035141</v>
       </c>
       <c r="E169" t="n">
-        <v>0.3263217508792877</v>
+        <v>0.7534746527671814</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>0.458651759517953</v>
+        <v>0.4677342050679753</v>
       </c>
       <c r="B170" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C170" t="n">
-        <v>-0.5340707511102476</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D170" t="n">
-        <v>0.6759045124053955</v>
+        <v>0.2458937168121338</v>
       </c>
       <c r="E170" t="n">
-        <v>0.3240954577922821</v>
+        <v>0.754106342792511</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>0.4588535046984057</v>
+        <v>0.4678221889045917</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C171" t="n">
-        <v>-0.6038839211900208</v>
+        <v>-0.6300638599699528</v>
       </c>
       <c r="D171" t="n">
-        <v>0.6777864098548889</v>
+        <v>0.2456127554178238</v>
       </c>
       <c r="E171" t="n">
-        <v>0.3222135901451111</v>
+        <v>0.7543872594833374</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>0.4590262454004002</v>
+        <v>0.4678614054695473</v>
       </c>
       <c r="B172" t="n">
-        <v>0.9900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C172" t="n">
-        <v>-0.6736970912697939</v>
+        <v>-0.5602506898901796</v>
       </c>
       <c r="D172" t="n">
-        <v>0.6790522336959839</v>
+        <v>0.2438863515853882</v>
       </c>
       <c r="E172" t="n">
-        <v>0.3209477663040161</v>
+        <v>0.756113588809967</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.4681035690743245</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9900000000000009</v>
+      </c>
+      <c r="C173" t="n">
+        <v>-0.4921828490624005</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.2419168055057526</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.7580832242965698</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.4683823302331008</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9900000000000009</v>
+      </c>
+      <c r="C174" t="n">
+        <v>-0.4241150082346214</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.2403237521648407</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.7596762776374817</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.4686097380516079</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9900000000000009</v>
+      </c>
+      <c r="C175" t="n">
+        <v>-0.3560471674068424</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.239415779709816</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.7605842351913452</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.4687401291639247</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9900000000000009</v>
+      </c>
+      <c r="C176" t="n">
+        <v>-0.2879793265790633</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0.2385990470647812</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0.7614009380340576</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.468857901326982</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.9900000000000009</v>
+      </c>
+      <c r="C177" t="n">
+        <v>-0.2199114857512843</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.2376738637685776</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.762326180934906</v>
       </c>
     </row>
   </sheetData>

--- a/datos_robot.xlsx
+++ b/datos_robot.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,15 +459,15 @@
         <v>0.06806784082777904</v>
       </c>
       <c r="D2" t="n">
-        <v>0.519809365272522</v>
+        <v>0.5022664070129395</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4801906049251556</v>
+        <v>0.4977336525917053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.4511114273115956</v>
+        <v>0.451015513946005</v>
       </c>
       <c r="B3" t="n">
         <v>0.04000000000000001</v>
@@ -476,2968 +476,2390 @@
         <v>0.07853981633974502</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5188031792640686</v>
+        <v>0.5031305551528931</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4811968207359314</v>
+        <v>0.4968695044517517</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.4511018035324013</v>
+        <v>0.451016668698016</v>
       </c>
       <c r="B4" t="n">
         <v>0.06000000000000003</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06806784082777907</v>
+        <v>0.07330382858376205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5187483429908752</v>
+        <v>0.5033851861953735</v>
       </c>
       <c r="E4" t="n">
-        <v>0.48125159740448</v>
+        <v>0.4966147541999817</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.4511012914374439</v>
+        <v>0.4510170750684569</v>
       </c>
       <c r="B5" t="n">
         <v>0.08000000000000004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05759586531581309</v>
+        <v>0.06981317007977339</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5191080570220947</v>
+        <v>0.5035183429718018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4808919429779053</v>
+        <v>0.4964816272258759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.4511046668433247</v>
+        <v>0.4510173037874912</v>
       </c>
       <c r="B6" t="n">
         <v>0.1000000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04712388980384714</v>
+        <v>0.06457718232379041</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5191903114318848</v>
+        <v>0.5037124752998352</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4808097183704376</v>
+        <v>0.4962875843048096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.4511054482339839</v>
+        <v>0.4510176546748727</v>
       </c>
       <c r="B7" t="n">
         <v>0.12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03839724354387546</v>
+        <v>0.06108652381980174</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5190293192863464</v>
+        <v>0.5039159655570984</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4809706807136536</v>
+        <v>0.4960840940475464</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4511039229490493</v>
+        <v>0.4510180390332658</v>
       </c>
       <c r="B8" t="n">
         <v>0.14</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02792526803190944</v>
+        <v>0.05585053606381875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5183677077293396</v>
+        <v>0.5037664175033569</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4816322326660156</v>
+        <v>0.4962335228919983</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.4510977916872248</v>
+        <v>0.4510177501480023</v>
       </c>
       <c r="B9" t="n">
         <v>0.16</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01919862177193788</v>
+        <v>0.05235987755983011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5173447728157043</v>
+        <v>0.5033295154571533</v>
       </c>
       <c r="E9" t="n">
-        <v>0.482655256986618</v>
+        <v>0.4966705739498138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.4510887453185553</v>
+        <v>0.4510169880475097</v>
       </c>
       <c r="B10" t="n">
         <v>0.18</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01221730476396065</v>
+        <v>0.04886921905584141</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5162454843521118</v>
+        <v>0.5028303861618042</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4837544560432434</v>
+        <v>0.4971696436405182</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.4510795958592884</v>
+        <v>0.4510162245567778</v>
       </c>
       <c r="B11" t="n">
         <v>0.2000000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003490658503989087</v>
+        <v>0.04712388980384703</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5151913166046143</v>
+        <v>0.5026116371154785</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4848087131977081</v>
+        <v>0.4973883628845215</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.4510713905983778</v>
+        <v>0.451015928689678</v>
       </c>
       <c r="B12" t="n">
         <v>0.2200000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.003490658503988137</v>
+        <v>0.04363323129985833</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5140887498855591</v>
+        <v>0.5024614930152893</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4859112799167633</v>
+        <v>0.4975384473800659</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.4510633948102508</v>
+        <v>0.4510157378627086</v>
       </c>
       <c r="B13" t="n">
         <v>0.2400000000000002</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0122173047639597</v>
+        <v>0.04014257279586962</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5129204988479614</v>
+        <v>0.5020957589149475</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4870794713497162</v>
+        <v>0.4979042112827301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.4510555780243711</v>
+        <v>0.451015326284761</v>
       </c>
       <c r="B14" t="n">
         <v>0.2600000000000002</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0174532925199426</v>
+        <v>0.03839724354387525</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5117214918136597</v>
+        <v>0.5016351342201233</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4882785081863403</v>
+        <v>0.4983648061752319</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.4510482618845866</v>
+        <v>0.4510148996475819</v>
       </c>
       <c r="B15" t="n">
         <v>0.2900000000000003</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.02443460952791983</v>
+        <v>0.03490658503988654</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5107182264328003</v>
+        <v>0.5008674263954163</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4892818033695221</v>
+        <v>0.4991325438022614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4510426877043029</v>
+        <v>0.4510144250621586</v>
       </c>
       <c r="B16" t="n">
         <v>0.3200000000000003</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.03141592653589706</v>
+        <v>0.03316125578789231</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5096803903579712</v>
+        <v>0.4995778799057007</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4903196692466736</v>
+        <v>0.5004221200942993</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4510374461850166</v>
+        <v>0.4510142840049635</v>
       </c>
       <c r="B17" t="n">
         <v>0.3500000000000003</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.03665191429187996</v>
+        <v>0.03141592653589807</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5085228681564331</v>
+        <v>0.4985890090465546</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4914771914482117</v>
+        <v>0.5014110803604126</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4510322284735352</v>
+        <v>0.4510147362610209</v>
       </c>
       <c r="B18" t="n">
         <v>0.3800000000000003</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.04363323129985719</v>
+        <v>0.02967059728390384</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5068861246109009</v>
+        <v>0.4974085986614227</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4931138753890991</v>
+        <v>0.5025914311408997</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4510259811765224</v>
+        <v>0.4510159037714099</v>
       </c>
       <c r="B19" t="n">
         <v>0.4100000000000004</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.04886921905584009</v>
+        <v>0.0279252680319096</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5047681927680969</v>
+        <v>0.4957544803619385</v>
       </c>
       <c r="E19" t="n">
-        <v>0.4952318370342255</v>
+        <v>0.5042455792427063</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4510198704335453</v>
+        <v>0.4510187051281668</v>
       </c>
       <c r="B20" t="n">
         <v>0.4400000000000004</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.05410520681182299</v>
+        <v>0.02617993877991537</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5024102330207825</v>
+        <v>0.4941152930259705</v>
       </c>
       <c r="E20" t="n">
-        <v>0.4975897371768951</v>
+        <v>0.5058847069740295</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4510156771438171</v>
+        <v>0.4510228144449658</v>
       </c>
       <c r="B21" t="n">
         <v>0.4700000000000004</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.05934119456780589</v>
+        <v>0.02443460952792113</v>
       </c>
       <c r="D21" t="n">
-        <v>0.500132143497467</v>
+        <v>0.4924842715263367</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4998679161071777</v>
+        <v>0.5075156688690186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4510142464721006</v>
+        <v>0.4510282240763523</v>
       </c>
       <c r="B22" t="n">
         <v>0.5000000000000004</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.06457718232378878</v>
+        <v>0.0226892802759269</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4976457357406616</v>
+        <v>0.4909247159957886</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5023542642593384</v>
+        <v>0.5090752840042114</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4510156122317296</v>
+        <v>0.4510346336499318</v>
       </c>
       <c r="B23" t="n">
         <v>0.5300000000000005</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.06981317007977167</v>
+        <v>0.02094395102393266</v>
       </c>
       <c r="D23" t="n">
-        <v>0.495439887046814</v>
+        <v>0.4888534545898438</v>
       </c>
       <c r="E23" t="n">
-        <v>0.504560112953186</v>
+        <v>0.511146605014801</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4510193887214579</v>
+        <v>0.451045008277683</v>
       </c>
       <c r="B24" t="n">
         <v>0.5600000000000005</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.07330382858376022</v>
+        <v>0.01919862177193843</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4929331243038177</v>
+        <v>0.4874100685119629</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5070668458938599</v>
+        <v>0.5125898718833923</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4510266044892411</v>
+        <v>0.4510534881323904</v>
       </c>
       <c r="B25" t="n">
         <v>0.5900000000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.1413716694115391</v>
+        <v>0.01745329251994419</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4902548491954803</v>
+        <v>0.4860544502735138</v>
       </c>
       <c r="E25" t="n">
-        <v>0.509745180606842</v>
+        <v>0.5139456391334534</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4510377567933771</v>
+        <v>0.4510624032090804</v>
       </c>
       <c r="B26" t="n">
         <v>0.6200000000000006</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.2111848394913122</v>
+        <v>0.01745329251994429</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4891857802867889</v>
+        <v>0.4847334027290344</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5108142495155334</v>
+        <v>0.5152665972709656</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4510431997307582</v>
+        <v>0.4510719574895778</v>
       </c>
       <c r="B27" t="n">
         <v>0.6500000000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.2234021442552724</v>
+        <v>0.01570796326795006</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4879394471645355</v>
+        <v>0.4834222495555878</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5120605826377869</v>
+        <v>0.5165776610374451</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.451050260050681</v>
+        <v>0.4510822955058482</v>
       </c>
       <c r="B28" t="n">
         <v>0.6800000000000006</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.2234021442552723</v>
+        <v>0.01396263401595582</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4856300055980682</v>
+        <v>0.4824691414833069</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5143699645996094</v>
+        <v>0.5175307989120483</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4510653748817941</v>
+        <v>0.4510903493888277</v>
       </c>
       <c r="B29" t="n">
         <v>0.7100000000000006</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.2251474735072665</v>
+        <v>-0.05585053606381736</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4830248355865479</v>
+        <v>0.4817186892032623</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5169751048088074</v>
+        <v>0.5182812213897705</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4510855996857058</v>
+        <v>0.4510970055116153</v>
       </c>
       <c r="B30" t="n">
         <v>0.7400000000000007</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2146754979953004</v>
+        <v>-0.1256637061435905</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4804477393627167</v>
+        <v>0.4822306931018829</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5195522904396057</v>
+        <v>0.5177693367004395</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4511089224479575</v>
+        <v>0.4510924382171852</v>
       </c>
       <c r="B31" t="n">
         <v>0.7700000000000007</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1989675347273513</v>
+        <v>-0.1954768762233637</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4774686098098755</v>
+        <v>0.4825331568717957</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5225313901901245</v>
+        <v>0.5174668431282043</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4511399832817372</v>
+        <v>0.4510897969423799</v>
       </c>
       <c r="B32" t="n">
         <v>0.8000000000000007</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2007128639793456</v>
+        <v>-0.2199114857512843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4745425283908844</v>
+        <v>0.4833521246910095</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5254573822021484</v>
+        <v>0.5166479349136353</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4511747760075372</v>
+        <v>0.4510828788921677</v>
       </c>
       <c r="B33" t="n">
         <v>0.8300000000000007</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1623156204354702</v>
+        <v>-0.1884955592153862</v>
       </c>
       <c r="D33" t="n">
-        <v>0.472347617149353</v>
+        <v>0.4833664000034332</v>
       </c>
       <c r="E33" t="n">
-        <v>0.527652382850647</v>
+        <v>0.5166336297988892</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4512036723097846</v>
+        <v>0.4510827599565855</v>
       </c>
       <c r="B34" t="n">
         <v>0.8600000000000008</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1588249619314814</v>
+        <v>-0.1692969374434484</v>
       </c>
       <c r="D34" t="n">
-        <v>0.469056099653244</v>
+        <v>0.4822028875350952</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5309438705444336</v>
+        <v>0.5177971124649048</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4512514847847728</v>
+        <v>0.4510926819301062</v>
       </c>
       <c r="B35" t="n">
         <v>0.8900000000000008</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1117010721276343</v>
+        <v>-0.1186823891356127</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4664624333381653</v>
+        <v>0.4817706346511841</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5335375666618347</v>
+        <v>0.5182293653488159</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4512929575234367</v>
+        <v>0.4510965394916336</v>
       </c>
       <c r="B36" t="n">
         <v>0.9200000000000008</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.0628318530717929</v>
+        <v>-0.09075712110370326</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4627941846847534</v>
+        <v>0.4801149666309357</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5372058749198914</v>
+        <v>0.5198851227760315</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.451357329383453</v>
+        <v>0.4511121762349896</v>
       </c>
       <c r="B37" t="n">
         <v>0.9500000000000008</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.06806784082777578</v>
+        <v>-0.0331612557878902</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4601102769374847</v>
+        <v>0.4790164232254028</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5398897528648376</v>
+        <v>0.5209835171699524</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4514086702678075</v>
+        <v>0.4511232927466504</v>
       </c>
       <c r="B38" t="n">
         <v>0.9800000000000009</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.07330382858375867</v>
+        <v>0.03490658503988885</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4583290815353394</v>
+        <v>0.4773585200309753</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5416709780693054</v>
+        <v>0.5226414799690247</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.4514447279408649</v>
+        <v>0.451141215516262</v>
       </c>
       <c r="B39" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.08028514559173588</v>
+        <v>0.09773843811168489</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4564833641052246</v>
+        <v>0.4752561748027802</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5435166954994202</v>
+        <v>0.5247438549995422</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.4514837602557907</v>
+        <v>0.4511659027266401</v>
       </c>
       <c r="B40" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.08377580409572444</v>
+        <v>0.09599310885969052</v>
       </c>
       <c r="D40" t="n">
-        <v>0.454558789730072</v>
+        <v>0.4733967483043671</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5454411506652832</v>
+        <v>0.5266032218933105</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4515262657584902</v>
+        <v>0.4511895623807555</v>
       </c>
       <c r="B41" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.08901179185170732</v>
+        <v>0.0907571211037075</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4526045620441437</v>
+        <v>0.4728206396102905</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5473954677581787</v>
+        <v>0.5271793603897095</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4515713300313535</v>
+        <v>0.4511972434651891</v>
       </c>
       <c r="B42" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.09424777960769021</v>
+        <v>0.08552113334772447</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4508872628211975</v>
+        <v>0.4725653827190399</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5491127967834473</v>
+        <v>0.5274345874786377</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.451612504691085</v>
+        <v>0.4512006975225731</v>
       </c>
       <c r="B43" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.09773843811167876</v>
+        <v>0.08028514559174145</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4492716491222382</v>
+        <v>0.4725452661514282</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5507283806800842</v>
+        <v>0.5274547934532166</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4516525855981762</v>
+        <v>0.4512009752027887</v>
       </c>
       <c r="B44" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1029744258676616</v>
+        <v>0.07504915783575848</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4476834535598755</v>
+        <v>0.4725649952888489</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5523165464401245</v>
+        <v>0.5274350047111511</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4516932601670642</v>
+        <v>0.4512007041211035</v>
       </c>
       <c r="B45" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.1064650843716502</v>
+        <v>0.06981317007977549</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4462210834026337</v>
+        <v>0.4727504551410675</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5537788867950439</v>
+        <v>0.5272495150566101</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.4517318297924463</v>
+        <v>0.4511981889907742</v>
       </c>
       <c r="B46" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1099557428756388</v>
+        <v>0.06632251157578682</v>
       </c>
       <c r="D46" t="n">
-        <v>0.444700688123703</v>
+        <v>0.4729713797569275</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5552993416786194</v>
+        <v>0.5270286202430725</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.4517730713834827</v>
+        <v>0.451195218112555</v>
       </c>
       <c r="B47" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.1151917306316216</v>
+        <v>0.06283185307179816</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4431690573692322</v>
+        <v>0.4733867049217224</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5568309426307678</v>
+        <v>0.5266132354736328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4518157859741116</v>
+        <v>0.4511896935274397</v>
       </c>
       <c r="B48" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.1186823891356102</v>
+        <v>0.05759586531581516</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4415488243103027</v>
+        <v>0.4740703403949738</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5584511756896973</v>
+        <v>0.5259296894073486</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.4518622553422392</v>
+        <v>0.4511807948298848</v>
       </c>
       <c r="B49" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.1221730476395987</v>
+        <v>0.05410520681182653</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4399940669536591</v>
+        <v>0.4749284088611603</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5600059628486633</v>
+        <v>0.5250715613365173</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4519080887612743</v>
+        <v>0.4511699464673581</v>
       </c>
       <c r="B50" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.1256637061435873</v>
+        <v>0.05061454830783789</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4385677576065063</v>
+        <v>0.4757062494754791</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5614323019981384</v>
+        <v>0.5242937803268433</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4519512049996731</v>
+        <v>0.4511604333326357</v>
       </c>
       <c r="B51" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.1797689129554115</v>
+        <v>0.04886921905584352</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4371936619281769</v>
+        <v>0.4765253067016602</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5628063082695007</v>
+        <v>0.5234746932983398</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.4519937050784041</v>
+        <v>0.4511507367158336</v>
       </c>
       <c r="B52" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.2338741197672357</v>
+        <v>0.04537856055185481</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4371885061264038</v>
+        <v>0.4775957465171814</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5628114342689514</v>
+        <v>0.5224041938781738</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4519938647834759</v>
+        <v>0.4511385651371114</v>
       </c>
       <c r="B53" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.2652900463031335</v>
+        <v>0.1134464013796336</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4371769726276398</v>
+        <v>0.4787553548812866</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5628229975700378</v>
+        <v>0.5212446451187134</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4519942271712622</v>
+        <v>0.4511260267165997</v>
       </c>
       <c r="B54" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.2914699850830484</v>
+        <v>0.178023583703424</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4365922510623932</v>
+        <v>0.4778164327144623</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5634077787399292</v>
+        <v>0.5221835970878601</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4520126107911369</v>
+        <v>0.4511361309149691</v>
       </c>
       <c r="B55" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.3263765701229349</v>
+        <v>0.2111848394913164</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4358733594417572</v>
+        <v>0.4769494831562042</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5641266703605652</v>
+        <v>0.5230505466461182</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.452035444964708</v>
+        <v>0.4511458478560501</v>
       </c>
       <c r="B56" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.3752457891787761</v>
+        <v>0.1884955592153902</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4353049993515015</v>
+        <v>0.4769047498703003</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5646950006484985</v>
+        <v>0.5230952501296997</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4520536806122556</v>
+        <v>0.4511463580570163</v>
       </c>
       <c r="B57" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.4450589592585493</v>
+        <v>0.1675516081914583</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4348570704460144</v>
+        <v>0.4784206449985504</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5651429891586304</v>
+        <v>0.521579384803772</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4520681714463022</v>
+        <v>0.4511295793451131</v>
       </c>
       <c r="B58" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.5148721293383225</v>
+        <v>0.1448623279155321</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4347895383834839</v>
+        <v>0.480243980884552</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5652104616165161</v>
+        <v>0.5197559595108032</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4520703612896553</v>
+        <v>0.4511109028507572</v>
       </c>
       <c r="B59" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.5323254218582657</v>
+        <v>0.1186823891356172</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4346795380115509</v>
+        <v>0.4823759496212006</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5653204321861267</v>
+        <v>0.5176240205764771</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4520739367426128</v>
+        <v>0.4510911621828468</v>
       </c>
       <c r="B60" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.5113814708343336</v>
+        <v>0.08901179185171368</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4333335757255554</v>
+        <v>0.4849229454994202</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5666663646697998</v>
+        <v>0.5150770545005798</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.4521181980750144</v>
+        <v>0.4510705329663259</v>
       </c>
       <c r="B61" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.4869468613064128</v>
+        <v>0.0558505360638214</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4307625889778137</v>
+        <v>0.4876947104930878</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5692374706268311</v>
+        <v>0.5123053193092346</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.4522052956598958</v>
+        <v>0.4510517368606734</v>
       </c>
       <c r="B62" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.4764748857944467</v>
+        <v>0.01919862177194049</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4277583956718445</v>
+        <v>0.4904492795467377</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5722415447235107</v>
+        <v>0.5095507502555847</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4523112893806949</v>
+        <v>0.4510368277450185</v>
       </c>
       <c r="B63" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.4590215932745033</v>
+        <v>-0.02094395102392905</v>
       </c>
       <c r="D63" t="n">
-        <v>0.425048440694809</v>
+        <v>0.4937372803688049</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5749515295028687</v>
+        <v>0.5062627196311951</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4524108307667776</v>
+        <v>0.4510239514566137</v>
       </c>
       <c r="B64" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.4258603374866109</v>
+        <v>-0.0506145483078326</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4220928251743317</v>
+        <v>0.4971089661121368</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5779071450233459</v>
+        <v>0.5028910040855408</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4525236424240461</v>
+        <v>0.4510163082083056</v>
       </c>
       <c r="B65" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.3752457891787752</v>
+        <v>-0.04886921905583817</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4186736643314362</v>
+        <v>0.5004895329475403</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5813263654708862</v>
+        <v>0.4995104968547821</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.4526596916146923</v>
+        <v>0.4510143003503082</v>
       </c>
       <c r="B66" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.3071779483509961</v>
+        <v>-0.04537856055184941</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4149965047836304</v>
+        <v>0.5028771758079529</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5850034356117249</v>
+        <v>0.4971228539943695</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.4528126474097353</v>
+        <v>0.4510162906800766</v>
       </c>
       <c r="B67" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.239110107523217</v>
+        <v>-0.04188790204786065</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4110075831413269</v>
+        <v>0.5051847100257874</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5889923572540283</v>
+        <v>0.4948152601718903</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.452986390315866</v>
+        <v>0.4510208947207629</v>
       </c>
       <c r="B68" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.171042266695438</v>
+        <v>-0.04014257279586622</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4070411920547485</v>
+        <v>0.5075927376747131</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5929588079452515</v>
+        <v>0.4924072325229645</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.4531672418699859</v>
+        <v>0.451028513479395</v>
       </c>
       <c r="B69" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.1029744258676589</v>
+        <v>-0.03839724354387179</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4031298458576202</v>
+        <v>0.5100071430206299</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5968700647354126</v>
+        <v>0.4899928569793701</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.453353496377882</v>
+        <v>0.4510390370879352</v>
       </c>
       <c r="B70" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.03490658503987987</v>
+        <v>-0.03490658503988303</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3993642628192902</v>
+        <v>0.5123838782310486</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6006357669830322</v>
+        <v>0.4876162111759186</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4535402782908253</v>
+        <v>0.4510522192791327</v>
       </c>
       <c r="B71" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C71" t="n">
-        <v>0.03316125578789918</v>
+        <v>-0.0331612557878886</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3956201076507568</v>
+        <v>0.5146681070327759</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6043798923492432</v>
+        <v>0.4853319823741913</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.453733264848569</v>
+        <v>0.4510675232162356</v>
       </c>
       <c r="B72" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0453785605518596</v>
+        <v>-0.03141592653589417</v>
       </c>
       <c r="D72" t="n">
-        <v>0.3919219970703125</v>
+        <v>0.5170007348060608</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6080779433250427</v>
+        <v>0.4829992353916168</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4539310228437218</v>
+        <v>0.4510858163903454</v>
       </c>
       <c r="B73" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03316125578789926</v>
+        <v>-0.02967059728389974</v>
       </c>
       <c r="D73" t="n">
-        <v>0.3894970715045929</v>
+        <v>0.5193670988082886</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6105028986930847</v>
+        <v>0.4806329011917114</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4540645685077466</v>
+        <v>0.4511071359038252</v>
       </c>
       <c r="B74" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.02094395102393903</v>
+        <v>-0.02792526803190531</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3876182436943054</v>
+        <v>0.521696150302887</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6123818159103394</v>
+        <v>0.4783038198947906</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4541701553003456</v>
+        <v>0.4511308293934317</v>
       </c>
       <c r="B75" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C75" t="n">
-        <v>0.01047197551197314</v>
+        <v>-0.02617993877991089</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3856703042984009</v>
+        <v>0.5239508152008057</v>
       </c>
       <c r="E75" t="n">
-        <v>0.6143296957015991</v>
+        <v>0.4760491251945496</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.454281567155527</v>
+        <v>0.4511563302163154</v>
       </c>
       <c r="B76" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.001745329251987088</v>
+        <v>-0.02443460952791646</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3836773335933685</v>
+        <v>0.5261160135269165</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6163226366043091</v>
+        <v>0.4738840460777283</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4543976159065521</v>
+        <v>0.4511831991660855</v>
       </c>
       <c r="B77" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.01221730476395298</v>
+        <v>-0.02268928027592203</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3817481100559235</v>
+        <v>0.5282559394836426</v>
       </c>
       <c r="E77" t="n">
-        <v>0.6182519197463989</v>
+        <v>0.4717441201210022</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4545119464646212</v>
+        <v>0.4512120384948239</v>
       </c>
       <c r="B78" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.02094395102392455</v>
+        <v>-0.02268928027592193</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3798035681247711</v>
+        <v>0.5303046107292175</v>
       </c>
       <c r="E78" t="n">
-        <v>0.6201964020729065</v>
+        <v>0.4696952998638153</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4546291603202294</v>
+        <v>0.4512417754651807</v>
       </c>
       <c r="B79" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.03141592653589044</v>
+        <v>-0.0209439510239275</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3778581619262695</v>
+        <v>0.5323770046234131</v>
       </c>
       <c r="E79" t="n">
-        <v>0.6221417784690857</v>
+        <v>0.4676229953765869</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4547484246782567</v>
+        <v>0.4512739870744231</v>
       </c>
       <c r="B80" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.040142572795862</v>
+        <v>-0.01919862177193307</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3759801685810089</v>
+        <v>0.5343925952911377</v>
       </c>
       <c r="E80" t="n">
-        <v>0.6240198016166687</v>
+        <v>0.4656074047088623</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4548654583936277</v>
+        <v>0.4513073625177837</v>
       </c>
       <c r="B81" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.04886921905583357</v>
+        <v>-0.01919862177193297</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3740877509117126</v>
+        <v>0.536387026309967</v>
       </c>
       <c r="E81" t="n">
-        <v>0.6259123086929321</v>
+        <v>0.4636130034923553</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4549852853375841</v>
+        <v>0.4513423787794599</v>
       </c>
       <c r="B82" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.05759586531580513</v>
+        <v>-0.01745329251993855</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3722213506698608</v>
+        <v>0.5384054183959961</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6277786493301392</v>
+        <v>0.4615946412086487</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4551053177585026</v>
+        <v>0.4513798325787172</v>
       </c>
       <c r="B83" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.06632251157577668</v>
+        <v>-0.01570796326794412</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3703803718090057</v>
+        <v>0.5402964949607849</v>
       </c>
       <c r="E83" t="n">
-        <v>0.6296196579933167</v>
+        <v>0.4597035050392151</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.455225537119257</v>
+        <v>0.4514167636059507</v>
       </c>
       <c r="B84" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.07330382858375389</v>
+        <v>-0.01570796326794402</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3685643970966339</v>
+        <v>0.542066752910614</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6314355731010437</v>
+        <v>0.4579331874847412</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4553458884753466</v>
+        <v>0.451452951167559</v>
       </c>
       <c r="B85" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.08028514559173111</v>
+        <v>-0.01396263401594959</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3667244613170624</v>
+        <v>0.5438633561134338</v>
       </c>
       <c r="E85" t="n">
-        <v>0.6332756280899048</v>
+        <v>0.4561367034912109</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4554696373767547</v>
+        <v>0.4514912809468614</v>
       </c>
       <c r="B86" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.08726646259970833</v>
+        <v>-0.01396263401594949</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3648793399333954</v>
+        <v>0.5456099510192871</v>
       </c>
       <c r="E86" t="n">
-        <v>0.635120689868927</v>
+        <v>0.4543901085853577</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.4555955439554942</v>
+        <v>0.4515300857035254</v>
       </c>
       <c r="B87" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.09599310885967988</v>
+        <v>-0.01221730476395506</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3630548715591431</v>
+        <v>0.5473836660385132</v>
       </c>
       <c r="E87" t="n">
-        <v>0.6369451284408569</v>
+        <v>0.4526163637638092</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.4557218402049132</v>
+        <v>0.4515710521816794</v>
       </c>
       <c r="B88" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1012290966156628</v>
+        <v>-0.01221730476395497</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3612886965274811</v>
+        <v>0.5491081476211548</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6387112736701965</v>
+        <v>0.4508918225765228</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.4558458071226074</v>
+        <v>0.4516123889805692</v>
       </c>
       <c r="B89" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.10821041362364</v>
+        <v>-0.01221730476395487</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3594651818275452</v>
+        <v>0.5508604645729065</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6405348181724548</v>
+        <v>0.4491395354270935</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.4559755677802604</v>
+        <v>0.4516559195639326</v>
       </c>
       <c r="B90" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.1151917306316172</v>
+        <v>-0.01047197551196044</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3576923012733459</v>
+        <v>0.5526053905487061</v>
       </c>
       <c r="E90" t="n">
-        <v>0.6423076987266541</v>
+        <v>0.4473945796489716</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4561034464295006</v>
+        <v>0.4517007929826962</v>
       </c>
       <c r="B91" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.1204277183876001</v>
+        <v>-0.01047197551196034</v>
       </c>
       <c r="D91" t="n">
-        <v>0.3559337258338928</v>
+        <v>0.5542969703674316</v>
       </c>
       <c r="E91" t="n">
-        <v>0.6440662741661072</v>
+        <v>0.445702999830246</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.4562319754490144</v>
+        <v>0.4517457518401788</v>
       </c>
       <c r="B92" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.1274090353955773</v>
+        <v>-0.008726646259965914</v>
       </c>
       <c r="D92" t="n">
-        <v>0.3541483283042908</v>
+        <v>0.5560029745101929</v>
       </c>
       <c r="E92" t="n">
-        <v>0.6458516716957092</v>
+        <v>0.4439970850944519</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.4563641827291385</v>
+        <v>0.4517925496877218</v>
       </c>
       <c r="B93" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.1326450231515602</v>
+        <v>-0.008726646259965817</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3524125218391418</v>
+        <v>0.5576631426811218</v>
       </c>
       <c r="E93" t="n">
-        <v>0.6475875377655029</v>
+        <v>0.4423368573188782</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.4564943853779146</v>
+        <v>0.4518394893058432</v>
       </c>
       <c r="B94" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.1378810109075431</v>
+        <v>-0.00872664625996572</v>
       </c>
       <c r="D94" t="n">
-        <v>0.350653201341629</v>
+        <v>0.5593505501747131</v>
       </c>
       <c r="E94" t="n">
-        <v>0.6493467688560486</v>
+        <v>0.4406493902206421</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4566280186930738</v>
+        <v>0.4518886180192144</v>
       </c>
       <c r="B95" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.143116998663526</v>
+        <v>-0.008726646259965623</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3489077389240265</v>
+        <v>0.5610318183898926</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6510922908782959</v>
+        <v>0.4389682114124298</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.4567622826174985</v>
+        <v>0.4519389951115698</v>
       </c>
       <c r="B96" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.1483529864195088</v>
+        <v>-0.006981317007971194</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3471989333629608</v>
+        <v>0.5627068281173706</v>
       </c>
       <c r="E96" t="n">
-        <v>0.6528010964393616</v>
+        <v>0.437293142080307</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.4568953406768092</v>
+        <v>0.4519905959425896</v>
       </c>
       <c r="B97" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.1535889741754917</v>
+        <v>-0.006981317007971097</v>
       </c>
       <c r="D97" t="n">
-        <v>0.345588892698288</v>
+        <v>0.5643371939659119</v>
       </c>
       <c r="E97" t="n">
-        <v>0.6544110774993896</v>
+        <v>0.4356627762317657</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4570221721995815</v>
+        <v>0.4520421798935305</v>
       </c>
       <c r="B98" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.1570796326794803</v>
+        <v>-0.006981317007971</v>
       </c>
       <c r="D98" t="n">
-        <v>0.3439871370792389</v>
+        <v>0.565995454788208</v>
       </c>
       <c r="E98" t="n">
-        <v>0.6560128331184387</v>
+        <v>0.434004545211792</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.4571497720895438</v>
+        <v>0.4520960216817546</v>
       </c>
       <c r="B99" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.1623156204354632</v>
+        <v>-0.006981317007970902</v>
       </c>
       <c r="D99" t="n">
-        <v>0.3423618376255035</v>
+        <v>0.5676484107971191</v>
       </c>
       <c r="E99" t="n">
-        <v>0.6576380729675293</v>
+        <v>0.4323515594005585</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.4572806910710912</v>
+        <v>0.4521510709591733</v>
       </c>
       <c r="B100" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.167551608191446</v>
+        <v>-0.005235987755976473</v>
       </c>
       <c r="D100" t="n">
-        <v>0.3407863080501556</v>
+        <v>0.56929612159729</v>
       </c>
       <c r="E100" t="n">
-        <v>0.6592137217521667</v>
+        <v>0.4307039082050323</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4574090091763468</v>
+        <v>0.452207320825681</v>
       </c>
       <c r="B101" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.1710422666954346</v>
+        <v>-0.005235987755976376</v>
       </c>
       <c r="D101" t="n">
-        <v>0.3392250835895538</v>
+        <v>0.5708999633789062</v>
       </c>
       <c r="E101" t="n">
-        <v>0.6607749462127686</v>
+        <v>0.4291000664234161</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.4575375118770497</v>
+        <v>0.4522633902466201</v>
       </c>
       <c r="B102" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.1762782544514175</v>
+        <v>-0.005235987755976279</v>
       </c>
       <c r="D102" t="n">
-        <v>0.337651789188385</v>
+        <v>0.5725324749946594</v>
       </c>
       <c r="E102" t="n">
-        <v>0.662348210811615</v>
+        <v>0.427467554807663</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.4576683767905856</v>
+        <v>0.4523217988959433</v>
       </c>
       <c r="B103" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.179768912955406</v>
+        <v>-0.005235987755976182</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3361273407936096</v>
+        <v>0.5741605162620544</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6638726592063904</v>
+        <v>0.4258395135402679</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4577964967106414</v>
+        <v>0.4523813922225591</v>
       </c>
       <c r="B104" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.1832595714593946</v>
+        <v>-0.005235987755976085</v>
       </c>
       <c r="D104" t="n">
-        <v>0.3345734477043152</v>
+        <v>0.5757840275764465</v>
       </c>
       <c r="E104" t="n">
-        <v>0.6654265522956848</v>
+        <v>0.4242159426212311</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4579284273133554</v>
+        <v>0.4524421572529396</v>
       </c>
       <c r="B105" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.1884955592153775</v>
+        <v>-0.005235987755975988</v>
       </c>
       <c r="D105" t="n">
-        <v>0.3330279588699341</v>
+        <v>0.57740318775177</v>
       </c>
       <c r="E105" t="n">
-        <v>0.6669721007347107</v>
+        <v>0.4225967824459076</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.458060989871067</v>
+        <v>0.45250409326037</v>
       </c>
       <c r="B106" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.191986217719366</v>
+        <v>-0.003490658503981559</v>
       </c>
       <c r="D106" t="n">
-        <v>0.3315535485744476</v>
+        <v>0.5790178775787354</v>
       </c>
       <c r="E106" t="n">
-        <v>0.66844642162323</v>
+        <v>0.4209822118282318</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.4581886945290106</v>
+        <v>0.4525671871574155</v>
       </c>
       <c r="B107" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.1954768762233546</v>
+        <v>-0.003490658503981461</v>
       </c>
       <c r="D107" t="n">
-        <v>0.3300802409648895</v>
+        <v>0.5805898308753967</v>
       </c>
       <c r="E107" t="n">
-        <v>0.6699197888374329</v>
+        <v>0.4194101691246033</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.458317536416607</v>
+        <v>0.4526298819998134</v>
       </c>
       <c r="B108" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.1989675347273431</v>
+        <v>-0.003490658503981364</v>
       </c>
       <c r="D108" t="n">
-        <v>0.3286239504814148</v>
+        <v>0.5821909308433533</v>
       </c>
       <c r="E108" t="n">
-        <v>0.67137610912323</v>
+        <v>0.4178090691566467</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4584460909944262</v>
+        <v>0.4526950346849234</v>
       </c>
       <c r="B109" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.2024581932313317</v>
+        <v>-0.003490658503981267</v>
       </c>
       <c r="D109" t="n">
-        <v>0.3271979689598083</v>
+        <v>0.5837884545326233</v>
       </c>
       <c r="E109" t="n">
-        <v>0.6728020310401917</v>
+        <v>0.4162115454673767</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.4585731250488137</v>
+        <v>0.4527613446868075</v>
       </c>
       <c r="B110" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.2059488517353202</v>
+        <v>-0.00349065850398117</v>
       </c>
       <c r="D110" t="n">
-        <v>0.3257741034030914</v>
+        <v>0.5853822827339172</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6742258667945862</v>
+        <v>0.4146177470684052</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.4587011223737135</v>
+        <v>0.4528288001229341</v>
       </c>
       <c r="B111" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.2094395102393088</v>
+        <v>-0.003490658503981073</v>
       </c>
       <c r="D111" t="n">
-        <v>0.3243524134159088</v>
+        <v>0.5869724750518799</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6756475567817688</v>
+        <v>0.4130275547504425</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.4588300751370844</v>
+        <v>0.4528973952013621</v>
       </c>
       <c r="B112" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.2129301687432973</v>
+        <v>-0.003490658503980976</v>
       </c>
       <c r="D112" t="n">
-        <v>0.3229321837425232</v>
+        <v>0.5885589122772217</v>
       </c>
       <c r="E112" t="n">
-        <v>0.6770678758621216</v>
+        <v>0.4114410281181335</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.4589600510683929</v>
+        <v>0.4529671165373557</v>
       </c>
       <c r="B113" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.2164208272472859</v>
+        <v>-0.003490658503980879</v>
       </c>
       <c r="D113" t="n">
-        <v>0.3215122520923615</v>
+        <v>0.5901415944099426</v>
       </c>
       <c r="E113" t="n">
-        <v>0.6784877181053162</v>
+        <v>0.409858375787735</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.4590911368326954</v>
+        <v>0.4530379594790484</v>
       </c>
       <c r="B114" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.2199114857512744</v>
+        <v>-0.003490658503980781</v>
       </c>
       <c r="D114" t="n">
-        <v>0.3200919926166534</v>
+        <v>0.5917207002639771</v>
       </c>
       <c r="E114" t="n">
-        <v>0.6799079775810242</v>
+        <v>0.4082793593406677</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.4592234133431865</v>
+        <v>0.4531099237657691</v>
       </c>
       <c r="B115" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.223402144255263</v>
+        <v>-0.003490658503980684</v>
       </c>
       <c r="D115" t="n">
-        <v>0.3186618387699127</v>
+        <v>0.5932958722114563</v>
       </c>
       <c r="E115" t="n">
-        <v>0.6813381314277649</v>
+        <v>0.4067041277885437</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.4593577801508912</v>
+        <v>0.453182982909066</v>
       </c>
       <c r="B116" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.2268928027592516</v>
+        <v>-0.001745329251986255</v>
       </c>
       <c r="D116" t="n">
-        <v>0.3172288537025452</v>
+        <v>0.5948672890663147</v>
       </c>
       <c r="E116" t="n">
-        <v>0.6827712059020996</v>
+        <v>0.4051326811313629</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4594935990637959</v>
+        <v>0.4532571398553727</v>
       </c>
       <c r="B117" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.2303834612632401</v>
+        <v>-0.001745329251986158</v>
       </c>
       <c r="D117" t="n">
-        <v>0.3157932460308075</v>
+        <v>0.5963972210884094</v>
       </c>
       <c r="E117" t="n">
-        <v>0.6842067241668701</v>
+        <v>0.4036028683185577</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.4596308394249369</v>
+        <v>0.4533305625872527</v>
       </c>
       <c r="B118" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.261799387799138</v>
+        <v>-0.001745329251986061</v>
       </c>
       <c r="D118" t="n">
-        <v>0.3143543899059296</v>
+        <v>0.5979565978050232</v>
       </c>
       <c r="E118" t="n">
-        <v>0.685645580291748</v>
+        <v>0.4020434319972992</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.4597695919813081</v>
+        <v>0.4534066383682695</v>
       </c>
       <c r="B119" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.2652900463031265</v>
+        <v>-0.001745329251985964</v>
       </c>
       <c r="D119" t="n">
-        <v>0.3134601414203644</v>
+        <v>0.5995057225227356</v>
       </c>
       <c r="E119" t="n">
-        <v>0.6865398287773132</v>
+        <v>0.400494247674942</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4598564306919442</v>
+        <v>0.4534834572806956</v>
       </c>
       <c r="B120" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.2670353755551207</v>
+        <v>-0.001745329251985867</v>
       </c>
       <c r="D120" t="n">
-        <v>0.3119945228099823</v>
+        <v>0.601003885269165</v>
       </c>
       <c r="E120" t="n">
-        <v>0.6880055665969849</v>
+        <v>0.398996114730835</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4599997669497063</v>
+        <v>0.4535589302355298</v>
       </c>
       <c r="B121" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.2670353755551206</v>
+        <v>-0.001745329251985769</v>
       </c>
       <c r="D121" t="n">
-        <v>0.3104913532733917</v>
+        <v>0.6024919152259827</v>
       </c>
       <c r="E121" t="n">
-        <v>0.6895086765289307</v>
+        <v>0.3975080847740173</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4601480595379175</v>
+        <v>0.4536350427188758</v>
       </c>
       <c r="B122" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.2670353755551205</v>
+        <v>-0.001745329251985672</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3089406490325928</v>
+        <v>0.603977382183075</v>
       </c>
       <c r="E122" t="n">
-        <v>0.6910593509674072</v>
+        <v>0.3960226476192474</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4603024252675467</v>
+        <v>0.4537121693535784</v>
       </c>
       <c r="B123" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.2740166925630977</v>
+        <v>-0.001745329251985575</v>
       </c>
       <c r="D123" t="n">
-        <v>0.3073770701885223</v>
+        <v>0.605460524559021</v>
       </c>
       <c r="E123" t="n">
-        <v>0.6926229000091553</v>
+        <v>0.394539475440979</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4604594969215667</v>
+        <v>0.4537903176110606</v>
       </c>
       <c r="B124" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.280998009571075</v>
+        <v>-0.001745329251985478</v>
       </c>
       <c r="D124" t="n">
-        <v>0.3059446811676025</v>
+        <v>0.6069409847259521</v>
       </c>
       <c r="E124" t="n">
-        <v>0.6940553188323975</v>
+        <v>0.3930590450763702</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4606046529948409</v>
+        <v>0.4538694655003342</v>
       </c>
       <c r="B125" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.2862339973270578</v>
+        <v>-0.001745329251985381</v>
       </c>
       <c r="D125" t="n">
-        <v>0.3044950664043427</v>
+        <v>0.6084192991256714</v>
       </c>
       <c r="E125" t="n">
-        <v>0.695504903793335</v>
+        <v>0.3915806710720062</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4607527788866276</v>
+        <v>0.4539496364818739</v>
       </c>
       <c r="B126" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.2827433388230691</v>
+        <v>-0.001745329251985284</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3029908835887909</v>
+        <v>0.6098970174789429</v>
       </c>
       <c r="E126" t="n">
-        <v>0.6970091462135315</v>
+        <v>0.3901029527187347</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4609077984693709</v>
+        <v>0.454030914256502</v>
       </c>
       <c r="B127" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.2757620218150916</v>
+        <v>-0.001745329251985187</v>
       </c>
       <c r="D127" t="n">
-        <v>0.3012897074222565</v>
+        <v>0.6113804578781128</v>
       </c>
       <c r="E127" t="n">
-        <v>0.6987102627754211</v>
+        <v>0.3886195421218872</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4610847231996033</v>
+        <v>0.4541136536295567</v>
       </c>
       <c r="B128" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.2652900463031255</v>
+        <v>-0.001745329251985089</v>
       </c>
       <c r="D128" t="n">
-        <v>0.2995277941226959</v>
+        <v>0.6128634214401245</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7004722356796265</v>
+        <v>0.3871365785598755</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4612697854263609</v>
+        <v>0.4541975162045047</v>
       </c>
       <c r="B129" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.2530727415391651</v>
+        <v>-0.001745329251984992</v>
       </c>
       <c r="D129" t="n">
-        <v>0.29770427942276</v>
+        <v>0.6143437027931213</v>
       </c>
       <c r="E129" t="n">
-        <v>0.7022956609725952</v>
+        <v>0.385656327009201</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4614632532117134</v>
+        <v>0.4542823756895175</v>
       </c>
       <c r="B130" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.253072741539165</v>
+        <v>-0.001745329251984895</v>
       </c>
       <c r="D130" t="n">
-        <v>0.2958448529243469</v>
+        <v>0.6158194541931152</v>
       </c>
       <c r="E130" t="n">
-        <v>0.7041551470756531</v>
+        <v>0.3841804563999176</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4616625903237301</v>
+        <v>0.4543681184938563</v>
       </c>
       <c r="B131" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.2583087292951479</v>
+        <v>-0.001745329251984798</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2942304015159607</v>
+        <v>0.6172876358032227</v>
       </c>
       <c r="E131" t="n">
-        <v>0.7057695984840393</v>
+        <v>0.3827123641967773</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4618373435860514</v>
+        <v>0.4544545576508418</v>
       </c>
       <c r="B132" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.2617993877991364</v>
+        <v>-0.001745329251984701</v>
       </c>
       <c r="D132" t="n">
-        <v>0.2927102744579315</v>
+        <v>0.6187494397163391</v>
       </c>
       <c r="E132" t="n">
-        <v>0.7072896957397461</v>
+        <v>0.3812504708766937</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4620033188025021</v>
+        <v>0.4545417469241566</v>
       </c>
       <c r="B133" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.265290046303125</v>
+        <v>-0.001745329251984604</v>
       </c>
       <c r="D133" t="n">
-        <v>0.2911522686481476</v>
+        <v>0.6202087998390198</v>
       </c>
       <c r="E133" t="n">
-        <v>0.7088477611541748</v>
+        <v>0.3797912001609802</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4621748854169579</v>
+        <v>0.4546299141761906</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.2687807048071135</v>
+        <v>-0.001745329251984507</v>
       </c>
       <c r="D134" t="n">
-        <v>0.2896040081977844</v>
+        <v>0.6216654181480408</v>
       </c>
       <c r="E134" t="n">
-        <v>0.7103959918022156</v>
+        <v>0.3783345520496368</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4623468286693805</v>
+        <v>0.4547190358863837</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9300000000000008</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.2722713633111021</v>
+        <v>-0.07155849933175769</v>
       </c>
       <c r="D135" t="n">
-        <v>0.2880667448043823</v>
+        <v>0.6234098672866821</v>
       </c>
       <c r="E135" t="n">
-        <v>0.7119331955909729</v>
+        <v>0.3765901625156403</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4625189898754574</v>
+        <v>0.4548272442871334</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.277507351067085</v>
+        <v>-0.1413716694115309</v>
       </c>
       <c r="D136" t="n">
-        <v>0.2865211069583893</v>
+        <v>0.6264721155166626</v>
       </c>
       <c r="E136" t="n">
-        <v>0.7134788632392883</v>
+        <v>0.3735279142856598</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.4626935494111489</v>
+        <v>0.455021094529735</v>
       </c>
       <c r="B137" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.2809980095710735</v>
+        <v>-0.2076941809873154</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2850050926208496</v>
+        <v>0.6290900111198425</v>
       </c>
       <c r="E137" t="n">
-        <v>0.7149948477745056</v>
+        <v>0.3709099888801575</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.4628661785942128</v>
+        <v>0.4551907657017114</v>
       </c>
       <c r="B138" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.2844886680750621</v>
+        <v>-0.190240888467372</v>
       </c>
       <c r="D138" t="n">
-        <v>0.283458799123764</v>
+        <v>0.6318387389183044</v>
       </c>
       <c r="E138" t="n">
-        <v>0.7165411710739136</v>
+        <v>0.3681613206863403</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.4630437142529616</v>
+        <v>0.4553728475958062</v>
       </c>
       <c r="B139" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.289724655831045</v>
+        <v>-0.1518436449234966</v>
       </c>
       <c r="D139" t="n">
-        <v>0.2819012999534607</v>
+        <v>0.633419930934906</v>
       </c>
       <c r="E139" t="n">
-        <v>0.7180987000465393</v>
+        <v>0.3665800392627716</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.4632240254591702</v>
+        <v>0.4554794188360446</v>
       </c>
       <c r="B140" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.2932153143350335</v>
+        <v>-0.09075712110369483</v>
       </c>
       <c r="D140" t="n">
-        <v>0.2803643047809601</v>
+        <v>0.6344858407974243</v>
       </c>
       <c r="E140" t="n">
-        <v>0.7196357250213623</v>
+        <v>0.3655142486095428</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.4634034329743262</v>
+        <v>0.4555520159507763</v>
       </c>
       <c r="B141" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.2984513020910164</v>
+        <v>-0.02268928027591577</v>
       </c>
       <c r="D141" t="n">
-        <v>0.2787829339504242</v>
+        <v>0.6349881887435913</v>
       </c>
       <c r="E141" t="n">
-        <v>0.7212170362472534</v>
+        <v>0.3650117814540863</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.4635895421773625</v>
+        <v>0.4555864413111677</v>
       </c>
       <c r="B142" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.3019419605950049</v>
+        <v>0.04537856055186328</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2772208154201508</v>
+        <v>0.6354348659515381</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7227791547775269</v>
+        <v>0.3645651638507843</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.4637749188685216</v>
+        <v>0.455617165226519</v>
       </c>
       <c r="B143" t="n">
         <v>0.9900000000000009</v>
       </c>
       <c r="C143" t="n">
-        <v>-0.3071779483509878</v>
+        <v>0.113446401379642</v>
       </c>
       <c r="D143" t="n">
-        <v>0.2756137549877167</v>
+        <v>0.6354732513427734</v>
       </c>
       <c r="E143" t="n">
-        <v>0.7243862748146057</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>0.4639672247431057</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C144" t="n">
-        <v>-0.3124139361069707</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.2740249037742615</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.7259751558303833</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>0.4641589411647147</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C145" t="n">
-        <v>-0.3159045946109593</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.2724218964576721</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.7275781035423279</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>0.4643539681988845</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C146" t="n">
-        <v>-0.3211405823669422</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.2707731127738953</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.7292269468307495</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>0.4645562683478081</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C147" t="n">
-        <v>-0.326376570122925</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.2691413462162018</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.7308586835861206</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>0.4647581704588339</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C148" t="n">
-        <v>-0.3316125578789079</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.2674945890903473</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.7325053811073303</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>0.4649636435891255</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C149" t="n">
-        <v>-0.3368485456348908</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.265832930803299</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.7341670989990234</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>0.4651727433783068</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C150" t="n">
-        <v>-0.343829862642868</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.2641561031341553</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.7358438968658447</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>0.4653855409048647</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C151" t="n">
-        <v>-0.3490658503988509</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.2626185715198517</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.7373813986778259</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>0.4655822533391031</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.9600000000000009</v>
-      </c>
-      <c r="C152" t="n">
-        <v>-0.3508111796508451</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.2610793709754944</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.7389206886291504</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>0.4657807216371085</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.9300000000000008</v>
-      </c>
-      <c r="C153" t="n">
-        <v>-0.3525565089028393</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.2597372233867645</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.7402628064155579</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>0.4659550278124952</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.9000000000000008</v>
-      </c>
-      <c r="C154" t="n">
-        <v>-0.3543018381548336</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.2584307789802551</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.7415692210197449</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>0.4661258246633754</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.8700000000000008</v>
-      </c>
-      <c r="C155" t="n">
-        <v>-0.3560471674068278</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.2571581602096558</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.7428418397903442</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>0.4662932750166098</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.8400000000000007</v>
-      </c>
-      <c r="C156" t="n">
-        <v>-0.3560471674068277</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.2559252083301544</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.7440747618675232</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>0.4664565168109813</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.8100000000000007</v>
-      </c>
-      <c r="C157" t="n">
-        <v>-0.4258603374866008</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.2547030746936798</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.7452968955039978</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>0.4666193163282601</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.8400000000000007</v>
-      </c>
-      <c r="C158" t="n">
-        <v>-0.495673507566374</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.2546968758106232</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.745303213596344</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>0.4666201550620705</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.8700000000000008</v>
-      </c>
-      <c r="C159" t="n">
-        <v>-0.5654866776461472</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.2541584372520447</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.7458416223526001</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>0.4666921924592571</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.9000000000000008</v>
-      </c>
-      <c r="C160" t="n">
-        <v>-0.6352998477259204</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.2536475956439972</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.7463523745536804</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>0.4667607095161184</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.9300000000000008</v>
-      </c>
-      <c r="C161" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.2533236145973206</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.7466764450073242</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>0.4668042661432342</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.9600000000000009</v>
-      </c>
-      <c r="C162" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.2530040144920349</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.7469959855079651</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>0.4668472889304102</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C163" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.2517046630382538</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.7482953667640686</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>0.4670229226671832</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.2505280375480652</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.7494719624519348</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>0.4671829319867504</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.2496202737092972</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.7503796815872192</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>0.4673070084713574</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.248803123831749</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.7511968612670898</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>0.4674191774597488</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C167" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.2480593025684357</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.7519406676292419</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>0.467521666472353</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C168" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.2473628968000412</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.7526370882987976</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>0.4676179619409495</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C169" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.246525377035141</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.7534746527671814</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>0.4677342050679753</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C170" t="n">
-        <v>-0.6981317007977318</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.2458937168121338</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.754106342792511</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>0.4678221889045917</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C171" t="n">
-        <v>-0.6300638599699528</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.2456127554178238</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.7543872594833374</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>0.4678614054695473</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C172" t="n">
-        <v>-0.5602506898901796</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.2438863515853882</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.756113588809967</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>0.4681035690743245</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C173" t="n">
-        <v>-0.4921828490624005</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.2419168055057526</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.7580832242965698</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>0.4683823302331008</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C174" t="n">
-        <v>-0.4241150082346214</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.2403237521648407</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.7596762776374817</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="n">
-        <v>0.4686097380516079</v>
-      </c>
-      <c r="B175" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C175" t="n">
-        <v>-0.3560471674068424</v>
-      </c>
-      <c r="D175" t="n">
-        <v>0.239415779709816</v>
-      </c>
-      <c r="E175" t="n">
-        <v>0.7605842351913452</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="n">
-        <v>0.4687401291639247</v>
-      </c>
-      <c r="B176" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C176" t="n">
-        <v>-0.2879793265790633</v>
-      </c>
-      <c r="D176" t="n">
-        <v>0.2385990470647812</v>
-      </c>
-      <c r="E176" t="n">
-        <v>0.7614009380340576</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="n">
-        <v>0.468857901326982</v>
-      </c>
-      <c r="B177" t="n">
-        <v>0.9900000000000009</v>
-      </c>
-      <c r="C177" t="n">
-        <v>-0.2199114857512843</v>
-      </c>
-      <c r="D177" t="n">
-        <v>0.2376738637685776</v>
-      </c>
-      <c r="E177" t="n">
-        <v>0.762326180934906</v>
+        <v>0.3645267188549042</v>
       </c>
     </row>
   </sheetData>

--- a/datos_robot.xlsx
+++ b/datos_robot.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,7 +745,7 @@
         <v>0.4100000000000004</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0279252680319096</v>
+        <v>0.02617993877991527</v>
       </c>
       <c r="D19" t="n">
         <v>0.4957544803619385</v>
@@ -762,2104 +762,2631 @@
         <v>0.4400000000000004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02617993877991537</v>
+        <v>0.02443460952792104</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4941152930259705</v>
+        <v>0.494123250246048</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5058847069740295</v>
+        <v>0.5058767199516296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4510228144449658</v>
+        <v>0.4510227900960095</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4700000000000004</v>
+        <v>0.4100000000000004</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02443460952792113</v>
+        <v>0.0226892802759268</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4924842715263367</v>
+        <v>0.4925061464309692</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5075156688690186</v>
+        <v>0.5074938535690308</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4510282240763523</v>
+        <v>0.4510281451487669</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5000000000000004</v>
+        <v>0.3800000000000003</v>
       </c>
       <c r="C22" t="n">
         <v>0.0226892802759269</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4909247159957886</v>
+        <v>0.4926078915596008</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5090752840042114</v>
+        <v>0.5073921084403992</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.4510346336499318</v>
+        <v>0.451027770109876</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5300000000000005</v>
+        <v>0.3500000000000003</v>
       </c>
       <c r="C23" t="n">
         <v>0.02094395102393266</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4888534545898438</v>
+        <v>0.4928515255451202</v>
       </c>
       <c r="E23" t="n">
-        <v>0.511146605014801</v>
+        <v>0.5071483850479126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.451045008277683</v>
+        <v>0.4510268893456664</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5600000000000005</v>
+        <v>0.3200000000000003</v>
       </c>
       <c r="C24" t="n">
         <v>0.01919862177193843</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4874100685119629</v>
+        <v>0.4928892254829407</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5125898718833923</v>
+        <v>0.5071107745170593</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4510534881323904</v>
+        <v>0.4510267597863182</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5900000000000005</v>
+        <v>0.2900000000000003</v>
       </c>
       <c r="C25" t="n">
         <v>0.01745329251994419</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4860544502735138</v>
+        <v>0.4928946197032928</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5139456391334534</v>
+        <v>0.5071053504943848</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4510624032090804</v>
+        <v>0.4510267396134794</v>
       </c>
       <c r="B26" t="n">
-        <v>0.6200000000000006</v>
+        <v>0.2600000000000002</v>
       </c>
       <c r="C26" t="n">
         <v>0.01745329251994429</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4847334027290344</v>
+        <v>0.4930657148361206</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5152665972709656</v>
+        <v>0.5069342851638794</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4510719574895778</v>
+        <v>0.4510261459902581</v>
       </c>
       <c r="B27" t="n">
-        <v>0.6500000000000006</v>
+        <v>0.2300000000000002</v>
       </c>
       <c r="C27" t="n">
         <v>0.01570796326795006</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4834222495555878</v>
+        <v>0.4933870434761047</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5165776610374451</v>
+        <v>0.5066129565238953</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4510822955058482</v>
+        <v>0.4510250680860012</v>
       </c>
       <c r="B28" t="n">
-        <v>0.6800000000000006</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="C28" t="n">
         <v>0.01396263401595582</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4824691414833069</v>
+        <v>0.4936817288398743</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5175307989120483</v>
+        <v>0.5063182711601257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4510903493888277</v>
+        <v>0.4510241245126665</v>
       </c>
       <c r="B29" t="n">
-        <v>0.7100000000000006</v>
+        <v>0.1700000000000002</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.05585053606381736</v>
+        <v>0.01396263401595592</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4817186892032623</v>
+        <v>0.4940035045146942</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5182812213897705</v>
+        <v>0.5059965252876282</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4510970055116153</v>
+        <v>0.4510231444960852</v>
       </c>
       <c r="B30" t="n">
-        <v>0.7400000000000007</v>
+        <v>0.1400000000000002</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1256637061435905</v>
+        <v>0.01221730476396168</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4822306931018829</v>
+        <v>0.4944553971290588</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5177693367004395</v>
+        <v>0.5055446028709412</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4510924382171852</v>
+        <v>0.4510218519387772</v>
       </c>
       <c r="B31" t="n">
-        <v>0.7700000000000007</v>
+        <v>0.1100000000000002</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1954768762233637</v>
+        <v>0.01221730476396178</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4825331568717957</v>
+        <v>0.4950520098209381</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5174668431282043</v>
+        <v>0.5049479007720947</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4510897969423799</v>
+        <v>0.4510202983900934</v>
       </c>
       <c r="B32" t="n">
-        <v>0.8000000000000007</v>
+        <v>0.08000000000000024</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.2199114857512843</v>
+        <v>0.01047197551196755</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4833521246910095</v>
+        <v>0.4956724345684052</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5166479349136353</v>
+        <v>0.5043275952339172</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4510828788921677</v>
+        <v>0.4510188781285508</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8300000000000007</v>
+        <v>0.05000000000000024</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.1884955592153862</v>
+        <v>0.01047197551196764</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4833664000034332</v>
+        <v>0.4963443577289581</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5166336297988892</v>
+        <v>0.5036556124687195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4510827599565855</v>
+        <v>0.4510175476212696</v>
       </c>
       <c r="B34" t="n">
-        <v>0.8600000000000008</v>
+        <v>0.02000000000000024</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1692969374434484</v>
+        <v>0.01047197551196774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4822028875350952</v>
+        <v>0.4970236122608185</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5177971124649048</v>
+        <v>0.5029763579368591</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4510926819301062</v>
+        <v>0.4510164322092268</v>
       </c>
       <c r="B35" t="n">
-        <v>0.8900000000000008</v>
+        <v>2.411265631607762e-16</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1186823891356127</v>
+        <v>0.008726646259973506</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4817706346511841</v>
+        <v>0.4978299140930176</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5182293653488159</v>
+        <v>0.5021700263023376</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.4510965394916336</v>
+        <v>0.451015403611691</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9200000000000008</v>
+        <v>2.498001805406602e-16</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.09075712110370326</v>
+        <v>-0.6981317007977318</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4801149666309357</v>
+        <v>0.4983841478824615</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5198851227760315</v>
+        <v>0.5016158223152161</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4511121762349896</v>
+        <v>0.4510148852225499</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9500000000000008</v>
+        <v>0.02000000000000026</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0331612557878902</v>
+        <v>-0.6300638599699528</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4790164232254028</v>
+        <v>0.507582426071167</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5209835171699524</v>
+        <v>0.4924175441265106</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4511232927466504</v>
+        <v>0.4510284747315475</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9800000000000009</v>
+        <v>0.04000000000000026</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03490658503988885</v>
+        <v>-0.5602506898901796</v>
       </c>
       <c r="D38" t="n">
-        <v>0.4773585200309753</v>
+        <v>0.5072081685066223</v>
       </c>
       <c r="E38" t="n">
-        <v>0.5226414799690247</v>
+        <v>0.4927918910980225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.451141215516262</v>
+        <v>0.4510271072671094</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.06000000000000028</v>
       </c>
       <c r="C39" t="n">
-        <v>0.09773843811168489</v>
+        <v>-0.4921828490624005</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4752561748027802</v>
+        <v>0.5071549415588379</v>
       </c>
       <c r="E39" t="n">
-        <v>0.5247438549995422</v>
+        <v>0.4928451478481293</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.4511659027266401</v>
+        <v>0.4510269190412839</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.08000000000000029</v>
       </c>
       <c r="C40" t="n">
-        <v>0.09599310885969052</v>
+        <v>-0.4241150082346214</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4733967483043671</v>
+        <v>0.5069232583045959</v>
       </c>
       <c r="E40" t="n">
-        <v>0.5266032218933105</v>
+        <v>0.4930767416954041</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4511895623807555</v>
+        <v>0.4510261081530347</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.1000000000000003</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0907571211037075</v>
+        <v>-0.3560471674068424</v>
       </c>
       <c r="D41" t="n">
-        <v>0.4728206396102905</v>
+        <v>0.5062963366508484</v>
       </c>
       <c r="E41" t="n">
-        <v>0.5271793603897095</v>
+        <v>0.4937036633491516</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4511972434651891</v>
+        <v>0.4510240559989164</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.1200000000000003</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08552113334772447</v>
+        <v>-0.2879793265790633</v>
       </c>
       <c r="D42" t="n">
-        <v>0.4725653827190399</v>
+        <v>0.5049048066139221</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5274345874786377</v>
+        <v>0.4950951337814331</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.4512006975225731</v>
+        <v>0.4510201943515776</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.1500000000000002</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08028514559174145</v>
+        <v>-0.2199114857512843</v>
       </c>
       <c r="D43" t="n">
-        <v>0.4725452661514282</v>
+        <v>0.502582311630249</v>
       </c>
       <c r="E43" t="n">
-        <v>0.5274547934532166</v>
+        <v>0.4974177777767181</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4512009752027887</v>
+        <v>0.4510158943151643</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.1700000000000003</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07504915783575848</v>
+        <v>-0.1518436449235052</v>
       </c>
       <c r="D44" t="n">
-        <v>0.4725649952888489</v>
+        <v>0.5002592206001282</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5274350047111511</v>
+        <v>0.4997408092021942</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4512007041211035</v>
+        <v>0.4510142576540078</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.1900000000000003</v>
       </c>
       <c r="C45" t="n">
-        <v>0.06981317007977549</v>
+        <v>-0.08377580409572616</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4727504551410675</v>
+        <v>0.4982612729072571</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5272495150566101</v>
+        <v>0.5017387270927429</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.4511981889907742</v>
+        <v>0.4510149884263666</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.2100000000000004</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06632251157578682</v>
+        <v>-0.0157079632679471</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4729713797569275</v>
+        <v>0.4962659478187561</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5270286202430725</v>
+        <v>0.5037340521812439</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.451195218112555</v>
+        <v>0.4510176922490236</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.2300000000000004</v>
       </c>
       <c r="C47" t="n">
-        <v>0.06283185307179816</v>
+        <v>0.05235987755983194</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4733867049217224</v>
+        <v>0.4938414394855499</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5266132354736328</v>
+        <v>0.5061585903167725</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4511896935274397</v>
+        <v>0.4510236322734317</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.2600000000000005</v>
       </c>
       <c r="C48" t="n">
-        <v>0.05759586531581516</v>
+        <v>0.1204277183876107</v>
       </c>
       <c r="D48" t="n">
-        <v>0.4740703403949738</v>
+        <v>0.491186261177063</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5259296894073486</v>
+        <v>0.5088136792182922</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.4511807948298848</v>
+        <v>0.4510334726542882</v>
       </c>
       <c r="B49" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.2900000000000005</v>
       </c>
       <c r="C49" t="n">
-        <v>0.05410520681182653</v>
+        <v>0.1902408884673841</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4749284088611603</v>
+        <v>0.4884148836135864</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5250715613365173</v>
+        <v>0.5115850567817688</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4511699464673581</v>
+        <v>0.4510474723130835</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.3200000000000005</v>
       </c>
       <c r="C50" t="n">
-        <v>0.05061454830783789</v>
+        <v>0.2548180707911745</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4757062494754791</v>
+        <v>0.4855777323246002</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5242937803268433</v>
+        <v>0.5144222378730774</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.4511604333326357</v>
+        <v>0.451065747646897</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.3500000000000005</v>
       </c>
       <c r="C51" t="n">
-        <v>0.04886921905584352</v>
+        <v>0.2373647782712313</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4765253067016602</v>
+        <v>0.4827296733856201</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5234746932983398</v>
+        <v>0.5172702670097351</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.4511507367158336</v>
+        <v>0.4510881034709855</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.3800000000000006</v>
       </c>
       <c r="C52" t="n">
-        <v>0.04537856055185481</v>
+        <v>0.2234021442552767</v>
       </c>
       <c r="D52" t="n">
-        <v>0.4775957465171814</v>
+        <v>0.481226921081543</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5224041938781738</v>
+        <v>0.5187731385231018</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4511385651371114</v>
+        <v>0.4511015258766577</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.4100000000000006</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1134464013796336</v>
+        <v>0.2094395102393222</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4787553548812866</v>
+        <v>0.4799335598945618</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5212446451187134</v>
+        <v>0.5200664401054382</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4511260267165997</v>
+        <v>0.4511139679080964</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.4400000000000006</v>
       </c>
       <c r="C54" t="n">
-        <v>0.178023583703424</v>
+        <v>0.1954768762233676</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4778164327144623</v>
+        <v>0.4787664413452148</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5221835970878601</v>
+        <v>0.5212335586547852</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4511361309149691</v>
+        <v>0.4511259100380234</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.4700000000000006</v>
       </c>
       <c r="C55" t="n">
-        <v>0.2111848394913164</v>
+        <v>0.1832595714594074</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4769494831562042</v>
+        <v>0.4776034355163574</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5230505466461182</v>
+        <v>0.5223965048789978</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.4511458478560501</v>
+        <v>0.451138479784133</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.5000000000000007</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1884955592153902</v>
+        <v>0.1710422666954472</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4769047498703003</v>
+        <v>0.4764479994773865</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5230952501296997</v>
+        <v>0.5235519409179688</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4511463580570163</v>
+        <v>0.4511516349769744</v>
       </c>
       <c r="B57" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.5300000000000007</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1675516081914583</v>
+        <v>0.1605702911834813</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4784206449985504</v>
+        <v>0.4752645790576935</v>
       </c>
       <c r="E57" t="n">
-        <v>0.521579384803772</v>
+        <v>0.5247354507446289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4511295793451131</v>
+        <v>0.4511657996750553</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.5600000000000007</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1448623279155321</v>
+        <v>0.1500983156715154</v>
       </c>
       <c r="D58" t="n">
-        <v>0.480243980884552</v>
+        <v>0.4740264713764191</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5197559595108032</v>
+        <v>0.5259734988212585</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4511109028507572</v>
+        <v>0.4511813565080193</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.5900000000000007</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1186823891356172</v>
+        <v>0.1413716694115439</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4823759496212006</v>
+        <v>0.4729391038417816</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5176240205764771</v>
+        <v>0.527060866355896</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4510911621828468</v>
+        <v>0.4511956494970608</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.6200000000000008</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08901179185171368</v>
+        <v>0.1326450231515723</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4849229454994202</v>
+        <v>0.4719946384429932</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5150770545005798</v>
+        <v>0.5280053615570068</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.4510705329663259</v>
+        <v>0.4512085420682333</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.6500000000000008</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0558505360638214</v>
+        <v>0.1239183768916008</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4876947104930878</v>
+        <v>0.4711972177028656</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5123053193092346</v>
+        <v>0.5288028120994568</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.4510517368606734</v>
+        <v>0.4512197726809017</v>
       </c>
       <c r="B62" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.6800000000000008</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01919862177194049</v>
+        <v>0.1169370598836235</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4904492795467377</v>
+        <v>0.4706807136535645</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5095507502555847</v>
+        <v>0.5293192863464355</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4510368277450185</v>
+        <v>0.4512272133786652</v>
       </c>
       <c r="B63" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.7100000000000009</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.02094395102392905</v>
+        <v>0.1099557428756463</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4937372803688049</v>
+        <v>0.4701992571353912</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5062627196311951</v>
+        <v>0.5298007130622864</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4510239514566137</v>
+        <v>0.4512342684938069</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.7400000000000009</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0506145483078326</v>
+        <v>0.1029744258676691</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4971089661121368</v>
+        <v>0.4697231352329254</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5028910040855408</v>
+        <v>0.5302768349647522</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4510163082083056</v>
+        <v>0.4512413600835966</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.7700000000000009</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.04886921905583817</v>
+        <v>0.09599310885969185</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5004895329475403</v>
+        <v>0.4692276418209076</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4995104968547821</v>
+        <v>0.53077232837677</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.4510143003503082</v>
+        <v>0.4512488598750328</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.8000000000000009</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.04537856055184941</v>
+        <v>0.09075712110370883</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5028771758079529</v>
+        <v>0.4687695503234863</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4971228539943695</v>
+        <v>0.5312304496765137</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.4510162906800766</v>
+        <v>0.4512559035067124</v>
       </c>
       <c r="B67" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.830000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.04188790204786065</v>
+        <v>0.08552113334772581</v>
       </c>
       <c r="D67" t="n">
-        <v>0.5051847100257874</v>
+        <v>0.4683342278003693</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4948152601718903</v>
+        <v>0.5316657423973083</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.4510208947207629</v>
+        <v>0.4512626910996847</v>
       </c>
       <c r="B68" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.860000000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.04014257279586622</v>
+        <v>0.08028514559174278</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5075927376747131</v>
+        <v>0.4680234789848328</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4924072325229645</v>
+        <v>0.5319764614105225</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.451028513479395</v>
+        <v>0.4512675935848887</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.890000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.03839724354387179</v>
+        <v>0.07504915783575981</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5100071430206299</v>
+        <v>0.4678536951541901</v>
       </c>
       <c r="E69" t="n">
-        <v>0.4899928569793701</v>
+        <v>0.5321463346481323</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4510390370879352</v>
+        <v>0.4512702972743546</v>
       </c>
       <c r="B70" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.920000000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.03490658503988303</v>
+        <v>0.06981317007977682</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5123838782310486</v>
+        <v>0.4677693247795105</v>
       </c>
       <c r="E70" t="n">
-        <v>0.4876162111759186</v>
+        <v>0.5322306752204895</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4510522192791327</v>
+        <v>0.4512716427551194</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9500000000000011</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.0331612557878886</v>
+        <v>0.06632251157578815</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5146681070327759</v>
+        <v>0.4677231013774872</v>
       </c>
       <c r="E71" t="n">
-        <v>0.4853319823741913</v>
+        <v>0.5322768688201904</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4510675232162356</v>
+        <v>0.4512723807787017</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9800000000000011</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.03141592653589417</v>
+        <v>0.06283185307179949</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5170007348060608</v>
+        <v>0.4677147269248962</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4829992353916168</v>
+        <v>0.5322853326797485</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4510858163903454</v>
+        <v>0.4512725189390114</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.02967059728389974</v>
+        <v>0.09424777960769741</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5193670988082886</v>
+        <v>0.4677864611148834</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4806329011917114</v>
+        <v>0.532213568687439</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4511071359038252</v>
+        <v>0.4512713702760455</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.02792526803190531</v>
+        <v>0.129154364647584</v>
       </c>
       <c r="D74" t="n">
-        <v>0.521696150302887</v>
+        <v>0.4674598574638367</v>
       </c>
       <c r="E74" t="n">
-        <v>0.4783038198947906</v>
+        <v>0.5325402021408081</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4511308293934317</v>
+        <v>0.4512766159667413</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.02617993877991089</v>
+        <v>0.1343903524035671</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5239508152008057</v>
+        <v>0.4668150544166565</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4760491251945496</v>
+        <v>0.5331850051879883</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4511563302163154</v>
+        <v>0.4512871254753695</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.02443460952791646</v>
+        <v>0.1117010721276408</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5261160135269165</v>
+        <v>0.4669024646282196</v>
       </c>
       <c r="E76" t="n">
-        <v>0.4738840460777283</v>
+        <v>0.533097505569458</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4511831991660855</v>
+        <v>0.4512856845684954</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.02268928027592203</v>
+        <v>0.08726646259972029</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5282559394836426</v>
+        <v>0.4679228961467743</v>
       </c>
       <c r="E77" t="n">
-        <v>0.4717441201210022</v>
+        <v>0.5320770740509033</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4512120384948239</v>
+        <v>0.4512691925063788</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.02268928027592193</v>
+        <v>0.06283185307179964</v>
       </c>
       <c r="D78" t="n">
-        <v>0.5303046107292175</v>
+        <v>0.4692442119121552</v>
       </c>
       <c r="E78" t="n">
-        <v>0.4696952998638153</v>
+        <v>0.5307556986808777</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4512417754651807</v>
+        <v>0.4512486043921676</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.0209439510239275</v>
+        <v>0.1326450231515728</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5323770046234131</v>
+        <v>0.4707861840724945</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4676229953765869</v>
+        <v>0.5292138457298279</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4512739870744231</v>
+        <v>0.4512256842792061</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.01919862177193307</v>
+        <v>0.1570796326794935</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5343925952911377</v>
+        <v>0.4698059558868408</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4656074047088623</v>
+        <v>0.5301940441131592</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.4513073625177837</v>
+        <v>0.451240119764673</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.01919862177193297</v>
+        <v>0.1500983156715163</v>
       </c>
       <c r="D81" t="n">
-        <v>0.536387026309967</v>
+        <v>0.4698329865932465</v>
       </c>
       <c r="E81" t="n">
-        <v>0.4636130034923553</v>
+        <v>0.5301670432090759</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.4513423787794599</v>
+        <v>0.451239716600033</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.01745329251993855</v>
+        <v>0.1343903524035674</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5384054183959961</v>
+        <v>0.4706406891345978</v>
       </c>
       <c r="E82" t="n">
-        <v>0.4615946412086487</v>
+        <v>0.5293593406677246</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4513798325787172</v>
+        <v>0.4512277969492485</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.01570796326794412</v>
+        <v>0.1186823891356186</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5402964949607849</v>
+        <v>0.4720613360404968</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4597035050392151</v>
+        <v>0.5279386639595032</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.4514167636059507</v>
+        <v>0.451207617152489</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.01570796326794402</v>
+        <v>0.1117010721276413</v>
       </c>
       <c r="D84" t="n">
-        <v>0.542066752910614</v>
+        <v>0.4736234843730927</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4579331874847412</v>
+        <v>0.5263765454292297</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.451452951167559</v>
+        <v>0.4511865877532393</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.01396263401594959</v>
+        <v>0.1047197551196641</v>
       </c>
       <c r="D85" t="n">
-        <v>0.5438633561134338</v>
+        <v>0.4750899970531464</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4561367034912109</v>
+        <v>0.524910032749176</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4514912809468614</v>
+        <v>0.4511679475730455</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.01396263401594949</v>
+        <v>0.08377580409573221</v>
       </c>
       <c r="D86" t="n">
-        <v>0.5456099510192871</v>
+        <v>0.4767363667488098</v>
       </c>
       <c r="E86" t="n">
-        <v>0.4543901085853577</v>
+        <v>0.5232636332511902</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.4515300857035254</v>
+        <v>0.4511482923270779</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.01221730476395506</v>
+        <v>0.06108652381980589</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5473836660385132</v>
+        <v>0.4789328277111053</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4526163637638092</v>
+        <v>0.5210671424865723</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.4515710521816794</v>
+        <v>0.4511241649594688</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.01221730476395497</v>
+        <v>0.04188790204786826</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5491081476211548</v>
+        <v>0.4816764295101166</v>
       </c>
       <c r="E88" t="n">
-        <v>0.4508918225765228</v>
+        <v>0.5183236002922058</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.4516123889805692</v>
+        <v>0.4510973937701849</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.01221730476395487</v>
+        <v>0.02792526803191359</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5508604645729065</v>
+        <v>0.4844244420528412</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4491395354270935</v>
+        <v>0.5155755877494812</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.4516559195639326</v>
+        <v>0.4510743189259341</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.01047197551196044</v>
+        <v>0.0122173047639647</v>
       </c>
       <c r="D90" t="n">
-        <v>0.5526053905487061</v>
+        <v>0.4871698021888733</v>
       </c>
       <c r="E90" t="n">
-        <v>0.4473945796489716</v>
+        <v>0.5128301978111267</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4517007929826962</v>
+        <v>0.4510550031744591</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.01047197551196034</v>
+        <v>-0.02443460952791617</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5542969703674316</v>
+        <v>0.4897526502609253</v>
       </c>
       <c r="E91" t="n">
-        <v>0.445702999830246</v>
+        <v>0.5102474093437195</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.4517457518401788</v>
+        <v>0.4510402443204491</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.008726646259965914</v>
+        <v>-0.06806784082777437</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5560029745101929</v>
+        <v>0.4933010637760162</v>
       </c>
       <c r="E92" t="n">
-        <v>0.4439970850944519</v>
+        <v>0.5066989064216614</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.4517925496877218</v>
+        <v>0.4510253503143837</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.008726646259965817</v>
+        <v>-0.06632251157577995</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5576631426811218</v>
+        <v>0.4973708689212799</v>
       </c>
       <c r="E93" t="n">
-        <v>0.4423368573188782</v>
+        <v>0.5026291012763977</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.4518394893058432</v>
+        <v>0.4510159502388584</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.00872664625996572</v>
+        <v>-0.06283185307179118</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5593505501747131</v>
+        <v>0.4998900592327118</v>
       </c>
       <c r="E94" t="n">
-        <v>0.4406493902206421</v>
+        <v>0.5001099109649658</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4518886180192144</v>
+        <v>0.4510142417459732</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.008726646259965623</v>
+        <v>-0.03490658503988175</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5610318183898926</v>
+        <v>0.5022978186607361</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4389682114124298</v>
+        <v>0.4977022111415863</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.4519389951115698</v>
+        <v>0.4510155483290855</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.006981317007971194</v>
+        <v>-0.01221730476395534</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5627068281173706</v>
+        <v>0.5040741562843323</v>
       </c>
       <c r="E96" t="n">
-        <v>0.437293142080307</v>
+        <v>0.4959257543087006</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.4519905959425896</v>
+        <v>0.4510183464860553</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.006981317007971097</v>
+        <v>-0.001745329251989253</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5643371939659119</v>
+        <v>0.5060355067253113</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4356627762317657</v>
+        <v>0.4939645230770111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4520421798935305</v>
+        <v>0.4510232606328103</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.006981317007971</v>
+        <v>0.005235987755988172</v>
       </c>
       <c r="D98" t="n">
-        <v>0.565995454788208</v>
+        <v>0.508259654045105</v>
       </c>
       <c r="E98" t="n">
-        <v>0.434004545211792</v>
+        <v>0.4917403757572174</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.4520960216817546</v>
+        <v>0.4510311335473551</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.006981317007970902</v>
+        <v>0.0122173047639656</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5676484107971191</v>
+        <v>0.5105443596839905</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4323515594005585</v>
+        <v>0.4894556105136871</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.4521510709591733</v>
+        <v>0.4510417701072733</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.005235987755976473</v>
+        <v>0.02443460952792602</v>
       </c>
       <c r="D100" t="n">
-        <v>0.56929612159729</v>
+        <v>0.5128052234649658</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4307039082050323</v>
+        <v>0.4871947467327118</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.452207320825681</v>
+        <v>0.4510548435800528</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.005235987755976376</v>
+        <v>0.0506145483078411</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5708999633789062</v>
+        <v>0.5149460434913635</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4291000664234161</v>
+        <v>0.4850539565086365</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.4522633902466201</v>
+        <v>0.4510695587514508</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.005235987755976279</v>
+        <v>0.1117010721276426</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5725324749946594</v>
+        <v>0.5166848301887512</v>
       </c>
       <c r="E102" t="n">
-        <v>0.427467554807663</v>
+        <v>0.4833151400089264</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.4523217988959433</v>
+        <v>0.451083180496185</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.005235987755976182</v>
+        <v>0.1797689129554216</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5741605162620544</v>
+        <v>0.5173113942146301</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4258395135402679</v>
+        <v>0.4826886057853699</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4523813922225591</v>
+        <v>0.4510884577756758</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.005235987755976085</v>
+        <v>0.1692969374434557</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5757840275764465</v>
+        <v>0.5176170468330383</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4242159426212311</v>
+        <v>0.4823829531669617</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4524421572529396</v>
+        <v>0.4510911023047557</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.005235987755975988</v>
+        <v>0.09948376736368252</v>
       </c>
       <c r="D105" t="n">
-        <v>0.57740318775177</v>
+        <v>0.5198843479156494</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4225967824459076</v>
+        <v>0.4801156520843506</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.45250409326037</v>
+        <v>0.4511121656533138</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.003490658503981559</v>
+        <v>0.02967059728390933</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5790178775787354</v>
+        <v>0.5239500403404236</v>
       </c>
       <c r="E106" t="n">
-        <v>0.4209822118282318</v>
+        <v>0.476049929857254</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.4525671871574155</v>
+        <v>0.4511563219697896</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.003490658503981461</v>
+        <v>-0.04014257279586385</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5805898308753967</v>
+        <v>0.5283688902854919</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4194101691246033</v>
+        <v>0.4716311097145081</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4526298819998134</v>
+        <v>0.4512136220873199</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.003490658503981364</v>
+        <v>-0.109955742875637</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5821909308433533</v>
+        <v>0.53254634141922</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4178090691566467</v>
+        <v>0.4674536883831024</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4526950346849234</v>
+        <v>0.4512767141703263</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.003490658503981267</v>
+        <v>-0.1117010721276313</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5837884545326233</v>
+        <v>0.5369084477424622</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4162115454673767</v>
+        <v>0.4630915522575378</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.4527613446868075</v>
+        <v>0.451351858921485</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.00349065850398117</v>
+        <v>-0.1047197551196538</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5853822827339172</v>
+        <v>0.5397548675537109</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4146177470684052</v>
+        <v>0.4602451324462891</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.4528288001229341</v>
+        <v>0.451406003439917</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.003490658503981073</v>
+        <v>-0.09948376736367071</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5869724750518799</v>
+        <v>0.542148232460022</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4130275547504425</v>
+        <v>0.4578516781330109</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.4528973952013621</v>
+        <v>0.4514546536742062</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.003490658503980976</v>
+        <v>-0.09250245035569327</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5885589122772217</v>
+        <v>0.5445058941841125</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4114410281181335</v>
+        <v>0.4554941356182098</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.4529671165373557</v>
+        <v>0.4515053785059419</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.003490658503980879</v>
+        <v>-0.08726646259971016</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5901415944099426</v>
+        <v>0.5467675924301147</v>
       </c>
       <c r="E113" t="n">
-        <v>0.409858375787735</v>
+        <v>0.4532324075698853</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.4530379594790484</v>
+        <v>0.4515566437966179</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.003490658503980781</v>
+        <v>-0.08203047484372705</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5917207002639771</v>
+        <v>0.5490134358406067</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4082793593406677</v>
+        <v>0.4509865641593933</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.4531099237657691</v>
+        <v>0.4516100807446117</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.003490658503980684</v>
+        <v>-0.07853981633973828</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5932958722114563</v>
+        <v>0.5512087941169739</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4067041277885437</v>
+        <v>0.4487912058830261</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.453182982909066</v>
+        <v>0.4516647556906774</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.001745329251986255</v>
+        <v>-0.07330382858375517</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5948672890663147</v>
+        <v>0.5533977746963501</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4051326811313629</v>
+        <v>0.4466022849082947</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4532571398553727</v>
+        <v>0.4517216765352816</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.001745329251986158</v>
+        <v>-0.0698131700797664</v>
       </c>
       <c r="D117" t="n">
-        <v>0.5963972210884094</v>
+        <v>0.555473268032074</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4036028683185577</v>
+        <v>0.4445267021656036</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.4533305625872527</v>
+        <v>0.4517778614107889</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.001745329251986061</v>
+        <v>-0.06457718232378329</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5979565978050232</v>
+        <v>0.5574749112129211</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4020434319972992</v>
+        <v>0.4425251185894012</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.4534066383682695</v>
+        <v>0.4518340981994792</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.001745329251985964</v>
+        <v>-0.05235987755982285</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5995057225227356</v>
+        <v>0.5594027638435364</v>
       </c>
       <c r="E119" t="n">
-        <v>0.400494247674942</v>
+        <v>0.4405972361564636</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4534834572806956</v>
+        <v>0.4518901624172287</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.001745329251985867</v>
+        <v>-0.04537856055184543</v>
       </c>
       <c r="D120" t="n">
-        <v>0.601003885269165</v>
+        <v>0.5611262321472168</v>
       </c>
       <c r="E120" t="n">
-        <v>0.398996114730835</v>
+        <v>0.4388737678527832</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4535589302355298</v>
+        <v>0.4519418655091321</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.001745329251985769</v>
+        <v>-0.05585053606381132</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6024919152259827</v>
+        <v>0.5628290176391602</v>
       </c>
       <c r="E121" t="n">
-        <v>0.3975080847740173</v>
+        <v>0.4371709823608398</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4536350427188758</v>
+        <v>0.4519944161689903</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.001745329251985672</v>
+        <v>-0.05235987755982258</v>
       </c>
       <c r="D122" t="n">
-        <v>0.603977382183075</v>
+        <v>0.5648667812347412</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3960226476192474</v>
+        <v>0.435133308172226</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.4537121693535784</v>
+        <v>0.452059226524827</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.001745329251985575</v>
+        <v>-0.05061454830782815</v>
       </c>
       <c r="D123" t="n">
-        <v>0.605460524559021</v>
+        <v>0.5666153430938721</v>
       </c>
       <c r="E123" t="n">
-        <v>0.394539475440979</v>
+        <v>0.4333846867084503</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4537903176110606</v>
+        <v>0.4521165053373012</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.001745329251985478</v>
+        <v>-0.04712388980383939</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6069409847259521</v>
+        <v>0.5683740973472595</v>
       </c>
       <c r="E124" t="n">
-        <v>0.3930590450763702</v>
+        <v>0.4316258728504181</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4538694655003342</v>
+        <v>0.4521756750127093</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.001745329251985381</v>
+        <v>-0.04363323129985062</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6084192991256714</v>
+        <v>0.5700724124908447</v>
       </c>
       <c r="E125" t="n">
-        <v>0.3915806710720062</v>
+        <v>0.4299276173114777</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4539496364818739</v>
+        <v>0.4522342970450425</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.001745329251985284</v>
+        <v>-0.0418879020478562</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6098970174789429</v>
+        <v>0.5717434287071228</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3901029527187347</v>
+        <v>0.4282565414905548</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.454030914256502</v>
+        <v>0.4522933984656711</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.001745329251985187</v>
+        <v>-0.04014257279586177</v>
       </c>
       <c r="D127" t="n">
-        <v>0.6113804578781128</v>
+        <v>0.5734266042709351</v>
       </c>
       <c r="E127" t="n">
-        <v>0.3886195421218872</v>
+        <v>0.4265733957290649</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4541136536295567</v>
+        <v>0.4523543610240268</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.001745329251985089</v>
+        <v>-0.03839724354386734</v>
       </c>
       <c r="D128" t="n">
-        <v>0.6128634214401245</v>
+        <v>0.5750899910926819</v>
       </c>
       <c r="E128" t="n">
-        <v>0.3871365785598755</v>
+        <v>0.4249099791049957</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4541975162045047</v>
+        <v>0.4524160166221531</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.001745329251984992</v>
+        <v>-0.03490658503987858</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6143437027931213</v>
+        <v>0.5767338871955872</v>
       </c>
       <c r="E129" t="n">
-        <v>0.385656327009201</v>
+        <v>0.4232660830020905</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4542823756895175</v>
+        <v>0.4524783297522529</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.001745329251984895</v>
+        <v>-0.03316125578788415</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6158194541931152</v>
+        <v>0.5783329010009766</v>
       </c>
       <c r="E130" t="n">
-        <v>0.3841804563999176</v>
+        <v>0.4216670989990234</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4543681184938563</v>
+        <v>0.4525402591794734</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.001745329251984798</v>
+        <v>-0.03141592653588972</v>
       </c>
       <c r="D131" t="n">
-        <v>0.6172876358032227</v>
+        <v>0.5799530744552612</v>
       </c>
       <c r="E131" t="n">
-        <v>0.3827123641967773</v>
+        <v>0.4200469255447388</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4544545576508418</v>
+        <v>0.4526043338054088</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.001745329251984701</v>
+        <v>-0.02967059728389529</v>
       </c>
       <c r="D132" t="n">
-        <v>0.6187494397163391</v>
+        <v>0.5815563201904297</v>
       </c>
       <c r="E132" t="n">
-        <v>0.3812504708766937</v>
+        <v>0.4184436798095703</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4545417469241566</v>
+        <v>0.4526690545225869</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.001745329251984604</v>
+        <v>-0.02792526803190086</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6202087998390198</v>
+        <v>0.5831376910209656</v>
       </c>
       <c r="E133" t="n">
-        <v>0.3797912001609802</v>
+        <v>0.416862279176712</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4546299141761906</v>
+        <v>0.4527341751528212</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.001745329251984507</v>
+        <v>-0.02792526803190076</v>
       </c>
       <c r="D134" t="n">
-        <v>0.6216654181480408</v>
+        <v>0.5847024917602539</v>
       </c>
       <c r="E134" t="n">
-        <v>0.3783345520496368</v>
+        <v>0.4152975082397461</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4547190358863837</v>
+        <v>0.4527998704358607</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9300000000000008</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.07155849933175769</v>
+        <v>-0.02617993877990633</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6234098672866821</v>
+        <v>0.5862900614738464</v>
       </c>
       <c r="E135" t="n">
-        <v>0.3765901625156403</v>
+        <v>0.4137099385261536</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4548272442871334</v>
+        <v>0.4528677995260226</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9600000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.1413716694115309</v>
+        <v>-0.0244346095279119</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6264721155166626</v>
+        <v>0.58782958984375</v>
       </c>
       <c r="E136" t="n">
-        <v>0.3735279142856598</v>
+        <v>0.41217041015625</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.455021094529735</v>
+        <v>0.452934904202878</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.2076941809873154</v>
+        <v>-0.02268928027591748</v>
       </c>
       <c r="D137" t="n">
-        <v>0.6290900111198425</v>
+        <v>0.5893539786338806</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3709099888801575</v>
+        <v>0.4106460511684418</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.4551907657017114</v>
+        <v>0.4530025452495465</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.190240888467372</v>
+        <v>-0.02094395102392305</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6318387389183044</v>
+        <v>0.5908636450767517</v>
       </c>
       <c r="E138" t="n">
-        <v>0.3681613206863403</v>
+        <v>0.4091363251209259</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.4553728475958062</v>
+        <v>0.4530707059946815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.1518436449234966</v>
+        <v>-0.02094395102392295</v>
       </c>
       <c r="D139" t="n">
-        <v>0.633419930934906</v>
+        <v>0.5923590660095215</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3665800392627716</v>
+        <v>0.4076408743858337</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0.4554794188360446</v>
+        <v>0.4531393773517129</v>
       </c>
       <c r="B140" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C140" t="n">
-        <v>-0.09075712110369483</v>
+        <v>-0.01919862177192852</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6344858407974243</v>
+        <v>0.5938788056373596</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3655142486095428</v>
+        <v>0.4061212539672852</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0.4555520159507763</v>
+        <v>0.453210344792826</v>
       </c>
       <c r="B141" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C141" t="n">
-        <v>-0.02268928027591577</v>
+        <v>-0.01919862177192842</v>
       </c>
       <c r="D141" t="n">
-        <v>0.6349881887435913</v>
+        <v>0.5953526496887207</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3650117814540863</v>
+        <v>0.4046473205089569</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0.4555864413111677</v>
+        <v>0.4532803016648081</v>
       </c>
       <c r="B142" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C142" t="n">
-        <v>0.04537856055186328</v>
+        <v>-0.01745329251993399</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6354348659515381</v>
+        <v>0.5969029068946838</v>
       </c>
       <c r="E142" t="n">
-        <v>0.3645651638507843</v>
+        <v>0.4030970633029938</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>0.455617165226519</v>
+        <v>0.453355094384322</v>
       </c>
       <c r="B143" t="n">
-        <v>0.9900000000000009</v>
+        <v>0.9900000000000011</v>
       </c>
       <c r="C143" t="n">
-        <v>0.113446401379642</v>
+        <v>-0.0174532925199339</v>
       </c>
       <c r="D143" t="n">
-        <v>0.6354732513427734</v>
+        <v>0.5984262824058533</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3645267188549042</v>
+        <v>0.4015737175941467</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.4534297982616129</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C144" t="n">
+        <v>-0.01570796326793947</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.599962055683136</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.4000379145145416</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.4535063229084855</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C145" t="n">
+        <v>-0.01570796326793937</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.601422905921936</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0.3985770344734192</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.4535802464559864</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C146" t="n">
+        <v>-0.01396263401594494</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.6028497219085693</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.3971502780914307</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.4536535156137475</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C147" t="n">
+        <v>-0.01396263401594484</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.6042329072952271</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0.3957671225070953</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.453725551804222</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C148" t="n">
+        <v>-0.01396263401594475</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.6056394577026367</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.3943605720996857</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.453799823339167</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C149" t="n">
+        <v>-0.01221730476395032</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.6070394515991211</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.3929605782032013</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.4538747701384931</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C150" t="n">
+        <v>-0.01221730476395022</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.6083966493606567</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.3916033804416656</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.4539484000187163</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C151" t="n">
+        <v>-0.01221730476395012</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.6097777485847473</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.3902222812175751</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.4540243123676295</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C152" t="n">
+        <v>-0.01047197551195569</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.6111526489257812</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.3888473808765411</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.4541008730129579</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C153" t="n">
+        <v>-0.0104719755119556</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.6124857068061829</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.3875142335891724</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.4541760465772243</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C154" t="n">
+        <v>-0.0104719755119555</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.6138432025909424</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0.3861568570137024</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.4542535554679155</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C155" t="n">
+        <v>-0.08028514559172868</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.6152002811431885</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0.3847997486591339</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.4543320050432665</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C156" t="n">
+        <v>-0.1500983156715019</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.6179693937301636</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.3820306062698364</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.4544950813034676</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.2129301687432977</v>
+      </c>
+      <c r="D157" t="n">
+        <v>0.6209298968315125</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0.3790700733661652</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.454673893662875</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C158" t="n">
+        <v>-0.2076941809873146</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.6239555478096008</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.3760444819927216</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.4548614235684553</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C159" t="n">
+        <v>-0.2024581932313315</v>
+      </c>
+      <c r="D159" t="n">
+        <v>0.6256669163703918</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0.3743331134319305</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.4549696406921627</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C160" t="n">
+        <v>-0.1954768762233541</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.6272651553153992</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.3727347552776337</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.4550721078969852</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C161" t="n">
+        <v>-0.2024581932313313</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0.6287291646003723</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.3712707459926605</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.4551671616082731</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C162" t="n">
+        <v>-0.1937315469713595</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0.6303852200508118</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.3696147799491882</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.4552760607709481</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C163" t="n">
+        <v>-0.1570796326794784</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0.6316285133361816</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.3683714270591736</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.4553587792621798</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C164" t="n">
+        <v>-0.129154364647569</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0.6321567296981812</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.3678432703018188</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.4553941724742702</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C165" t="n">
+        <v>-0.1047197551196483</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0.6328749656677246</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0.3671251237392426</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.4554425373920485</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C166" t="n">
+        <v>-0.0366519142918692</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.6336667537689209</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.3663332164287567</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.4554961753154695</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.03141592653590984</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0.6335448026657104</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0.3664551675319672</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.4554878921349417</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.09948376736368889</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0.6328729391098022</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.3671270310878754</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.455442400568571</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.1692969374434622</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0.6320126056671143</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.3679873943328857</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.4553845006246905</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.2373647782712413</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.6310272216796875</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.3689727485179901</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.4553186711612878</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.3054326190990204</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.6299613118171692</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.3700386881828308</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.4552480460859314</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.3735004599267994</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.6287456750869751</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.3712542653083801</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.4551682401255943</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.4415683007545785</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.6275631785392761</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0.3724368810653687</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.4550913654086653</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9900000000000011</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.5113814708343518</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0.6261332631111145</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0.3738666772842407</v>
       </c>
     </row>
   </sheetData>

--- a/datos_robot.xlsx
+++ b/datos_robot.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E174"/>
+  <dimension ref="A1:E139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,7 +677,7 @@
         <v>0.2900000000000003</v>
       </c>
       <c r="C15" t="n">
-        <v>0.03490658503988654</v>
+        <v>0.03665191429188087</v>
       </c>
       <c r="D15" t="n">
         <v>0.5008674263954163</v>
@@ -697,15 +697,15 @@
         <v>0.03316125578789231</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4995778799057007</v>
+        <v>0.4995753467082977</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5004221200942993</v>
+        <v>0.5004246830940247</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.4510142840049635</v>
+        <v>0.4510142856713535</v>
       </c>
       <c r="B17" t="n">
         <v>0.3500000000000003</v>
@@ -714,15 +714,15 @@
         <v>0.03141592653589807</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4985890090465546</v>
+        <v>0.4985844194889069</v>
       </c>
       <c r="E17" t="n">
-        <v>0.5014110803604126</v>
+        <v>0.5014155507087708</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.4510147362610209</v>
+        <v>0.45101473490288</v>
       </c>
       <c r="B18" t="n">
         <v>0.3800000000000003</v>
@@ -731,2662 +731,2067 @@
         <v>0.02967059728390384</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4974085986614227</v>
+        <v>0.4974037706851959</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5025914311408997</v>
+        <v>0.5025962591171265</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.4510159037714099</v>
+        <v>0.4510159099728446</v>
       </c>
       <c r="B19" t="n">
         <v>0.4100000000000004</v>
       </c>
       <c r="C19" t="n">
-        <v>0.02617993877991527</v>
+        <v>0.09773843811168288</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4957544803619385</v>
+        <v>0.4957526326179504</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5042455792427063</v>
+        <v>0.5042473077774048</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4510187051281668</v>
+        <v>0.4510187043603882</v>
       </c>
       <c r="B20" t="n">
         <v>0.4400000000000004</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02443460952792104</v>
+        <v>0.1658062789394616</v>
       </c>
       <c r="D20" t="n">
-        <v>0.494123250246048</v>
+        <v>0.4937921166419983</v>
       </c>
       <c r="E20" t="n">
-        <v>0.5058767199516296</v>
+        <v>0.5062078833580017</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.4510227900960095</v>
+        <v>0.4510237821277914</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4100000000000004</v>
+        <v>0.4700000000000004</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0226892802759268</v>
+        <v>0.1780235837034221</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4925061464309692</v>
+        <v>0.4912985861301422</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5074938535690308</v>
+        <v>0.5087013840675354</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.4510281451487669</v>
+        <v>0.4510329866720201</v>
       </c>
       <c r="B22" t="n">
-        <v>0.3800000000000003</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0226892802759269</v>
+        <v>0.1553343034274959</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4926078915596008</v>
+        <v>0.4889141619205475</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5073921084403992</v>
+        <v>0.5110858082771301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.451027770109876</v>
+        <v>0.4510446703999882</v>
       </c>
       <c r="B23" t="n">
-        <v>0.3500000000000003</v>
+        <v>0.5300000000000005</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02094395102393266</v>
+        <v>0.14486232791553</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4928515255451202</v>
+        <v>0.4873932301998138</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5071483850479126</v>
+        <v>0.5126067399978638</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.4510268893456664</v>
+        <v>0.4510535944294563</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3200000000000003</v>
+        <v>0.5600000000000005</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01919862177193843</v>
+        <v>0.1343903524035641</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4928892254829407</v>
+        <v>0.4855177104473114</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5071107745170593</v>
+        <v>0.5144822597503662</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.4510267597863182</v>
+        <v>0.4510661773383046</v>
       </c>
       <c r="B25" t="n">
-        <v>0.2900000000000003</v>
+        <v>0.5900000000000005</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01745329251994419</v>
+        <v>0.1099557428756436</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4928946197032928</v>
+        <v>0.4840269088745117</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5071053504943848</v>
+        <v>0.5159730911254883</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.4510267396134794</v>
+        <v>0.4510774241010423</v>
       </c>
       <c r="B26" t="n">
-        <v>0.2600000000000002</v>
+        <v>0.6200000000000006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01745329251994429</v>
+        <v>0.1047197551196607</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4930657148361206</v>
+        <v>0.4827322959899902</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5069342851638794</v>
+        <v>0.5172677636146545</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.4510261459902581</v>
+        <v>0.4510880860636978</v>
       </c>
       <c r="B27" t="n">
-        <v>0.2300000000000002</v>
+        <v>0.6500000000000006</v>
       </c>
       <c r="C27" t="n">
-        <v>0.01570796326795006</v>
+        <v>0.08552113334772311</v>
       </c>
       <c r="D27" t="n">
-        <v>0.4933870434761047</v>
+        <v>0.4818565249443054</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5066129565238953</v>
+        <v>0.5181434750556946</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.4510250680860012</v>
+        <v>0.4510957656032422</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2000000000000002</v>
+        <v>0.6800000000000006</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01396263401595582</v>
+        <v>0.07504915783575711</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4936817288398743</v>
+        <v>0.4815615713596344</v>
       </c>
       <c r="E28" t="n">
-        <v>0.5063182711601257</v>
+        <v>0.518438458442688</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.4510241245126665</v>
+        <v>0.4510984397486357</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1700000000000002</v>
+        <v>0.7100000000000006</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01396263401595592</v>
+        <v>0.06457718232379112</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4940035045146942</v>
+        <v>0.4813386201858521</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5059965252876282</v>
+        <v>0.5186613798141479</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.4510231444960852</v>
+        <v>0.4511004875055702</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1400000000000002</v>
+        <v>0.7400000000000007</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01221730476396168</v>
+        <v>0.04712388980384782</v>
       </c>
       <c r="D30" t="n">
-        <v>0.4944553971290588</v>
+        <v>0.4812956154346466</v>
       </c>
       <c r="E30" t="n">
-        <v>0.5055446028709412</v>
+        <v>0.5187044143676758</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.4510218519387772</v>
+        <v>0.4511008868426001</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1100000000000002</v>
+        <v>0.7700000000000007</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01221730476396178</v>
+        <v>0.04188790204786479</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4950520098209381</v>
+        <v>0.4810875058174133</v>
       </c>
       <c r="E31" t="n">
-        <v>0.5049479007720947</v>
+        <v>0.5189124345779419</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.4510202983900934</v>
+        <v>0.451102822342219</v>
       </c>
       <c r="B32" t="n">
-        <v>0.08000000000000024</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01047197551196755</v>
+        <v>0.01745329251994415</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4956724345684052</v>
+        <v>0.48060342669487</v>
       </c>
       <c r="E32" t="n">
-        <v>0.5043275952339172</v>
+        <v>0.5193966031074524</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.4510188781285508</v>
+        <v>0.4511074202219588</v>
       </c>
       <c r="B33" t="n">
-        <v>0.05000000000000024</v>
+        <v>0.8300000000000007</v>
       </c>
       <c r="C33" t="n">
-        <v>0.01047197551196764</v>
+        <v>0.01221730476396125</v>
       </c>
       <c r="D33" t="n">
-        <v>0.4963443577289581</v>
+        <v>0.4807473123073578</v>
       </c>
       <c r="E33" t="n">
-        <v>0.5036556124687195</v>
+        <v>0.5192526578903198</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.4510175476212696</v>
+        <v>0.4511060400173907</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02000000000000024</v>
+        <v>0.8600000000000008</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01047197551196774</v>
+        <v>-0.006981317007976301</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4970236122608185</v>
+        <v>0.4804940521717072</v>
       </c>
       <c r="E34" t="n">
-        <v>0.5029763579368591</v>
+        <v>0.5195058584213257</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.4510164322092268</v>
+        <v>0.4511084692261689</v>
       </c>
       <c r="B35" t="n">
-        <v>2.411265631607762e-16</v>
+        <v>0.8900000000000008</v>
       </c>
       <c r="C35" t="n">
-        <v>0.008726646259973506</v>
+        <v>-0.02443460952791952</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4978299140930176</v>
+        <v>0.4807631373405457</v>
       </c>
       <c r="E35" t="n">
-        <v>0.5021700263023376</v>
+        <v>0.5192368626594543</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.451015403611691</v>
+        <v>0.4511058903959615</v>
       </c>
       <c r="B36" t="n">
-        <v>2.498001805406602e-16</v>
+        <v>0.9200000000000008</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.6981317007977318</v>
+        <v>-0.03141592653589675</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4983841478824615</v>
+        <v>0.4810732901096344</v>
       </c>
       <c r="E36" t="n">
-        <v>0.5016158223152161</v>
+        <v>0.5189266800880432</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.4510148852225499</v>
+        <v>0.4511029568665713</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02000000000000026</v>
+        <v>0.9500000000000008</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.6300638599699528</v>
+        <v>-0.06283185307179463</v>
       </c>
       <c r="D37" t="n">
-        <v>0.507582426071167</v>
+        <v>0.4815066456794739</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4924175441265106</v>
+        <v>0.5184932947158813</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4510284747315475</v>
+        <v>0.4510989384540024</v>
       </c>
       <c r="B38" t="n">
-        <v>0.04000000000000026</v>
+        <v>0.9800000000000009</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.5602506898901796</v>
+        <v>-0.06981317007977186</v>
       </c>
       <c r="D38" t="n">
-        <v>0.5072081685066223</v>
+        <v>0.4833098351955414</v>
       </c>
       <c r="E38" t="n">
-        <v>0.4927918910980225</v>
+        <v>0.5166901350021362</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.4510271072671094</v>
+        <v>0.4510832243508541</v>
       </c>
       <c r="B39" t="n">
-        <v>0.06000000000000028</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.4921828490624005</v>
+        <v>-0.06632251157578312</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5071549415588379</v>
+        <v>0.4847038686275482</v>
       </c>
       <c r="E39" t="n">
-        <v>0.4928451478481293</v>
+        <v>0.5152961015701294</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.4510269190412839</v>
+        <v>0.4510721798156622</v>
       </c>
       <c r="B40" t="n">
-        <v>0.08000000000000029</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.4241150082346214</v>
+        <v>-0.06283185307179434</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5069232583045959</v>
+        <v>0.485859602689743</v>
       </c>
       <c r="E40" t="n">
-        <v>0.4930767416954041</v>
+        <v>0.5141403675079346</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.4510261081530347</v>
+        <v>0.4510637536436144</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1000000000000003</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.3560471674068424</v>
+        <v>-0.05759586531581123</v>
       </c>
       <c r="D41" t="n">
-        <v>0.5062963366508484</v>
+        <v>0.4871366322040558</v>
       </c>
       <c r="E41" t="n">
-        <v>0.4937036633491516</v>
+        <v>0.5128633975982666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.4510240559989164</v>
+        <v>0.4510552154689274</v>
       </c>
       <c r="B42" t="n">
-        <v>0.1200000000000003</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.2879793265790633</v>
+        <v>-0.05410520681182246</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5049048066139221</v>
+        <v>0.4884103834629059</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4950951337814331</v>
+        <v>0.5115895867347717</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.4510201943515776</v>
+        <v>0.4510474993568795</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1500000000000002</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.2199114857512843</v>
+        <v>-0.09250245035569767</v>
       </c>
       <c r="D43" t="n">
-        <v>0.502582311630249</v>
+        <v>0.4899987578392029</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4974177777767181</v>
+        <v>0.5100011825561523</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.4510158943151643</v>
+        <v>0.4510390054399374</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1700000000000003</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.1518436449235052</v>
+        <v>-0.1117010721276352</v>
       </c>
       <c r="D44" t="n">
-        <v>0.5002592206001282</v>
+        <v>0.4930697977542877</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4997408092021942</v>
+        <v>0.5069301128387451</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.4510142576540078</v>
+        <v>0.4510261284244292</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1900000000000003</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.08377580409572616</v>
+        <v>-0.1291543646475785</v>
       </c>
       <c r="D45" t="n">
-        <v>0.4982612729072571</v>
+        <v>0.4959684312343597</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5017387270927429</v>
+        <v>0.5040315389633179</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.4510149884263666</v>
+        <v>0.4510182631558168</v>
       </c>
       <c r="B46" t="n">
-        <v>0.2100000000000004</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.0157079632679471</v>
+        <v>-0.153588974175499</v>
       </c>
       <c r="D46" t="n">
-        <v>0.4962659478187561</v>
+        <v>0.4989133775234222</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5037340521812439</v>
+        <v>0.5010867118835449</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.4510176922490236</v>
+        <v>0.4510145356606693</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2300000000000004</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C47" t="n">
-        <v>0.05235987755983194</v>
+        <v>-0.1483529864195159</v>
       </c>
       <c r="D47" t="n">
-        <v>0.4938414394855499</v>
+        <v>0.5020708441734314</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5061585903167725</v>
+        <v>0.4979290962219238</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.4510236322734317</v>
+        <v>0.4510152994642284</v>
       </c>
       <c r="B48" t="n">
-        <v>0.2600000000000005</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C48" t="n">
-        <v>0.1204277183876107</v>
+        <v>-0.08028514559173683</v>
       </c>
       <c r="D48" t="n">
-        <v>0.491186261177063</v>
+        <v>0.5041415095329285</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5088136792182922</v>
+        <v>0.4958584904670715</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.4510334726542882</v>
+        <v>0.4510184868053604</v>
       </c>
       <c r="B49" t="n">
-        <v>0.2900000000000005</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1902408884673841</v>
+        <v>-0.01221730476395777</v>
       </c>
       <c r="D49" t="n">
-        <v>0.4884148836135864</v>
+        <v>0.5039368271827698</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5115850567817688</v>
+        <v>0.4960631728172302</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.4510474723130835</v>
+        <v>0.451018077390287</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3200000000000005</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2548180707911745</v>
+        <v>-0.001745329251991681</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4855777323246002</v>
+        <v>0.5033673048019409</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5144222378730774</v>
+        <v>0.4966327250003815</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.451065747646897</v>
+        <v>0.4510170484930939</v>
       </c>
       <c r="B51" t="n">
-        <v>0.3500000000000005</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2373647782712313</v>
+        <v>-0.001745329251991584</v>
       </c>
       <c r="D51" t="n">
-        <v>0.4827296733856201</v>
+        <v>0.504502534866333</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5172702670097351</v>
+        <v>0.495497465133667</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.4510881034709855</v>
+        <v>0.4510192595173173</v>
       </c>
       <c r="B52" t="n">
-        <v>0.3800000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C52" t="n">
-        <v>0.2234021442552767</v>
+        <v>-0.001745329251991487</v>
       </c>
       <c r="D52" t="n">
-        <v>0.481226921081543</v>
+        <v>0.5060304999351501</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5187731385231018</v>
+        <v>0.4939695596694946</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.4511015258766577</v>
+        <v>0.4510232467614202</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4100000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2094395102393222</v>
+        <v>-0.00174532925199139</v>
       </c>
       <c r="D53" t="n">
-        <v>0.4799335598945618</v>
+        <v>0.5075230598449707</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5200664401054382</v>
+        <v>0.4924768805503845</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.4511139679080964</v>
+        <v>0.451028251599693</v>
       </c>
       <c r="B54" t="n">
-        <v>0.4400000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1954768762233676</v>
+        <v>-0.001745329251991293</v>
       </c>
       <c r="D54" t="n">
-        <v>0.4787664413452148</v>
+        <v>0.5089399814605713</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5212335586547852</v>
+        <v>0.4910600185394287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.4511259100380234</v>
+        <v>0.4510340300510791</v>
       </c>
       <c r="B55" t="n">
-        <v>0.4700000000000006</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C55" t="n">
-        <v>0.1832595714594074</v>
+        <v>3.136380044566067e-15</v>
       </c>
       <c r="D55" t="n">
-        <v>0.4776034355163574</v>
+        <v>0.5102442502975464</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5223965048789978</v>
+        <v>0.4897557497024536</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.451138479784133</v>
+        <v>0.451040226178346</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5000000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1710422666954472</v>
+        <v>3.233524559220768e-15</v>
       </c>
       <c r="D56" t="n">
-        <v>0.4764479994773865</v>
+        <v>0.5113388299942017</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5235519409179688</v>
+        <v>0.4886610805988312</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.4511516349769744</v>
+        <v>0.4510460734246959</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5300000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1605702911834813</v>
+        <v>-0.001745329251991001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4752645790576935</v>
+        <v>0.512476921081543</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5247354507446289</v>
+        <v>0.4875231087207794</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.4511657996750553</v>
+        <v>0.4510527900552178</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5600000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C58" t="n">
-        <v>0.1500983156715154</v>
+        <v>3.427813588530171e-15</v>
       </c>
       <c r="D58" t="n">
-        <v>0.4740264713764191</v>
+        <v>0.5136260390281677</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5259734988212585</v>
+        <v>0.4863739907741547</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.4511813565080193</v>
+        <v>0.4510602187293788</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5900000000000007</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C59" t="n">
-        <v>0.1413716694115439</v>
+        <v>3.524958103184872e-15</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4729391038417816</v>
+        <v>0.5146426558494568</v>
       </c>
       <c r="E59" t="n">
-        <v>0.527060866355896</v>
+        <v>0.4853573143482208</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.4511956494970608</v>
+        <v>0.4510673343616862</v>
       </c>
       <c r="B60" t="n">
-        <v>0.6200000000000008</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1326450231515723</v>
+        <v>3.622102617839573e-15</v>
       </c>
       <c r="D60" t="n">
-        <v>0.4719946384429932</v>
+        <v>0.5157139897346497</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5280053615570068</v>
+        <v>0.4842860102653503</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.4512085420682333</v>
+        <v>0.4510753905296983</v>
       </c>
       <c r="B61" t="n">
-        <v>0.6500000000000008</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1239183768916008</v>
+        <v>3.719247132494274e-15</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4711972177028656</v>
+        <v>0.5168290734291077</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5288028120994568</v>
+        <v>0.4831709563732147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.4512197726809017</v>
+        <v>0.4510843799288033</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6800000000000008</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C62" t="n">
-        <v>0.1169370598836235</v>
+        <v>3.816391647148976e-15</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4706807136535645</v>
+        <v>0.5181296467781067</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5293192863464355</v>
+        <v>0.4818702936172485</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.4512272133786652</v>
+        <v>0.4510956393578376</v>
       </c>
       <c r="B63" t="n">
-        <v>0.7100000000000009</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1099557428756463</v>
+        <v>3.913536161803677e-15</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4701992571353912</v>
+        <v>0.5194737911224365</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5298007130622864</v>
+        <v>0.4805262684822083</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.4512342684938069</v>
+        <v>0.4511081644914859</v>
       </c>
       <c r="B64" t="n">
-        <v>0.7400000000000009</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1029744258676691</v>
+        <v>4.010680676458378e-15</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4697231352329254</v>
+        <v>0.520843505859375</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5302768349647522</v>
+        <v>0.4791564643383026</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.4512413600835966</v>
+        <v>0.4511218427995809</v>
       </c>
       <c r="B65" t="n">
-        <v>0.7700000000000009</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C65" t="n">
-        <v>0.09599310885969185</v>
+        <v>4.107825191113079e-15</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4692276418209076</v>
+        <v>0.5222129225730896</v>
       </c>
       <c r="E65" t="n">
-        <v>0.53077232837677</v>
+        <v>0.4777870774269104</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.4512488598750328</v>
+        <v>0.4511364525410297</v>
       </c>
       <c r="B66" t="n">
-        <v>0.8000000000000009</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C66" t="n">
-        <v>0.09075712110370883</v>
+        <v>4.20496970576778e-15</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4687695503234863</v>
+        <v>0.5237057209014893</v>
       </c>
       <c r="E66" t="n">
-        <v>0.5312304496765137</v>
+        <v>0.4762942492961884</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.4512559035067124</v>
+        <v>0.4511534367540753</v>
       </c>
       <c r="B67" t="n">
-        <v>0.830000000000001</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08552113334772581</v>
+        <v>4.302114220422482e-15</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4683342278003693</v>
+        <v>0.5252236127853394</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5316657423973083</v>
+        <v>0.4747764468193054</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.4512626910996847</v>
+        <v>0.4511718445211835</v>
       </c>
       <c r="B68" t="n">
-        <v>0.860000000000001</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08028514559174278</v>
+        <v>4.399258735077183e-15</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4680234789848328</v>
+        <v>0.5267409682273865</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5319764614105225</v>
+        <v>0.4732590317726135</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.4512675935848887</v>
+        <v>0.4511913845261346</v>
       </c>
       <c r="B69" t="n">
-        <v>0.890000000000001</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C69" t="n">
-        <v>0.07504915783575981</v>
+        <v>4.496403249731884e-15</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4678536951541901</v>
+        <v>0.5282720923423767</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5321463346481323</v>
+        <v>0.4717279374599457</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.4512702972743546</v>
+        <v>0.4512122639173407</v>
       </c>
       <c r="B70" t="n">
-        <v>0.920000000000001</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C70" t="n">
-        <v>0.06981317007977682</v>
+        <v>-0.001745329251989738</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4677693247795105</v>
+        <v>0.5298027396202087</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5322306752204895</v>
+        <v>0.4701973497867584</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.4512716427551194</v>
+        <v>0.4512343020614481</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9500000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C71" t="n">
-        <v>0.06632251157578815</v>
+        <v>4.690692279041286e-15</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4677231013774872</v>
+        <v>0.5313767790794373</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5322768688201904</v>
+        <v>0.4686232805252075</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.4512723807787017</v>
+        <v>0.451258176817476</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9800000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C72" t="n">
-        <v>0.06283185307179949</v>
+        <v>4.787836793695988e-15</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4677147269248962</v>
+        <v>0.5328837037086487</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5322853326797485</v>
+        <v>0.4671163260936737</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.4512725189390114</v>
+        <v>0.451282187999592</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09424777960769741</v>
+        <v>4.884981308350689e-15</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4677864611148834</v>
+        <v>0.5344702005386353</v>
       </c>
       <c r="E73" t="n">
-        <v>0.532213568687439</v>
+        <v>0.46552973985672</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.4512713702760455</v>
+        <v>0.4513086862363694</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.129154364647584</v>
+        <v>4.98212582300539e-15</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4674598574638367</v>
+        <v>0.5360220074653625</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5325402021408081</v>
+        <v>0.4639779925346375</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.4512766159667413</v>
+        <v>0.4513358213700565</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1343903524035671</v>
+        <v>5.079270337660091e-15</v>
       </c>
       <c r="D75" t="n">
-        <v>0.4668150544166565</v>
+        <v>0.5375730991363525</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5331850051879883</v>
+        <v>0.4624268412590027</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.4512871254753695</v>
+        <v>0.4513641389165257</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1117010721276408</v>
+        <v>5.176414852314792e-15</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4669024646282196</v>
+        <v>0.5391234755516052</v>
       </c>
       <c r="E76" t="n">
-        <v>0.533097505569458</v>
+        <v>0.4608764946460724</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.4512856845684954</v>
+        <v>0.45139364377775</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C77" t="n">
-        <v>0.08726646259972029</v>
+        <v>5.273559366969494e-15</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4679228961467743</v>
+        <v>0.5406686663627625</v>
       </c>
       <c r="E77" t="n">
-        <v>0.5320770740509033</v>
+        <v>0.4593313932418823</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.4512691925063788</v>
+        <v>0.4514242437315815</v>
       </c>
       <c r="B78" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C78" t="n">
-        <v>0.06283185307179964</v>
+        <v>5.370703881624195e-15</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4692442119121552</v>
+        <v>0.5421467423439026</v>
       </c>
       <c r="E78" t="n">
-        <v>0.5307556986808777</v>
+        <v>0.457853227853775</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.4512486043921676</v>
+        <v>0.4514546241086406</v>
       </c>
       <c r="B79" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C79" t="n">
-        <v>0.1326450231515728</v>
+        <v>5.467848396278896e-15</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4707861840724945</v>
+        <v>0.5437158942222595</v>
       </c>
       <c r="E79" t="n">
-        <v>0.5292138457298279</v>
+        <v>0.4562840163707733</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.4512256842792061</v>
+        <v>0.4514880705015656</v>
       </c>
       <c r="B80" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C80" t="n">
-        <v>0.1570796326794935</v>
+        <v>-0.001745329251988767</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4698059558868408</v>
+        <v>0.545285701751709</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5301940441131592</v>
+        <v>0.4547143280506134</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.451240119764673</v>
+        <v>0.4515227657646577</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C81" t="n">
-        <v>0.1500983156715163</v>
+        <v>5.662137425588298e-15</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4698329865932465</v>
+        <v>0.5468981266021729</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5301670432090759</v>
+        <v>0.4531018435955048</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.451239716600033</v>
+        <v>0.4515596798828764</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1343903524035674</v>
+        <v>5.759281940243e-15</v>
       </c>
       <c r="D82" t="n">
-        <v>0.4706406891345978</v>
+        <v>0.548389732837677</v>
       </c>
       <c r="E82" t="n">
-        <v>0.5293593406677246</v>
+        <v>0.451610267162323</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.4512277969492485</v>
+        <v>0.4515949875245142</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C83" t="n">
-        <v>0.1186823891356186</v>
+        <v>5.856426454897701e-15</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4720613360404968</v>
+        <v>0.5498783588409424</v>
       </c>
       <c r="E83" t="n">
-        <v>0.5279386639595032</v>
+        <v>0.4501215815544128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.451207617152489</v>
+        <v>0.4516313319736648</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1117010721276413</v>
+        <v>5.953570969552402e-15</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4736234843730927</v>
+        <v>0.5513662695884705</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5263765454292297</v>
+        <v>0.4486336708068848</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.4511865877532393</v>
+        <v>0.4516687688748539</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1047197551196641</v>
+        <v>-0.001745329251988281</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4750899970531464</v>
+        <v>0.5528531670570374</v>
       </c>
       <c r="E85" t="n">
-        <v>0.524910032749176</v>
+        <v>0.4471468329429626</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.4511679475730455</v>
+        <v>0.4517072894473897</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C86" t="n">
-        <v>0.08377580409573221</v>
+        <v>-0.001745329251988184</v>
       </c>
       <c r="D86" t="n">
-        <v>0.4767363667488098</v>
+        <v>0.5543802976608276</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5232636332511902</v>
+        <v>0.44561967253685</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.4511482923270779</v>
+        <v>0.451748003594427</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C87" t="n">
-        <v>0.06108652381980589</v>
+        <v>6.245004513516506e-15</v>
       </c>
       <c r="D87" t="n">
-        <v>0.4789328277111053</v>
+        <v>0.5558851957321167</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5210671424865723</v>
+        <v>0.4441147744655609</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.4511241649594688</v>
+        <v>0.451789269995452</v>
       </c>
       <c r="B88" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C88" t="n">
-        <v>0.04188790204786826</v>
+        <v>6.342149028171207e-15</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4816764295101166</v>
+        <v>0.5573537945747375</v>
       </c>
       <c r="E88" t="n">
-        <v>0.5183236002922058</v>
+        <v>0.4426462352275848</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.4510973937701849</v>
+        <v>0.4518306382903588</v>
       </c>
       <c r="B89" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C89" t="n">
-        <v>0.02792526803191359</v>
+        <v>6.439293542825908e-15</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4844244420528412</v>
+        <v>0.5588561296463013</v>
       </c>
       <c r="E89" t="n">
-        <v>0.5155755877494812</v>
+        <v>0.4411438703536987</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.4510743189259341</v>
+        <v>0.4518740757263958</v>
       </c>
       <c r="B90" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C90" t="n">
-        <v>0.0122173047639647</v>
+        <v>6.536438057480609e-15</v>
       </c>
       <c r="D90" t="n">
-        <v>0.4871698021888733</v>
+        <v>0.5603573322296143</v>
       </c>
       <c r="E90" t="n">
-        <v>0.5128301978111267</v>
+        <v>0.4396426677703857</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.4510550031744591</v>
+        <v>0.4519186143325186</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.02443460952791617</v>
+        <v>6.63358257213531e-15</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4897526502609253</v>
+        <v>0.5618574619293213</v>
       </c>
       <c r="E91" t="n">
-        <v>0.5102474093437195</v>
+        <v>0.4381425678730011</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.4510402443204491</v>
+        <v>0.4519642542226348</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.06806784082777437</v>
+        <v>6.730727086790012e-15</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4933010637760162</v>
+        <v>0.5633565187454224</v>
       </c>
       <c r="E92" t="n">
-        <v>0.5066989064216614</v>
+        <v>0.4366434514522552</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.4510253503143837</v>
+        <v>0.4520109913008573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.06632251157577995</v>
+        <v>6.827871601444713e-15</v>
       </c>
       <c r="D93" t="n">
-        <v>0.4973708689212799</v>
+        <v>0.5648543834686279</v>
       </c>
       <c r="E93" t="n">
-        <v>0.5026291012763977</v>
+        <v>0.4351455867290497</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.4510159502388584</v>
+        <v>0.4520588234216509</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.06283185307179118</v>
+        <v>6.925016116099414e-15</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4998900592327118</v>
+        <v>0.5663511157035828</v>
       </c>
       <c r="E94" t="n">
-        <v>0.5001099109649658</v>
+        <v>0.4336488544940948</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.4510142417459732</v>
+        <v>0.4521077495099517</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.03490658503988175</v>
+        <v>7.022160630754115e-15</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5022978186607361</v>
+        <v>0.5678465366363525</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4977022111415863</v>
+        <v>0.4321535527706146</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.4510155483290855</v>
+        <v>0.4521577642958869</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.01221730476395534</v>
+        <v>7.119305145408816e-15</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5040741562843323</v>
+        <v>0.5693407654762268</v>
       </c>
       <c r="E96" t="n">
-        <v>0.4959257543087006</v>
+        <v>0.4306592345237732</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.4510183464860553</v>
+        <v>0.452208863366611</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.001745329251989253</v>
+        <v>7.216449660063518e-15</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5060355067253113</v>
+        <v>0.570833683013916</v>
       </c>
       <c r="E97" t="n">
-        <v>0.4939645230770111</v>
+        <v>0.4291662573814392</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.4510232606328103</v>
+        <v>0.4522610456362977</v>
       </c>
       <c r="B98" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C98" t="n">
-        <v>0.005235987755988172</v>
+        <v>7.313594174718219e-15</v>
       </c>
       <c r="D98" t="n">
-        <v>0.508259654045105</v>
+        <v>0.5722643733024597</v>
       </c>
       <c r="E98" t="n">
-        <v>0.4917403757572174</v>
+        <v>0.4277356564998627</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.4510311335473551</v>
+        <v>0.4523121140252178</v>
       </c>
       <c r="B99" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0122173047639656</v>
+        <v>7.41073868937292e-15</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5105443596839905</v>
+        <v>0.5736737251281738</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4894556105136871</v>
+        <v>0.4263263344764709</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.4510417701072733</v>
+        <v>0.4523634333074105</v>
       </c>
       <c r="B100" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C100" t="n">
-        <v>0.02443460952792602</v>
+        <v>-0.001745329251986824</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5128052234649658</v>
+        <v>0.5751251578330994</v>
       </c>
       <c r="E100" t="n">
-        <v>0.4871947467327118</v>
+        <v>0.424874871969223</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.4510548435800528</v>
+        <v>0.452417336348293</v>
       </c>
       <c r="B101" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="C101" t="n">
-        <v>0.0506145483078411</v>
+        <v>7.605027718682322e-15</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5149460434913635</v>
+        <v>0.576627790927887</v>
       </c>
       <c r="E101" t="n">
-        <v>0.4850539565086365</v>
+        <v>0.4233721792697906</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>0.4510695587514508</v>
+        <v>0.4524742666676178</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9300000000000008</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1117010721276426</v>
+        <v>7.702172233337023e-15</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5166848301887512</v>
+        <v>0.5783885717391968</v>
       </c>
       <c r="E102" t="n">
-        <v>0.4833151400089264</v>
+        <v>0.4216113984584808</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>0.451083180496185</v>
+        <v>0.4525424381876481</v>
       </c>
       <c r="B103" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9000000000000008</v>
       </c>
       <c r="C103" t="n">
-        <v>0.1797689129554216</v>
+        <v>-0.001745329251986533</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5173113942146301</v>
+        <v>0.5801327228546143</v>
       </c>
       <c r="E103" t="n">
-        <v>0.4826886057853699</v>
+        <v>0.4198672473430634</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>0.4510884577756758</v>
+        <v>0.452611520333787</v>
       </c>
       <c r="B104" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.8700000000000008</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1692969374434557</v>
+        <v>-0.07155849933175971</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5176170468330383</v>
+        <v>0.5818150639533997</v>
       </c>
       <c r="E104" t="n">
-        <v>0.4823829531669617</v>
+        <v>0.418184906244278</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>0.4510911023047557</v>
+        <v>0.4526796219035611</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9000000000000008</v>
       </c>
       <c r="C105" t="n">
-        <v>0.09948376736368252</v>
+        <v>-0.1413716694115329</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5198843479156494</v>
+        <v>0.5848879218101501</v>
       </c>
       <c r="E105" t="n">
-        <v>0.4801156520843506</v>
+        <v>0.4151121079921722</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>0.4511121656533138</v>
+        <v>0.4528077386390324</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9300000000000008</v>
       </c>
       <c r="C106" t="n">
-        <v>0.02967059728390933</v>
+        <v>-0.2111848394913061</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5239500403404236</v>
+        <v>0.587525486946106</v>
       </c>
       <c r="E106" t="n">
-        <v>0.476049929857254</v>
+        <v>0.4124745726585388</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0.4511563219697896</v>
+        <v>0.4529215537187399</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.04014257279586385</v>
+        <v>-0.2740166925631019</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5283688902854919</v>
+        <v>0.5903887748718262</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4716311097145081</v>
+        <v>0.4096112251281738</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0.4512136220873199</v>
+        <v>0.4530491399133616</v>
       </c>
       <c r="B108" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.109955742875637</v>
+        <v>-0.2199114857512775</v>
       </c>
       <c r="D108" t="n">
-        <v>0.53254634141922</v>
+        <v>0.5932984948158264</v>
       </c>
       <c r="E108" t="n">
-        <v>0.4674536883831024</v>
+        <v>0.4067015647888184</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0.4512767141703263</v>
+        <v>0.453183106355758</v>
       </c>
       <c r="B109" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.1117010721276313</v>
+        <v>-0.1762782544514191</v>
       </c>
       <c r="D109" t="n">
-        <v>0.5369084477424622</v>
+        <v>0.5939115881919861</v>
       </c>
       <c r="E109" t="n">
-        <v>0.4630915522575378</v>
+        <v>0.4060884118080139</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>0.451351858921485</v>
+        <v>0.4532118879700485</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.1047197551196538</v>
+        <v>-0.10821041362364</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5397548675537109</v>
+        <v>0.5948132872581482</v>
       </c>
       <c r="E110" t="n">
-        <v>0.4602451324462891</v>
+        <v>0.4051867127418518</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>0.451406003439917</v>
+        <v>0.4532545707021086</v>
       </c>
       <c r="B111" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.09948376736367071</v>
+        <v>-0.0471238898038383</v>
       </c>
       <c r="D111" t="n">
-        <v>0.542148232460022</v>
+        <v>0.594821035861969</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4578516781330109</v>
+        <v>0.4051789045333862</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0.4514546536742062</v>
+        <v>0.453254938589996</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.09250245035569327</v>
+        <v>0.01396263401596341</v>
       </c>
       <c r="D112" t="n">
-        <v>0.5445058941841125</v>
+        <v>0.5947016477584839</v>
       </c>
       <c r="E112" t="n">
-        <v>0.4554941356182098</v>
+        <v>0.4052983224391937</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0.4515053785059419</v>
+        <v>0.4532492630845487</v>
       </c>
       <c r="B113" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.08726646259971016</v>
+        <v>0.07853981633975379</v>
       </c>
       <c r="D113" t="n">
-        <v>0.5467675924301147</v>
+        <v>0.5946813821792603</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4532324075698853</v>
+        <v>0.405318558216095</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.4515566437966179</v>
+        <v>0.4532483000039596</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.08203047484372705</v>
+        <v>0.1151917306316348</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5490134358406067</v>
+        <v>0.5942990779876709</v>
       </c>
       <c r="E114" t="n">
-        <v>0.4509865641593933</v>
+        <v>0.4057009518146515</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.4516100807446117</v>
+        <v>0.4532301792236936</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.07853981633973828</v>
+        <v>0.1082104136236575</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5512087941169739</v>
+        <v>0.5942502021789551</v>
       </c>
       <c r="E115" t="n">
-        <v>0.4487912058830261</v>
+        <v>0.4057498574256897</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>0.4516647556906774</v>
+        <v>0.4532278682154433</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.07330382858375517</v>
+        <v>0.104719755119669</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5533977746963501</v>
+        <v>0.5948813557624817</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4466022849082947</v>
+        <v>0.4051186442375183</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>0.4517216765352816</v>
+        <v>0.4532578097784673</v>
       </c>
       <c r="B117" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.0698131700797664</v>
+        <v>0.09948376736368605</v>
       </c>
       <c r="D117" t="n">
-        <v>0.555473268032074</v>
+        <v>0.5955955386161804</v>
       </c>
       <c r="E117" t="n">
-        <v>0.4445267021656036</v>
+        <v>0.4044044017791748</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>0.4517778614107889</v>
+        <v>0.4532919377377747</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.06457718232378329</v>
+        <v>0.09424777960770316</v>
       </c>
       <c r="D118" t="n">
-        <v>0.5574749112129211</v>
+        <v>0.596418559551239</v>
       </c>
       <c r="E118" t="n">
-        <v>0.4425251185894012</v>
+        <v>0.403581440448761</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>0.4518340981994792</v>
+        <v>0.4533315941231074</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.05235987755982285</v>
+        <v>0.09075712110371445</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5594027638435364</v>
+        <v>0.5973051190376282</v>
       </c>
       <c r="E119" t="n">
-        <v>0.4405972361564636</v>
+        <v>0.4026948809623718</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>0.4518901624172287</v>
+        <v>0.453374702085561</v>
       </c>
       <c r="B120" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.04537856055184543</v>
+        <v>0.08552113334773143</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5611262321472168</v>
+        <v>0.5982191562652588</v>
       </c>
       <c r="E120" t="n">
-        <v>0.4388737678527832</v>
+        <v>0.4017808735370636</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0.4519418655091321</v>
+        <v>0.4534195711214134</v>
       </c>
       <c r="B121" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.05585053606381132</v>
+        <v>0.08203047484374272</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5628290176391602</v>
+        <v>0.5992183089256287</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4371709823608398</v>
+        <v>0.4007816910743713</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0.4519944161689903</v>
+        <v>0.4534691113403909</v>
       </c>
       <c r="B122" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.05235987755982258</v>
+        <v>0.07853981633975408</v>
       </c>
       <c r="D122" t="n">
-        <v>0.5648667812347412</v>
+        <v>0.6002402901649475</v>
       </c>
       <c r="E122" t="n">
-        <v>0.435133308172226</v>
+        <v>0.3997596800327301</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>0.452059226524827</v>
+        <v>0.4535203173468786</v>
       </c>
       <c r="B123" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.05061454830782815</v>
+        <v>0.07504915783576545</v>
       </c>
       <c r="D123" t="n">
-        <v>0.5666153430938721</v>
+        <v>0.6013094782829285</v>
       </c>
       <c r="E123" t="n">
-        <v>0.4333846867084503</v>
+        <v>0.3986905515193939</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>0.4521165053373012</v>
+        <v>0.4535744679724817</v>
       </c>
       <c r="B124" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.04712388980383939</v>
+        <v>0.07155849933177678</v>
       </c>
       <c r="D124" t="n">
-        <v>0.5683740973472595</v>
+        <v>0.6024239063262939</v>
       </c>
       <c r="E124" t="n">
-        <v>0.4316258728504181</v>
+        <v>0.3975761234760284</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>0.4521756750127093</v>
+        <v>0.4536315393397565</v>
       </c>
       <c r="B125" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.04363323129985062</v>
+        <v>0.06981317007978245</v>
       </c>
       <c r="D125" t="n">
-        <v>0.5700724124908447</v>
+        <v>0.6035853624343872</v>
       </c>
       <c r="E125" t="n">
-        <v>0.4299276173114777</v>
+        <v>0.3964146375656128</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0.4522342970450425</v>
+        <v>0.4536917039716801</v>
       </c>
       <c r="B126" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.0418879020478562</v>
+        <v>0.06632251157579379</v>
       </c>
       <c r="D126" t="n">
-        <v>0.5717434287071228</v>
+        <v>0.6047602295875549</v>
       </c>
       <c r="E126" t="n">
-        <v>0.4282565414905548</v>
+        <v>0.3952397704124451</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.4522933984656711</v>
+        <v>0.4537532758358032</v>
       </c>
       <c r="B127" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C127" t="n">
-        <v>-0.04014257279586177</v>
+        <v>0.06457718232379946</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5734266042709351</v>
+        <v>0.6060068011283875</v>
       </c>
       <c r="E127" t="n">
-        <v>0.4265733957290649</v>
+        <v>0.3939931988716125</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0.4523543610240268</v>
+        <v>0.4538193896518483</v>
       </c>
       <c r="B128" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C128" t="n">
-        <v>-0.03839724354386734</v>
+        <v>0.06283185307180512</v>
       </c>
       <c r="D128" t="n">
-        <v>0.5750899910926819</v>
+        <v>0.6072569489479065</v>
       </c>
       <c r="E128" t="n">
-        <v>0.4249099791049957</v>
+        <v>0.3927430510520935</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0.4524160166221531</v>
+        <v>0.4538865048721948</v>
       </c>
       <c r="B129" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.03490658503987858</v>
+        <v>0.05934119456781646</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5767338871955872</v>
+        <v>0.6085363626480103</v>
       </c>
       <c r="E129" t="n">
-        <v>0.4232660830020905</v>
+        <v>0.3914636373519897</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0.4524783297522529</v>
+        <v>0.4539560339230695</v>
       </c>
       <c r="B130" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.03316125578788415</v>
+        <v>0.05934119456781649</v>
       </c>
       <c r="D130" t="n">
-        <v>0.5783329010009766</v>
+        <v>0.6098772883415222</v>
       </c>
       <c r="E130" t="n">
-        <v>0.4216670989990234</v>
+        <v>0.3901226818561554</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.4525402591794734</v>
+        <v>0.4540298216052607</v>
       </c>
       <c r="B131" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.03141592653588972</v>
+        <v>0.05759586531582218</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5799530744552612</v>
+        <v>0.6111830472946167</v>
       </c>
       <c r="E131" t="n">
-        <v>0.4200469255447388</v>
+        <v>0.3888169229030609</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0.4526043338054088</v>
+        <v>0.4541025764822891</v>
       </c>
       <c r="B132" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C132" t="n">
-        <v>-0.02967059728389529</v>
+        <v>0.05585053606382788</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5815563201904297</v>
+        <v>0.6125349998474121</v>
       </c>
       <c r="E132" t="n">
-        <v>0.4184436798095703</v>
+        <v>0.3874650001525879</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>0.4526690545225869</v>
+        <v>0.4541788445330299</v>
       </c>
       <c r="B133" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.02792526803190086</v>
+        <v>0.05585053606382791</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5831376910209656</v>
+        <v>0.6139122247695923</v>
       </c>
       <c r="E133" t="n">
-        <v>0.416862279176712</v>
+        <v>0.3860877454280853</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>0.4527341751528212</v>
+        <v>0.4542575216430564</v>
       </c>
       <c r="B134" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C134" t="n">
-        <v>-0.02792526803190076</v>
+        <v>0.0541052068118336</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5847024917602539</v>
+        <v>0.6152797937393188</v>
       </c>
       <c r="E134" t="n">
-        <v>0.4152975082397461</v>
+        <v>0.3847201764583588</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>0.4527998704358607</v>
+        <v>0.4543366311266488</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9600000000000009</v>
       </c>
       <c r="C135" t="n">
-        <v>-0.02617993877990633</v>
+        <v>-0.01570796326793958</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5862900614738464</v>
+        <v>0.6166995167732239</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4137099385261536</v>
+        <v>0.3833004832267761</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>0.4528677995260226</v>
+        <v>0.4544197963196013</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C136" t="n">
-        <v>-0.0244346095279119</v>
+        <v>-0.08552113334771276</v>
       </c>
       <c r="D136" t="n">
-        <v>0.58782958984375</v>
+        <v>0.6198432445526123</v>
       </c>
       <c r="E136" t="n">
-        <v>0.41217041015625</v>
+        <v>0.3801567256450653</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.452934904202878</v>
+        <v>0.4546077237072081</v>
       </c>
       <c r="B137" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C137" t="n">
-        <v>-0.02268928027591748</v>
+        <v>-0.1431169986635256</v>
       </c>
       <c r="D137" t="n">
-        <v>0.5893539786338806</v>
+        <v>0.6224446892738342</v>
       </c>
       <c r="E137" t="n">
-        <v>0.4106460511684418</v>
+        <v>0.3775553107261658</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>0.4530025452495465</v>
+        <v>0.4547671752579756</v>
       </c>
       <c r="B138" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C138" t="n">
-        <v>-0.02094395102392305</v>
+        <v>-0.1361356816555482</v>
       </c>
       <c r="D138" t="n">
-        <v>0.5908636450767517</v>
+        <v>0.6254116892814636</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4091363251209259</v>
+        <v>0.3745883405208588</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.4530707059946815</v>
+        <v>0.454953403023425</v>
       </c>
       <c r="B139" t="n">
-        <v>0.9900000000000011</v>
+        <v>0.9900000000000009</v>
       </c>
       <c r="C139" t="n">
-        <v>-0.02094395102392295</v>
+        <v>-0.1134464013796218</v>
       </c>
       <c r="D139" t="n">
-        <v>0.5923590660095215</v>
+        <v>0.6273163557052612</v>
       </c>
       <c r="E139" t="n">
-        <v>0.4076408743858337</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>0.4531393773517129</v>
-      </c>
-      <c r="B140" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C140" t="n">
-        <v>-0.01919862177192852</v>
-      </c>
-      <c r="D140" t="n">
-        <v>0.5938788056373596</v>
-      </c>
-      <c r="E140" t="n">
-        <v>0.4061212539672852</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>0.453210344792826</v>
-      </c>
-      <c r="B141" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C141" t="n">
-        <v>-0.01919862177192842</v>
-      </c>
-      <c r="D141" t="n">
-        <v>0.5953526496887207</v>
-      </c>
-      <c r="E141" t="n">
-        <v>0.4046473205089569</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="n">
-        <v>0.4532803016648081</v>
-      </c>
-      <c r="B142" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C142" t="n">
-        <v>-0.01745329251993399</v>
-      </c>
-      <c r="D142" t="n">
-        <v>0.5969029068946838</v>
-      </c>
-      <c r="E142" t="n">
-        <v>0.4030970633029938</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="n">
-        <v>0.453355094384322</v>
-      </c>
-      <c r="B143" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C143" t="n">
-        <v>-0.0174532925199339</v>
-      </c>
-      <c r="D143" t="n">
-        <v>0.5984262824058533</v>
-      </c>
-      <c r="E143" t="n">
-        <v>0.4015737175941467</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="n">
-        <v>0.4534297982616129</v>
-      </c>
-      <c r="B144" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C144" t="n">
-        <v>-0.01570796326793947</v>
-      </c>
-      <c r="D144" t="n">
-        <v>0.599962055683136</v>
-      </c>
-      <c r="E144" t="n">
-        <v>0.4000379145145416</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="n">
-        <v>0.4535063229084855</v>
-      </c>
-      <c r="B145" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C145" t="n">
-        <v>-0.01570796326793937</v>
-      </c>
-      <c r="D145" t="n">
-        <v>0.601422905921936</v>
-      </c>
-      <c r="E145" t="n">
-        <v>0.3985770344734192</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="n">
-        <v>0.4535802464559864</v>
-      </c>
-      <c r="B146" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C146" t="n">
-        <v>-0.01396263401594494</v>
-      </c>
-      <c r="D146" t="n">
-        <v>0.6028497219085693</v>
-      </c>
-      <c r="E146" t="n">
-        <v>0.3971502780914307</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="n">
-        <v>0.4536535156137475</v>
-      </c>
-      <c r="B147" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C147" t="n">
-        <v>-0.01396263401594484</v>
-      </c>
-      <c r="D147" t="n">
-        <v>0.6042329072952271</v>
-      </c>
-      <c r="E147" t="n">
-        <v>0.3957671225070953</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="n">
-        <v>0.453725551804222</v>
-      </c>
-      <c r="B148" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C148" t="n">
-        <v>-0.01396263401594475</v>
-      </c>
-      <c r="D148" t="n">
-        <v>0.6056394577026367</v>
-      </c>
-      <c r="E148" t="n">
-        <v>0.3943605720996857</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="n">
-        <v>0.453799823339167</v>
-      </c>
-      <c r="B149" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C149" t="n">
-        <v>-0.01221730476395032</v>
-      </c>
-      <c r="D149" t="n">
-        <v>0.6070394515991211</v>
-      </c>
-      <c r="E149" t="n">
-        <v>0.3929605782032013</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="n">
-        <v>0.4538747701384931</v>
-      </c>
-      <c r="B150" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C150" t="n">
-        <v>-0.01221730476395022</v>
-      </c>
-      <c r="D150" t="n">
-        <v>0.6083966493606567</v>
-      </c>
-      <c r="E150" t="n">
-        <v>0.3916033804416656</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="n">
-        <v>0.4539484000187163</v>
-      </c>
-      <c r="B151" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C151" t="n">
-        <v>-0.01221730476395012</v>
-      </c>
-      <c r="D151" t="n">
-        <v>0.6097777485847473</v>
-      </c>
-      <c r="E151" t="n">
-        <v>0.3902222812175751</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="n">
-        <v>0.4540243123676295</v>
-      </c>
-      <c r="B152" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C152" t="n">
-        <v>-0.01047197551195569</v>
-      </c>
-      <c r="D152" t="n">
-        <v>0.6111526489257812</v>
-      </c>
-      <c r="E152" t="n">
-        <v>0.3888473808765411</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="n">
-        <v>0.4541008730129579</v>
-      </c>
-      <c r="B153" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C153" t="n">
-        <v>-0.0104719755119556</v>
-      </c>
-      <c r="D153" t="n">
-        <v>0.6124857068061829</v>
-      </c>
-      <c r="E153" t="n">
-        <v>0.3875142335891724</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="n">
-        <v>0.4541760465772243</v>
-      </c>
-      <c r="B154" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C154" t="n">
-        <v>-0.0104719755119555</v>
-      </c>
-      <c r="D154" t="n">
-        <v>0.6138432025909424</v>
-      </c>
-      <c r="E154" t="n">
-        <v>0.3861568570137024</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="n">
-        <v>0.4542535554679155</v>
-      </c>
-      <c r="B155" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C155" t="n">
-        <v>-0.08028514559172868</v>
-      </c>
-      <c r="D155" t="n">
-        <v>0.6152002811431885</v>
-      </c>
-      <c r="E155" t="n">
-        <v>0.3847997486591339</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="n">
-        <v>0.4543320050432665</v>
-      </c>
-      <c r="B156" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C156" t="n">
-        <v>-0.1500983156715019</v>
-      </c>
-      <c r="D156" t="n">
-        <v>0.6179693937301636</v>
-      </c>
-      <c r="E156" t="n">
-        <v>0.3820306062698364</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="n">
-        <v>0.4544950813034676</v>
-      </c>
-      <c r="B157" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C157" t="n">
-        <v>-0.2129301687432977</v>
-      </c>
-      <c r="D157" t="n">
-        <v>0.6209298968315125</v>
-      </c>
-      <c r="E157" t="n">
-        <v>0.3790700733661652</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="n">
-        <v>0.454673893662875</v>
-      </c>
-      <c r="B158" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C158" t="n">
-        <v>-0.2076941809873146</v>
-      </c>
-      <c r="D158" t="n">
-        <v>0.6239555478096008</v>
-      </c>
-      <c r="E158" t="n">
-        <v>0.3760444819927216</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="n">
-        <v>0.4548614235684553</v>
-      </c>
-      <c r="B159" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C159" t="n">
-        <v>-0.2024581932313315</v>
-      </c>
-      <c r="D159" t="n">
-        <v>0.6256669163703918</v>
-      </c>
-      <c r="E159" t="n">
-        <v>0.3743331134319305</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="n">
-        <v>0.4549696406921627</v>
-      </c>
-      <c r="B160" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C160" t="n">
-        <v>-0.1954768762233541</v>
-      </c>
-      <c r="D160" t="n">
-        <v>0.6272651553153992</v>
-      </c>
-      <c r="E160" t="n">
-        <v>0.3727347552776337</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
-        <v>0.4550721078969852</v>
-      </c>
-      <c r="B161" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C161" t="n">
-        <v>-0.2024581932313313</v>
-      </c>
-      <c r="D161" t="n">
-        <v>0.6287291646003723</v>
-      </c>
-      <c r="E161" t="n">
-        <v>0.3712707459926605</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>0.4551671616082731</v>
-      </c>
-      <c r="B162" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C162" t="n">
-        <v>-0.1937315469713595</v>
-      </c>
-      <c r="D162" t="n">
-        <v>0.6303852200508118</v>
-      </c>
-      <c r="E162" t="n">
-        <v>0.3696147799491882</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="n">
-        <v>0.4552760607709481</v>
-      </c>
-      <c r="B163" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C163" t="n">
-        <v>-0.1570796326794784</v>
-      </c>
-      <c r="D163" t="n">
-        <v>0.6316285133361816</v>
-      </c>
-      <c r="E163" t="n">
-        <v>0.3683714270591736</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="n">
-        <v>0.4553587792621798</v>
-      </c>
-      <c r="B164" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C164" t="n">
-        <v>-0.129154364647569</v>
-      </c>
-      <c r="D164" t="n">
-        <v>0.6321567296981812</v>
-      </c>
-      <c r="E164" t="n">
-        <v>0.3678432703018188</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="n">
-        <v>0.4553941724742702</v>
-      </c>
-      <c r="B165" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C165" t="n">
-        <v>-0.1047197551196483</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0.6328749656677246</v>
-      </c>
-      <c r="E165" t="n">
-        <v>0.3671251237392426</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="n">
-        <v>0.4554425373920485</v>
-      </c>
-      <c r="B166" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C166" t="n">
-        <v>-0.0366519142918692</v>
-      </c>
-      <c r="D166" t="n">
-        <v>0.6336667537689209</v>
-      </c>
-      <c r="E166" t="n">
-        <v>0.3663332164287567</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="n">
-        <v>0.4554961753154695</v>
-      </c>
-      <c r="B167" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C167" t="n">
-        <v>0.03141592653590984</v>
-      </c>
-      <c r="D167" t="n">
-        <v>0.6335448026657104</v>
-      </c>
-      <c r="E167" t="n">
-        <v>0.3664551675319672</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="n">
-        <v>0.4554878921349417</v>
-      </c>
-      <c r="B168" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C168" t="n">
-        <v>0.09948376736368889</v>
-      </c>
-      <c r="D168" t="n">
-        <v>0.6328729391098022</v>
-      </c>
-      <c r="E168" t="n">
-        <v>0.3671270310878754</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="n">
-        <v>0.455442400568571</v>
-      </c>
-      <c r="B169" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C169" t="n">
-        <v>0.1692969374434622</v>
-      </c>
-      <c r="D169" t="n">
-        <v>0.6320126056671143</v>
-      </c>
-      <c r="E169" t="n">
-        <v>0.3679873943328857</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="n">
-        <v>0.4553845006246905</v>
-      </c>
-      <c r="B170" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C170" t="n">
-        <v>0.2373647782712413</v>
-      </c>
-      <c r="D170" t="n">
-        <v>0.6310272216796875</v>
-      </c>
-      <c r="E170" t="n">
-        <v>0.3689727485179901</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="n">
-        <v>0.4553186711612878</v>
-      </c>
-      <c r="B171" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C171" t="n">
-        <v>0.3054326190990204</v>
-      </c>
-      <c r="D171" t="n">
-        <v>0.6299613118171692</v>
-      </c>
-      <c r="E171" t="n">
-        <v>0.3700386881828308</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="n">
-        <v>0.4552480460859314</v>
-      </c>
-      <c r="B172" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C172" t="n">
-        <v>0.3735004599267994</v>
-      </c>
-      <c r="D172" t="n">
-        <v>0.6287456750869751</v>
-      </c>
-      <c r="E172" t="n">
-        <v>0.3712542653083801</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="n">
-        <v>0.4551682401255943</v>
-      </c>
-      <c r="B173" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C173" t="n">
-        <v>0.4415683007545785</v>
-      </c>
-      <c r="D173" t="n">
-        <v>0.6275631785392761</v>
-      </c>
-      <c r="E173" t="n">
-        <v>0.3724368810653687</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="n">
-        <v>0.4550913654086653</v>
-      </c>
-      <c r="B174" t="n">
-        <v>0.9900000000000011</v>
-      </c>
-      <c r="C174" t="n">
-        <v>0.5113814708343518</v>
-      </c>
-      <c r="D174" t="n">
-        <v>0.6261332631111145</v>
-      </c>
-      <c r="E174" t="n">
-        <v>0.3738666772842407</v>
+        <v>0.3726836442947388</v>
       </c>
     </row>
   </sheetData>
